--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="rpa" sheetId="3" r:id="rId3"/>
     <sheet name="gob" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="67">
   <si>
     <t>IPCNo</t>
   </si>
@@ -63,12 +68,168 @@
   <si>
     <t>156/SUNM-01 4th RA Bill</t>
   </si>
+  <si>
+    <t>161/Kish-16 9th  RA Bill</t>
+  </si>
+  <si>
+    <t>160/(SUNM-01)-05 2nd RA Bill</t>
+  </si>
+  <si>
+    <t>159/Kish-28/Lot-4 1st  RA Bill</t>
+  </si>
+  <si>
+    <t>161/Habi-1 5th  RA Bill</t>
+  </si>
+  <si>
+    <t>172/Kish-12 7th  RA Bill</t>
+  </si>
+  <si>
+    <t>175/Kish-23 2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>174/Netr-01  4th  RA Bill</t>
+  </si>
+  <si>
+    <t>173/Netr-03 4th RA Bill</t>
+  </si>
+  <si>
+    <t>190/Kish-22 2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>191/Kish-26 6th  RA Bill</t>
+  </si>
+  <si>
+    <t>194/(SUNM-01)-06 6th RA Bill</t>
+  </si>
+  <si>
+    <t>192/(SUNM-01)-04 4th RA Bill</t>
+  </si>
+  <si>
+    <t>195/Netr-06 5th RA Bill</t>
+  </si>
+  <si>
+    <t>193/Kish-05 5th  RA Bill</t>
+  </si>
+  <si>
+    <t>199/Kish-17 10th  RA Bill</t>
+  </si>
+  <si>
+    <t>210/(SUNM-01)-06 6th RA final Bill</t>
+  </si>
+  <si>
+    <t>209/(SUNM-01)-05 2nd RA Bill</t>
+  </si>
+  <si>
+    <t>213/Kish-23 3rd  RA Bill</t>
+  </si>
+  <si>
+    <t>212/(SUNM-02)-02 3rd RA Bill</t>
+  </si>
+  <si>
+    <t>214/Kish-26 7th  RA Bill</t>
+  </si>
+  <si>
+    <t>217/Kish-14 8th  RA Bill</t>
+  </si>
+  <si>
+    <t>218/Kish-17  11th  RA Bill</t>
+  </si>
+  <si>
+    <t>220/Kish-03  8th  RA Bill</t>
+  </si>
+  <si>
+    <t>216/Kish-16  10th  RA Bill</t>
+  </si>
+  <si>
+    <t>219/Kish-9  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>225/Kish-21  1st  RA Bill</t>
+  </si>
+  <si>
+    <t>226/(SUNM-01)-05 3rd RA  Bill</t>
+  </si>
+  <si>
+    <t>232/Hobi-2  4th  RA Bill</t>
+  </si>
+  <si>
+    <t>233/Kish-25  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351/(SUNM-02)-02  4th RA Bill </t>
+  </si>
+  <si>
+    <t>248/Kish-01  1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250/(SUNM-01)-03 3rd RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">252/Netr-08 1st RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">249/(SUNM-01)-04 5th RA Bill </t>
+  </si>
+  <si>
+    <t>246/Kish-11  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>247/Kish-10  5th  RA Bill</t>
+  </si>
+  <si>
+    <t>245/Kish-6  12th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243/Netr-03 5th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">242/Netr-02 4th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">241/Netr-01 5th RA Bill </t>
+  </si>
+  <si>
+    <t>240/Hobi-5  3rd RA Bill</t>
+  </si>
+  <si>
+    <t>244/Kish-23  4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255/Netr-06  6th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">256/Netr-04  4th RA Bill </t>
+  </si>
+  <si>
+    <t>257/Kish-26  8th  RA Bill</t>
+  </si>
+  <si>
+    <t>273/Kish-13  7th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347/(SUNM-01)-06  7th RA Bill </t>
+  </si>
+  <si>
+    <t>351/Kish-21  2nd  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349/(SUNM-01)-04  6th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">348/(SUNM-01)-05  4th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">350/(SUNM-02)-01  5th RA Bill </t>
+  </si>
+  <si>
+    <t>352/Hobi-4  5th RA Bill</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +292,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -177,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +378,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +413,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -483,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10121557.06</v>
+        <v>10121557.060000001</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -514,6 +685,2450 @@
       </c>
       <c r="O2">
         <v>17096068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4153902.9180000001</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4153903</v>
+      </c>
+      <c r="N3">
+        <v>519238</v>
+      </c>
+      <c r="O3">
+        <v>3634665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>31435052</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>31435052</v>
+      </c>
+      <c r="N4">
+        <v>3929382</v>
+      </c>
+      <c r="O4">
+        <v>27505670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>7440653</v>
+      </c>
+      <c r="M5">
+        <v>7440658</v>
+      </c>
+      <c r="N5">
+        <v>930087</v>
+      </c>
+      <c r="O5">
+        <v>6510571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>8773225</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>8773275</v>
+      </c>
+      <c r="N6">
+        <v>1096659</v>
+      </c>
+      <c r="O6">
+        <v>7676616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>967157.26999999955</v>
+      </c>
+      <c r="F7">
+        <v>7576934.0999999996</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>8544091</v>
+      </c>
+      <c r="N7">
+        <v>1068011</v>
+      </c>
+      <c r="O7">
+        <v>7476080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>15300148.25</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5002242.9400000004</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>20302391</v>
+      </c>
+      <c r="N8">
+        <v>2537799</v>
+      </c>
+      <c r="O8">
+        <v>17764592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>6272429.75</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>6272429</v>
+      </c>
+      <c r="N9">
+        <v>784054</v>
+      </c>
+      <c r="O9">
+        <v>5488375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2376584.4930000012</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5851260.3669999996</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>8227845</v>
+      </c>
+      <c r="N10">
+        <v>1028481</v>
+      </c>
+      <c r="O10">
+        <v>7199364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3951018.61</v>
+      </c>
+      <c r="F11">
+        <v>1303448.1200000001</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3401350.1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>8655817</v>
+      </c>
+      <c r="N11">
+        <v>1081977</v>
+      </c>
+      <c r="O11">
+        <v>7573840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>5018209.87</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5018210</v>
+      </c>
+      <c r="N12">
+        <v>627276</v>
+      </c>
+      <c r="O12">
+        <v>4390934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>28440949.879999999</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>23440950</v>
+      </c>
+      <c r="N13">
+        <v>2930119</v>
+      </c>
+      <c r="O13">
+        <v>20510831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>11803695.960000001</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>11803696</v>
+      </c>
+      <c r="N14">
+        <v>1475462</v>
+      </c>
+      <c r="O14">
+        <v>10328234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3678989.3829999999</v>
+      </c>
+      <c r="F15">
+        <v>1997998.9920000001</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>24430.226999999999</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5701419</v>
+      </c>
+      <c r="N15">
+        <v>712677</v>
+      </c>
+      <c r="O15">
+        <v>4988742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>764582</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7622328.6999999993</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>8386911</v>
+      </c>
+      <c r="N16">
+        <v>1048364</v>
+      </c>
+      <c r="O16">
+        <v>7338547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>4444197.7699999996</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>181114.16399999999</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>6255338</v>
+      </c>
+      <c r="N17">
+        <v>781917</v>
+      </c>
+      <c r="O17">
+        <v>5473421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>28440949.879999999</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>5000000</v>
+      </c>
+      <c r="N18">
+        <v>625000</v>
+      </c>
+      <c r="O18">
+        <v>4375000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>31061589.32</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>31061589</v>
+      </c>
+      <c r="N19">
+        <v>3882699</v>
+      </c>
+      <c r="O19">
+        <v>27178890</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>18143506.600000001</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>644634.19999999995</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>18788141</v>
+      </c>
+      <c r="N20">
+        <v>2348518</v>
+      </c>
+      <c r="O20">
+        <v>16439623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>35010947</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>35010947</v>
+      </c>
+      <c r="N21">
+        <v>4376368</v>
+      </c>
+      <c r="O21">
+        <v>30634579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>9000456.8900000006</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>9000456</v>
+      </c>
+      <c r="N22">
+        <v>1125057</v>
+      </c>
+      <c r="O22">
+        <v>7875399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>6195501.8360000001</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>6195502</v>
+      </c>
+      <c r="N23">
+        <v>774438</v>
+      </c>
+      <c r="O23">
+        <v>5421064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>2677161.36</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>6396151.4699999997</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>686638.29</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>9449717</v>
+      </c>
+      <c r="N24">
+        <v>1181215</v>
+      </c>
+      <c r="O24">
+        <v>8268502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>333327.88400000002</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4060359.2289999998</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>4393687</v>
+      </c>
+      <c r="N25">
+        <v>549211</v>
+      </c>
+      <c r="O25">
+        <v>3844476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2275479</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>2275479</v>
+      </c>
+      <c r="N26">
+        <v>284435</v>
+      </c>
+      <c r="O26">
+        <v>1991044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>8581506.1300000008</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>8581506.120000001</v>
+      </c>
+      <c r="N27">
+        <v>1072688</v>
+      </c>
+      <c r="O27">
+        <v>7508818.1200000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>19139634.739999998</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>19079635</v>
+      </c>
+      <c r="N28">
+        <v>2332454</v>
+      </c>
+      <c r="O28">
+        <v>16747181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>52195699.359999999</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>52195699</v>
+      </c>
+      <c r="N29">
+        <v>6524462</v>
+      </c>
+      <c r="O29">
+        <v>45671237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>14453370.689999999</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>6619216.5499999998</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>20569256</v>
+      </c>
+      <c r="N30">
+        <v>2571157</v>
+      </c>
+      <c r="O30">
+        <v>17998099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1017606.69</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>5862363.6399999997</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>5503976</v>
+      </c>
+      <c r="N31">
+        <v>687997</v>
+      </c>
+      <c r="O31">
+        <v>4815979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>30565887.629999999</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>30565888</v>
+      </c>
+      <c r="N32">
+        <v>3820736</v>
+      </c>
+      <c r="O32">
+        <v>26745152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>5108675.07</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>5108675</v>
+      </c>
+      <c r="N33">
+        <v>638585</v>
+      </c>
+      <c r="O33">
+        <v>4470090</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>19919089.84</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>19919090</v>
+      </c>
+      <c r="N34">
+        <v>2489886</v>
+      </c>
+      <c r="O34">
+        <v>17429204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>10607590.279999999</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>10607590</v>
+      </c>
+      <c r="N35">
+        <v>1325949</v>
+      </c>
+      <c r="O35">
+        <v>9281641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>21924820</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>21924820</v>
+      </c>
+      <c r="N36">
+        <v>2740603</v>
+      </c>
+      <c r="O36">
+        <v>19184217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>3582351.46</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>3582351</v>
+      </c>
+      <c r="N37">
+        <v>447794</v>
+      </c>
+      <c r="O37">
+        <v>3134557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3940433.72</v>
+      </c>
+      <c r="K38">
+        <v>3457479.39</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>7397913</v>
+      </c>
+      <c r="N38">
+        <v>924739</v>
+      </c>
+      <c r="O38">
+        <v>6473174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3785875.06</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>3785875</v>
+      </c>
+      <c r="N39">
+        <v>473234</v>
+      </c>
+      <c r="O39">
+        <v>3312641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>10106760.09</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>10106760</v>
+      </c>
+      <c r="N40">
+        <v>1263345</v>
+      </c>
+      <c r="O40">
+        <v>8843415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>9265078.2200000007</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>9265078</v>
+      </c>
+      <c r="N41">
+        <v>1158135</v>
+      </c>
+      <c r="O41">
+        <v>8106943</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1181164.51</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>11811765</v>
+      </c>
+      <c r="N42">
+        <v>1476471</v>
+      </c>
+      <c r="O42">
+        <v>10335294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>3421028.06</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>3421028</v>
+      </c>
+      <c r="N43">
+        <v>427629</v>
+      </c>
+      <c r="O43">
+        <v>2993399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>10902577.68</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3276311.75</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>14178889</v>
+      </c>
+      <c r="N44">
+        <v>1772361</v>
+      </c>
+      <c r="O44">
+        <v>12406528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>247168.51</v>
+      </c>
+      <c r="E45">
+        <v>1774035.071</v>
+      </c>
+      <c r="F45">
+        <v>356391.45</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>2377595</v>
+      </c>
+      <c r="N45">
+        <v>297199</v>
+      </c>
+      <c r="O45">
+        <v>2080396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>18663800.670000002</v>
+      </c>
+      <c r="H46">
+        <v>4842188.09</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>23505989</v>
+      </c>
+      <c r="N46">
+        <v>2938249</v>
+      </c>
+      <c r="O46">
+        <v>20567740</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>9480354.0999999996</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>477480.29</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>9957834</v>
+      </c>
+      <c r="N47">
+        <v>1244729</v>
+      </c>
+      <c r="O47">
+        <v>8713105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>7682708.75</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>7682709</v>
+      </c>
+      <c r="N48">
+        <v>960339</v>
+      </c>
+      <c r="O48">
+        <v>6722370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>16117256.970000001</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>16117257</v>
+      </c>
+      <c r="N49">
+        <v>2014657</v>
+      </c>
+      <c r="O49">
+        <v>14102600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>7683514.4699999997</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>7683514</v>
+      </c>
+      <c r="N50">
+        <v>960439</v>
+      </c>
+      <c r="O50">
+        <v>6723075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>14652108</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>14652108</v>
+      </c>
+      <c r="N51">
+        <v>1831514</v>
+      </c>
+      <c r="O51">
+        <v>12820594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>10164437.199999999</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>10164437</v>
+      </c>
+      <c r="N52">
+        <v>1270555</v>
+      </c>
+      <c r="O52">
+        <v>8893882</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>9258302.8699999992</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>544818.16</v>
+      </c>
+      <c r="K53">
+        <v>203113.3</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>10006234</v>
+      </c>
+      <c r="N53">
+        <v>1250779</v>
+      </c>
+      <c r="O53">
+        <v>8755455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>2918327.09</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>2918327</v>
+      </c>
+      <c r="N54">
+        <v>364791</v>
+      </c>
+      <c r="O54">
+        <v>2553536</v>
       </c>
     </row>
   </sheetData>
@@ -522,14 +3137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +3182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -581,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5180350340489102</v>
+        <v>0.51803503404891016</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -596,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4819649614471304</v>
+        <v>0.48196496144713041</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -605,6 +3220,2138 @@
         <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.99999998025952941</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.99999932801642011</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.99999430087396102</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.1131960403979779</v>
+      </c>
+      <c r="F7">
+        <v>0.88680400290680417</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.75361312123286361</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.24638688812564</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.000000119570903</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.28884653186830828</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.71115345111630079</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.45645819568505203</v>
+      </c>
+      <c r="F11">
+        <v>0.15058637676836281</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.39295540790661349</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.99999997409434838</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1.2133019301692121</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.99999999661123096</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.64527609407412434</v>
+      </c>
+      <c r="F15">
+        <v>0.35043889810589263</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>4.2849380127999706E-3</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>9.1163719276381977E-2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.90883624495359483</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>0.71046484938144028</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2.8953537602604371E-2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>5.6881899759999994</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1.0000000103021129</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.96568929304926987</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3.4310696305717522E-2</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.0000000988838791</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.99999997352918302</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>0.28330598260244189</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.67686169543490027</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.2662312532745688E-2</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>7.5865186573372212E-2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.92413483914534644</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1.000000001165297</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.0031447006192731</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1.00000000689712</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.70266861815517279</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.32180145698998541</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.18488574259771479</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.0651143173589419</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.99999998789500244</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1.0000000137021829</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.99999999196750455</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1.0000000263961939</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1.000000128407295</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.53264126247497101</v>
+      </c>
+      <c r="K38">
+        <v>0.46735875239408742</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1.0000000158483839</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.000000008904931</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1.0000000237450779</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>9.9998984910383837E-2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1.0000000175385879</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.768930321691636</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.23106970863514059</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0.1039573644796528</v>
+      </c>
+      <c r="E45">
+        <v>0.74614687152353532</v>
+      </c>
+      <c r="F45">
+        <v>0.1498957770351973</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0.79400193159283794</v>
+      </c>
+      <c r="H46">
+        <v>0.20599805819699821</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.95204982328486287</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>4.795021588028079E-2</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.9999999674593949</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.99999999813864116</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1.000000061169928</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1.000000019676446</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0.92525348397808793</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>5.4447873195849712E-2</v>
+      </c>
+      <c r="K53">
+        <v>2.0298675805502851E-2</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.0000000308395871</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <v>0</v>
       </c>
     </row>
@@ -614,14 +5361,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +5411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -673,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8856362.17</v>
+        <v>8856362.1699999999</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -697,7 +5449,2139 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17096067.92</v>
+        <v>17096067.920000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3634664.93</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3634664.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>27505670</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>27505670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6510566.6299999999</v>
+      </c>
+      <c r="M5">
+        <v>6510566.6299999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7676572.25</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>7676572.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>846262.65</v>
+      </c>
+      <c r="F7">
+        <v>6629817.6699999999</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>7476080.3200000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>13387629.619999999</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4376962.54</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>17764592.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5488375.6600000001</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>5488375.6600000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2079511.32</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5119852.55</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7199363.8700000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3457141.34</v>
+      </c>
+      <c r="F11">
+        <v>1140517.1200000001</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2976181.39</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>7573839.8499999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4390933.8899999997</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4390933.8899999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>24885830.84</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24885830.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10328233.960000001</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>10328233.960000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3219115.95</v>
+      </c>
+      <c r="F15">
+        <v>1748249.25</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>21376.45</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4988741.6500000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>669009.24</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>6669537.5</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7338546.7400000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>3888673.23</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>158474.9</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4047148.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>24885831.140000001</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>24885831.140000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>27178890.280000001</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>27178890.280000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>15875567.91</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>564054.91</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>16439622.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>30634579</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>30634579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>7875399.7800000003</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>7875399.7800000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5421063.8600000003</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5421063.8600000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>2342516.08</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>5596632.2800000003</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>600808.48</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>8539956.8399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>291661.89</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>3552814.21</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3844476.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1991044</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1991044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>7508818.1299999999</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>7508818.1299999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>16799845.870000001</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>16799845.870000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>45671237.32</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>45671237.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>12646699.35</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>5791814.4800000004</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>18438513.829999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>890405.85</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>5129568.18</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>6019974.0299999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>26745151.68</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>26745151.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>4470090.0599999996</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>4470090.0599999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>17429203.859999999</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>17429203.859999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>9281641.2400000002</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>9281641.2400000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>19184217</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>19184217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>3134557.4</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>3134557.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3447879.57</v>
+      </c>
+      <c r="K38">
+        <v>3025294.52</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>6473174.0899999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3312641.05</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>3312641.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>8843415.0800000001</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>8843415.0800000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>8106943.1900000004</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>8106943.1900000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1033518.91</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1033518.91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2993399.05</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>2993399.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>9539755.5700000003</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>2866772.81</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>12406528.380000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>216272.49</v>
+      </c>
+      <c r="E45">
+        <v>1552280.97</v>
+      </c>
+      <c r="F45">
+        <v>311842.57</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>2080396.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>16330825.289999999</v>
+      </c>
+      <c r="H46">
+        <v>4236914.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>20567739.789999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>8295310.0800000001</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>417795.27</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>8713105.3499999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>6722369.7800000003</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>6722369.7800000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>14102599.970000001</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>14102599.970000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>6723075.4100000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>6723075.4100000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>12820594</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>12820594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>8893882.1699999999</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>8893882.1699999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>8101015.2400000002</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>476715.9</v>
+      </c>
+      <c r="K53">
+        <v>177724.14</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>8755455.2800000012</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>2553536.08</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>2553536.08</v>
       </c>
     </row>
   </sheetData>
@@ -706,14 +7590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +7635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -765,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1265194.89</v>
+        <v>1265194.8899999999</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -780,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1177101.1</v>
+        <v>1177101.1000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -789,7 +7673,2139 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2442295.99</v>
+        <v>2442295.9900000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>519237.99</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>519237.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3929382</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3929382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>930086.37</v>
+      </c>
+      <c r="M5">
+        <v>930086.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1096652.75</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1096652.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>120894.62</v>
+      </c>
+      <c r="F7">
+        <v>947116.43</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1068011.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1912518.63</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>625280.4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2537799.0299999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>784054.09</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>784054.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>297073.17</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>731407.81</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1028480.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>493877.27</v>
+      </c>
+      <c r="F11">
+        <v>162931</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>425168.71</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1081976.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>627275.98</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>627275.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3555119.04</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3555119.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1475462</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1475462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>459873.43</v>
+      </c>
+      <c r="F15">
+        <v>249749.74</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3053.78</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>712676.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>95572.76</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>952791.2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1048363.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>555524.54</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>22639.26</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>578163.80000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3555118.74</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3555118.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3882699.04</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>3882699.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2267938.69</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>80579.289999999994</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2348517.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>4376368</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>4376368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1125057.1100000001</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1125057.1100000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>774437.98</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>774437.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>334645.28000000003</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>799519.19</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>85829.81</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1219994.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>41665.99</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>507545.02</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>549211.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>284435</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>284435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1072688</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1072688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2339788.87</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>2339788.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>6524462.04</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>6524462.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1806671.34</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>827402.07</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>2634073.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>127200.84</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>732795.46</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>859996.29999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>3820735.95</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>3820735.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>638585.01</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>638585.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2489885.98</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>2489885.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1325949.04</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1325949.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2740603</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>2740603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>447794.06</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>447794.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>492554.15</v>
+      </c>
+      <c r="K38">
+        <v>432184.87</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>924739.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>473234.01</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>473234.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1263345.01</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1263345.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1158135.03</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1158135.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>147645.6</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>147645.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>427629.01</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>427629.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1362822.11</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>409538.94</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1772361.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>30896.02</v>
+      </c>
+      <c r="E45">
+        <v>221754.1</v>
+      </c>
+      <c r="F45">
+        <v>44548.88</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>297199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>2332975.38</v>
+      </c>
+      <c r="H46">
+        <v>605273.59</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>2938248.97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1185044.02</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>59685.02</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1244729.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>960338.97</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>960338.97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2014657</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>2014657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>960439.06</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>960439.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1831514</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1831514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1270555.03</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1270555.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1157287.6299999999</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>68102.259999999995</v>
+      </c>
+      <c r="K53">
+        <v>25389.16</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1250779.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>364791.01</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>364791.01</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -281,10 +281,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,9 +603,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -687,7 +696,7 @@
         <v>17096068</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,7 +743,7 @@
         <v>3634665</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -781,7 +790,7 @@
         <v>27505670</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -828,7 +837,7 @@
         <v>6510571</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -875,7 +884,7 @@
         <v>7676616</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,7 +931,7 @@
         <v>7476080</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -969,7 +978,7 @@
         <v>17764592</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>5488375</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>7199364</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>7573840</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1157,7 +1166,7 @@
         <v>4390934</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>20510831</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1251,7 +1260,7 @@
         <v>10328234</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>4988742</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>7338547</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>5473421</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>4375000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1486,7 +1495,7 @@
         <v>27178890</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1533,7 +1542,7 @@
         <v>16439623</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>30634579</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1627,7 +1636,7 @@
         <v>7875399</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1674,7 +1683,7 @@
         <v>5421064</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1721,7 +1730,7 @@
         <v>8268502</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1768,7 +1777,7 @@
         <v>3844476</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>1991044</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1862,7 +1871,7 @@
         <v>7508818.1200000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>16747181</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>45671237</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2003,7 +2012,7 @@
         <v>17998099</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2050,7 +2059,7 @@
         <v>4815979</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>26745152</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>4470090</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>17429204</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2238,7 +2247,7 @@
         <v>9281641</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>19184217</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>3134557</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2379,7 +2388,7 @@
         <v>6473174</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>3312641</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>8843415</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>8106943</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2567,7 +2576,7 @@
         <v>10335294</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>2993399</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>12406528</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2708,7 +2717,7 @@
         <v>2080396</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2755,7 +2764,7 @@
         <v>20567740</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>8713105</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2849,7 +2858,7 @@
         <v>6722370</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2896,7 +2905,7 @@
         <v>14102600</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2943,7 +2952,7 @@
         <v>6723075</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2990,7 +2999,7 @@
         <v>12820594</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>8893882</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3084,7 +3093,7 @@
         <v>8755455</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3142,9 +3151,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3305,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3428,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3510,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3674,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3756,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3797,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3838,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3920,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3961,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4002,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4125,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4289,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4330,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4371,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4453,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4494,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4535,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4576,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4617,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4658,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4781,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4822,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4863,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4904,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4945,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4986,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5027,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5068,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5109,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5191,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5232,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5273,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5314,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5365,15 +5374,17 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5411,14 +5422,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2">
@@ -5452,14 +5463,14 @@
         <v>17096067.920000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3">
@@ -5493,14 +5504,14 @@
         <v>3634664.93</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4">
@@ -5534,14 +5545,14 @@
         <v>27505670</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5">
@@ -5575,14 +5586,14 @@
         <v>6510566.6299999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6">
@@ -5616,14 +5627,14 @@
         <v>7676572.25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7">
@@ -5657,14 +5668,14 @@
         <v>7476080.3200000003</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8">
@@ -5698,14 +5709,14 @@
         <v>17764592.16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9">
@@ -5739,14 +5750,14 @@
         <v>5488375.6600000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10">
@@ -5780,14 +5791,14 @@
         <v>7199363.8700000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11">
@@ -5821,14 +5832,14 @@
         <v>7573839.8499999996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12">
@@ -5862,14 +5873,14 @@
         <v>4390933.8899999997</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13">
@@ -5903,14 +5914,14 @@
         <v>24885830.84</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14">
@@ -5944,14 +5955,14 @@
         <v>10328233.960000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15">
@@ -5985,14 +5996,14 @@
         <v>4988741.6500000004</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16">
@@ -6026,14 +6037,14 @@
         <v>7338546.7400000002</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>3888673.23</v>
       </c>
       <c r="D17">
@@ -6067,14 +6078,14 @@
         <v>4047148.13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18">
@@ -6108,14 +6119,14 @@
         <v>24885831.140000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="D19">
@@ -6149,14 +6160,14 @@
         <v>27178890.280000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20">
@@ -6190,14 +6201,14 @@
         <v>16439622.82</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>0</v>
       </c>
       <c r="D21">
@@ -6231,14 +6242,14 @@
         <v>30634579</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22">
@@ -6272,14 +6283,14 @@
         <v>7875399.7800000003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23">
@@ -6313,14 +6324,14 @@
         <v>5421063.8600000003</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>2342516.08</v>
       </c>
       <c r="D24">
@@ -6354,14 +6365,14 @@
         <v>8539956.8399999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25">
@@ -6395,14 +6406,14 @@
         <v>3844476.1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26">
@@ -6436,14 +6447,14 @@
         <v>1991044</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27">
@@ -6477,14 +6488,14 @@
         <v>7508818.1299999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28">
@@ -6518,14 +6529,14 @@
         <v>16799845.870000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29">
@@ -6559,14 +6570,14 @@
         <v>45671237.32</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>0</v>
       </c>
       <c r="D30">
@@ -6600,14 +6611,14 @@
         <v>18438513.829999998</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31">
@@ -6641,14 +6652,14 @@
         <v>6019974.0299999993</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>0</v>
       </c>
       <c r="D32">
@@ -6682,14 +6693,14 @@
         <v>26745151.68</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33">
@@ -6723,14 +6734,14 @@
         <v>4470090.0599999996</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>0</v>
       </c>
       <c r="D34">
@@ -6764,14 +6775,14 @@
         <v>17429203.859999999</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0</v>
       </c>
       <c r="D35">
@@ -6805,14 +6816,14 @@
         <v>9281641.2400000002</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>48</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>0</v>
       </c>
       <c r="D36">
@@ -6846,14 +6857,14 @@
         <v>19184217</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37">
@@ -6887,14 +6898,14 @@
         <v>3134557.4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38">
@@ -6928,14 +6939,14 @@
         <v>6473174.0899999999</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39">
@@ -6969,14 +6980,14 @@
         <v>3312641.05</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40">
@@ -7010,14 +7021,14 @@
         <v>8843415.0800000001</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="D41">
@@ -7051,14 +7062,14 @@
         <v>8106943.1900000004</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>54</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42">
@@ -7092,14 +7103,14 @@
         <v>1033518.91</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43">
@@ -7133,14 +7144,14 @@
         <v>2993399.05</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>56</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="D44">
@@ -7174,14 +7185,14 @@
         <v>12406528.380000001</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>57</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45">
@@ -7215,14 +7226,14 @@
         <v>2080396.03</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="D46">
@@ -7256,14 +7267,14 @@
         <v>20567739.789999999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>59</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47">
@@ -7297,14 +7308,14 @@
         <v>8713105.3499999996</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>60</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48">
@@ -7338,14 +7349,14 @@
         <v>6722369.7800000003</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>61</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>0</v>
       </c>
       <c r="D49">
@@ -7379,14 +7390,14 @@
         <v>14102599.970000001</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>62</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50">
@@ -7420,14 +7431,14 @@
         <v>6723075.4100000001</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>63</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>0</v>
       </c>
       <c r="D51">
@@ -7461,14 +7472,14 @@
         <v>12820594</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>64</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>0</v>
       </c>
       <c r="D52">
@@ -7502,14 +7513,14 @@
         <v>8893882.1699999999</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53">
@@ -7543,14 +7554,14 @@
         <v>8755455.2800000012</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>66</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54">
@@ -7593,49 +7604,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="13" width="11.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7676,7 +7693,7 @@
         <v>2442295.9900000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7717,7 +7734,7 @@
         <v>519237.99</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7758,7 +7775,7 @@
         <v>3929382</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7799,7 +7816,7 @@
         <v>930086.37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7840,7 +7857,7 @@
         <v>1096652.75</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7881,7 +7898,7 @@
         <v>1068011.05</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7922,7 +7939,7 @@
         <v>2537799.0299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7963,7 +7980,7 @@
         <v>784054.09</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8004,7 +8021,7 @@
         <v>1028480.98</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8045,7 +8062,7 @@
         <v>1081976.98</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8086,7 +8103,7 @@
         <v>627275.98</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8127,7 +8144,7 @@
         <v>3555119.04</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8168,7 +8185,7 @@
         <v>1475462</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8209,7 +8226,7 @@
         <v>712676.95</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8250,7 +8267,7 @@
         <v>1048363.96</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8291,7 +8308,7 @@
         <v>578163.80000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8332,7 +8349,7 @@
         <v>3555118.74</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8373,7 +8390,7 @@
         <v>3882699.04</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8414,7 +8431,7 @@
         <v>2348517.98</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8455,7 +8472,7 @@
         <v>4376368</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8496,7 +8513,7 @@
         <v>1125057.1100000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8537,7 +8554,7 @@
         <v>774437.98</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8578,7 +8595,7 @@
         <v>1219994.28</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8619,7 +8636,7 @@
         <v>549211.01</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8660,7 +8677,7 @@
         <v>284435</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8701,7 +8718,7 @@
         <v>1072688</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8742,7 +8759,7 @@
         <v>2339788.87</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8783,7 +8800,7 @@
         <v>6524462.04</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8824,7 +8841,7 @@
         <v>2634073.41</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8865,7 +8882,7 @@
         <v>859996.29999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8906,7 +8923,7 @@
         <v>3820735.95</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8947,7 +8964,7 @@
         <v>638585.01</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8988,7 +9005,7 @@
         <v>2489885.98</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9029,7 +9046,7 @@
         <v>1325949.04</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9070,7 +9087,7 @@
         <v>2740603</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9111,7 +9128,7 @@
         <v>447794.06</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9152,7 +9169,7 @@
         <v>924739.02</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9193,7 +9210,7 @@
         <v>473234.01</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9234,7 +9251,7 @@
         <v>1263345.01</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9275,7 +9292,7 @@
         <v>1158135.03</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9316,7 +9333,7 @@
         <v>147645.6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9357,7 +9374,7 @@
         <v>427629.01</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9398,7 +9415,7 @@
         <v>1772361.05</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9439,7 +9456,7 @@
         <v>297199</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9480,7 +9497,7 @@
         <v>2938248.97</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9521,7 +9538,7 @@
         <v>1244729.04</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9562,7 +9579,7 @@
         <v>960338.97</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9603,7 +9620,7 @@
         <v>2014657</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9644,7 +9661,7 @@
         <v>960439.06</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9685,7 +9702,7 @@
         <v>1831514</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9726,7 +9743,7 @@
         <v>1270555.03</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9767,7 +9784,7 @@
         <v>1250779.05</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9810,5 +9827,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="rpa" sheetId="3" r:id="rId3"/>
     <sheet name="gob" sheetId="4" r:id="rId4"/>
     <sheet name="package_wise_gob" sheetId="5" r:id="rId5"/>
-    <sheet name="package_wise_rpa" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="package_wise_rpa" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="250">
   <si>
     <t xml:space="preserve">Sl No </t>
   </si>
@@ -766,12 +767,24 @@
   <si>
     <t>GT-03</t>
   </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>GoB</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,13 +800,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -820,16 +846,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1134,16 +1186,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1258,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1317,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1376,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1435,7 +1487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1494,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1553,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1612,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1671,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1730,7 +1782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1789,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1848,7 +1900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1907,7 +1959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1966,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2025,7 +2077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2084,7 +2136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2143,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2202,7 +2254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2261,7 +2313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2320,7 +2372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2379,7 +2431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2438,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2497,7 +2549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2556,7 +2608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2615,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2674,7 +2726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2733,7 +2785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2792,7 +2844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2851,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2910,7 +2962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2969,7 +3021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3028,7 +3080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3087,7 +3139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3146,7 +3198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3205,7 +3257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3264,7 +3316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3323,7 +3375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3382,7 +3434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3441,7 +3493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3500,7 +3552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3559,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3618,7 +3670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3677,7 +3729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3736,7 +3788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3795,7 +3847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3854,7 +3906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3913,7 +3965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3972,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4031,7 +4083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4090,7 +4142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4149,7 +4201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4208,7 +4260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4267,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4326,7 +4378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4385,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4444,7 +4496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4503,7 +4555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4562,7 +4614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4621,7 +4673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4680,7 +4732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4739,7 +4791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4798,7 +4850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4857,7 +4909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4916,7 +4968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4975,7 +5027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5034,7 +5086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5093,7 +5145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5152,7 +5204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5211,7 +5263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5270,7 +5322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5329,7 +5381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5388,7 +5440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5447,7 +5499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5506,7 +5558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5565,7 +5617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5624,7 +5676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5683,7 +5735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5742,7 +5794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5801,7 +5853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5860,7 +5912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5919,7 +5971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5978,7 +6030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6037,7 +6089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6096,7 +6148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6155,7 +6207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6214,7 +6266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6273,7 +6325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6332,7 +6384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6391,7 +6443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6450,7 +6502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6509,7 +6561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6568,7 +6620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6627,7 +6679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6686,7 +6738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6745,7 +6797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6804,7 +6856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6863,7 +6915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6922,7 +6974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6981,7 +7033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7040,7 +7092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7099,7 +7151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7158,7 +7210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7217,13 +7269,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q104">
         <f>SUM(Q2:Q103)</f>
         <v>975195459.25</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q105">
         <v>975195459.25999999</v>
       </c>
@@ -7239,9 +7291,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7291,7 +7343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7344,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7397,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7450,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7503,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7556,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7609,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7662,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7715,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7768,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7821,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7874,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7927,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7980,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8033,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8086,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8139,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8192,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8245,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8298,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8351,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8404,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8457,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8510,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8563,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8616,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8669,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8722,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8775,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8828,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8881,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8934,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8987,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9040,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9093,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9146,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9199,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9252,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9305,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9358,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9411,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9464,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9517,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9570,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9623,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9676,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9729,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9782,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9835,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9888,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9941,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9994,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10047,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10100,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10153,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -10206,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -10259,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10312,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10365,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10418,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10471,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10524,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10577,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10630,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10683,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10736,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10789,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10842,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10895,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10948,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11001,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11054,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11107,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11160,7 +11212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11213,7 +11265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11266,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11319,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11372,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11425,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11478,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11531,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11584,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11637,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11690,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11743,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11796,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11849,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11902,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -11955,7 +12007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12008,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12061,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12114,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12167,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -12220,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12273,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12326,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12379,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12432,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12485,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12538,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12591,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12644,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12708,9 +12760,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12760,7 +12812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12813,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12866,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12919,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12972,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13025,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13078,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13131,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13184,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13237,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13290,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13343,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13396,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13449,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13502,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13555,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -13608,7 +13660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -13661,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -13714,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -13767,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -13820,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -13873,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13926,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13979,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14032,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14085,7 +14137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14138,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -14191,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -14244,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -14297,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -14350,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -14403,7 +14455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -14456,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -14509,7 +14561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -14562,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -14615,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -14668,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -14721,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -14774,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -14827,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -14880,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -14933,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -14986,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -15039,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -15092,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -15145,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -15198,7 +15250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -15251,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -15304,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -15357,7 +15409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -15410,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -15463,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -15516,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -15569,7 +15621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -15622,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -15675,7 +15727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -15728,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -15781,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -15834,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -15887,7 +15939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -15940,7 +15992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -15993,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -16046,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -16099,7 +16151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -16152,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -16205,7 +16257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -16258,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -16311,7 +16363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -16364,7 +16416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -16417,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -16470,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -16523,7 +16575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -16576,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -16629,7 +16681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -16682,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -16735,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -16788,7 +16840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -16841,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -16894,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -16947,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -17000,7 +17052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -17053,7 +17105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -17106,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -17159,7 +17211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -17212,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -17265,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -17318,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -17371,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17424,7 +17476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17477,7 +17529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17530,7 +17582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17583,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17636,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -17689,7 +17741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -17742,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -17795,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -17848,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -17901,7 +17953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -17954,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -18007,7 +18059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -18060,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -18113,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -18177,9 +18229,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18229,7 +18281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -18282,7 +18334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18335,7 +18387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18388,7 +18440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -18441,7 +18493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -18494,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18547,7 +18599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18600,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18653,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -18706,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18759,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18812,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18865,7 +18917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18918,7 +18970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -18971,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -19024,7 +19076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -19077,7 +19129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -19130,7 +19182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -19183,7 +19235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -19236,7 +19288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -19289,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -19342,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -19395,7 +19447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -19448,7 +19500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -19501,7 +19553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -19554,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -19607,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -19660,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -19713,7 +19765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -19766,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -19819,7 +19871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -19872,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -19925,7 +19977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19978,7 +20030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -20031,7 +20083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -20084,7 +20136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -20137,7 +20189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -20190,7 +20242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -20243,7 +20295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -20296,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -20349,7 +20401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -20402,7 +20454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -20455,7 +20507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -20508,7 +20560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -20561,7 +20613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -20614,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -20667,7 +20719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -20720,7 +20772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -20773,7 +20825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -20826,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -20879,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -20932,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -20985,7 +21037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -21038,7 +21090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -21091,7 +21143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -21144,7 +21196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -21197,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -21250,7 +21302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -21303,7 +21355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -21356,7 +21408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -21409,7 +21461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -21462,7 +21514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -21515,7 +21567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -21568,7 +21620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -21621,7 +21673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -21674,7 +21726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -21727,7 +21779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -21780,7 +21832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -21833,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -21886,7 +21938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -21939,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -21992,7 +22044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -22045,7 +22097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -22098,7 +22150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -22151,7 +22203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -22204,7 +22256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -22257,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -22310,7 +22362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -22363,7 +22415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -22416,7 +22468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -22469,7 +22521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -22522,7 +22574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -22575,7 +22627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -22628,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -22681,7 +22733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -22734,7 +22786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -22787,7 +22839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -22840,7 +22892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -22893,7 +22945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -22946,7 +22998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -22999,7 +23051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -23052,7 +23104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -23105,7 +23157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -23158,7 +23210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -23211,7 +23263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -23264,7 +23316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -23317,7 +23369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -23370,7 +23422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -23423,7 +23475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -23476,7 +23528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -23529,7 +23581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -23582,7 +23634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -23644,11 +23696,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>191</v>
       </c>
@@ -23716,17 +23776,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>638585</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2">
@@ -23783,21 +23843,21 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="2">
         <v>638585</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3">
@@ -23854,21 +23914,21 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="2">
         <v>455942</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4">
@@ -23925,21 +23985,21 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="2">
         <v>549211</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5">
@@ -23996,21 +24056,21 @@
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="2">
         <v>711031</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6">
@@ -24067,21 +24127,21 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="2">
         <v>1048364</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7">
@@ -24138,21 +24198,21 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="2">
         <v>1467691</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8">
@@ -24209,21 +24269,21 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="2">
         <v>635580</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9">
@@ -24280,21 +24340,21 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="2">
         <v>3960887</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10">
@@ -24351,21 +24411,21 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="2">
         <v>2061587</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11">
@@ -24422,21 +24482,21 @@
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="2">
         <v>849606</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12">
@@ -24493,21 +24553,21 @@
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="2">
         <v>2219979</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13">
@@ -24564,21 +24624,21 @@
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="2">
         <v>2332094</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14">
@@ -24635,21 +24695,21 @@
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="2">
         <v>1574309</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15">
@@ -24706,21 +24766,21 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16">
@@ -24777,21 +24837,21 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="2">
         <v>1874470</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17">
@@ -24848,21 +24908,21 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="2">
         <v>5350219.99</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18">
@@ -24919,21 +24979,21 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19">
@@ -24990,21 +25050,21 @@
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="2">
         <v>437413</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20">
@@ -25061,21 +25121,21 @@
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="2">
         <v>2975667</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>2392454</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>960439</v>
       </c>
       <c r="E21">
@@ -25132,21 +25192,21 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="2">
         <v>3352893</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1358807</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>1232956</v>
       </c>
       <c r="E22">
@@ -25203,21 +25263,21 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="2">
         <v>3513179</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>1449044</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>2537799</v>
       </c>
       <c r="E23">
@@ -25274,21 +25334,21 @@
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="2">
         <v>9004263</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24">
@@ -25345,21 +25405,21 @@
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="2">
         <v>1284687</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25">
@@ -25416,21 +25476,21 @@
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="2">
         <v>2882492.01</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26">
@@ -25487,21 +25547,21 @@
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="2">
         <v>3556149</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27">
@@ -25558,21 +25618,21 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
         <v>236372</v>
       </c>
       <c r="E28">
@@ -25629,21 +25689,21 @@
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="2">
         <v>236372</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29">
@@ -25700,21 +25760,21 @@
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30">
@@ -25771,21 +25831,21 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>930082</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31">
@@ -25842,21 +25902,21 @@
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="2">
         <v>930082</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32">
@@ -25913,21 +25973,21 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="2">
         <v>2746384</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33">
@@ -25984,21 +26044,21 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="2">
         <v>6163305</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34">
@@ -26055,21 +26115,21 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="2">
         <v>364791</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35">
@@ -26126,21 +26186,21 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="2">
         <v>935778</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36">
@@ -26197,21 +26257,21 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="2">
         <v>2150856</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37">
@@ -26268,21 +26328,21 @@
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="2">
         <v>2602548</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38">
@@ -26339,21 +26399,21 @@
       <c r="V38">
         <v>0</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39">
@@ -26410,21 +26470,21 @@
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="2">
         <v>4863889</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40">
@@ -26481,21 +26541,21 @@
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="2">
         <v>1616869</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41">
@@ -26552,21 +26612,21 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="2">
         <v>5332769</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42">
@@ -26623,21 +26683,21 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="2">
         <v>4281078</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>1538850</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43">
@@ -26694,21 +26754,21 @@
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="2">
         <v>4059146</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44">
@@ -26765,21 +26825,21 @@
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="2">
         <v>1817224.99</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
         <v>0</v>
       </c>
       <c r="E45">
@@ -26836,21 +26896,21 @@
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>1325949</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>379810</v>
       </c>
       <c r="E46">
@@ -26907,21 +26967,21 @@
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="2">
         <v>1705759</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
         <v>0</v>
       </c>
       <c r="E47">
@@ -26978,21 +27038,21 @@
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="2">
         <v>3693075</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
         <v>1505304</v>
       </c>
       <c r="E48">
@@ -27049,21 +27109,21 @@
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="2">
         <v>9702408</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
         <v>0</v>
       </c>
       <c r="E49">
@@ -27120,21 +27180,21 @@
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="2">
         <v>2489886</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
         <v>0</v>
       </c>
       <c r="E50">
@@ -27191,21 +27251,21 @@
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="2">
         <v>6047579</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>1548390.75</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>7812081</v>
       </c>
       <c r="E51">
@@ -27262,21 +27322,21 @@
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="2">
         <v>17155488.75</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
         <v>0</v>
       </c>
       <c r="E52">
@@ -27333,21 +27393,21 @@
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="2">
         <v>7261190</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>28740</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>0</v>
       </c>
       <c r="E53">
@@ -27404,21 +27464,21 @@
       <c r="V53">
         <v>0</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="2">
         <v>28740</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>237399</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>104719</v>
       </c>
       <c r="E54">
@@ -27475,21 +27535,21 @@
       <c r="V54">
         <v>0</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="2">
         <v>342118</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
         <v>0</v>
       </c>
       <c r="E55">
@@ -27546,7 +27606,7 @@
       <c r="V55">
         <v>0</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="2">
         <v>0</v>
       </c>
     </row>
@@ -27557,18 +27617,880 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="7">
+        <v>638585</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4470090</v>
+      </c>
+      <c r="D2" s="7">
+        <f>SUM(B2:C2)</f>
+        <v>5108675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="7">
+        <v>455942</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3191591.99</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D55" si="0">SUM(B3:C3)</f>
+        <v>3647533.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="7">
+        <v>549211</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3844476</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>4393687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="7">
+        <v>711031</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4977219</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>5688250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1048364</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7338547</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>8386911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1467691</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10273837</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>11741528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="7">
+        <v>635580</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4449060</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>5084640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3960887</v>
+      </c>
+      <c r="C9" s="7">
+        <v>27726204</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>31687091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2061587</v>
+      </c>
+      <c r="C10" s="7">
+        <v>14431113</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>16492700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="7">
+        <v>849606</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5947237</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>6796843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2219979</v>
+      </c>
+      <c r="C12" s="7">
+        <v>15539857</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>17759836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2332094</v>
+      </c>
+      <c r="C13" s="7">
+        <v>16324656</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>18656750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1574309</v>
+      </c>
+      <c r="C14" s="7">
+        <v>11020160</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>12594469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1874470</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13121288</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>14995758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="7">
+        <v>5350219.99</v>
+      </c>
+      <c r="C17" s="7">
+        <v>37451543</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>42801762.990000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="7">
+        <v>437413</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3061893</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>3499306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2975667</v>
+      </c>
+      <c r="C20" s="7">
+        <v>20829671</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>23805338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3352893</v>
+      </c>
+      <c r="C21" s="7">
+        <v>23470256</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>26823149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3513179</v>
+      </c>
+      <c r="C22" s="7">
+        <v>24592252.010000002</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>28105431.010000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="7">
+        <v>9004263</v>
+      </c>
+      <c r="C23" s="7">
+        <v>63029835</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>72034098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1284687</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8992806</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>10277493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2882492.01</v>
+      </c>
+      <c r="C25" s="7">
+        <v>20177439</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>23059931.009999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3556149</v>
+      </c>
+      <c r="C26" s="7">
+        <v>24893044</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>28449193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="7">
+        <v>236372</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1654607</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>1890979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="7">
+        <v>930082</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6510571</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>7440653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2746384</v>
+      </c>
+      <c r="C32" s="7">
+        <v>19224689</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>21971073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="9">
+        <v>6163305</v>
+      </c>
+      <c r="C33" s="9">
+        <v>43143134</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="0"/>
+        <v>49306439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="7">
+        <v>364791</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2553536</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>2918327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="7">
+        <v>935778</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6550442</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="0"/>
+        <v>7486220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2150856</v>
+      </c>
+      <c r="C36" s="7">
+        <v>15055988</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="0"/>
+        <v>17206844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2602548</v>
+      </c>
+      <c r="C37" s="7">
+        <v>18217838</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="0"/>
+        <v>20820386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4863889</v>
+      </c>
+      <c r="C39" s="7">
+        <v>34047219</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="0"/>
+        <v>38911108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1616869</v>
+      </c>
+      <c r="C40" s="7">
+        <v>11318083</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="0"/>
+        <v>12934952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="7">
+        <v>5332769</v>
+      </c>
+      <c r="C41" s="7">
+        <v>37329382</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="0"/>
+        <v>42662151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4281078</v>
+      </c>
+      <c r="C42" s="7">
+        <v>29967543</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="0"/>
+        <v>34248621</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="7">
+        <v>4059146</v>
+      </c>
+      <c r="C43" s="7">
+        <v>28414019</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="0"/>
+        <v>32473165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1817224.99</v>
+      </c>
+      <c r="C44" s="7">
+        <v>12720574</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="0"/>
+        <v>14537798.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1705759</v>
+      </c>
+      <c r="C46" s="7">
+        <v>11940309</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="0"/>
+        <v>13646068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="7">
+        <v>3693075</v>
+      </c>
+      <c r="C47" s="7">
+        <v>25851523.010000002</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="0"/>
+        <v>29544598.010000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="7">
+        <v>9702408</v>
+      </c>
+      <c r="C48" s="7">
+        <v>67916859</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="0"/>
+        <v>77619267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2489886</v>
+      </c>
+      <c r="C49" s="7">
+        <v>17429204</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="0"/>
+        <v>19919090</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="7">
+        <v>6047579</v>
+      </c>
+      <c r="C50" s="7">
+        <v>42333045</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="0"/>
+        <v>48380624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="7">
+        <v>17155488.75</v>
+      </c>
+      <c r="C51" s="7">
+        <v>120088414.25</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="0"/>
+        <v>137243903</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="7">
+        <v>7261190</v>
+      </c>
+      <c r="C52" s="7">
+        <v>50828326</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="0"/>
+        <v>58089516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="7">
+        <v>28740</v>
+      </c>
+      <c r="C53" s="7">
+        <v>196065</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="0"/>
+        <v>224805</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="7">
+        <v>342118</v>
+      </c>
+      <c r="C54" s="7">
+        <v>2750014</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="0"/>
+        <v>3092132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="5">
+        <f>SUM(B2:B55)</f>
+        <v>139263634.74000001</v>
+      </c>
+      <c r="C56" s="5">
+        <f>SUM(C2:C55)</f>
+        <v>975195459.25999999</v>
+      </c>
+      <c r="D56" s="6">
+        <f>SUM(D2:D55)</f>
+        <v>1114459094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="W56" sqref="W56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>191</v>
       </c>
@@ -27636,7 +28558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27707,7 +28629,7 @@
         <v>4470090</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -27778,7 +28700,7 @@
         <v>3191591.99</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -27849,7 +28771,7 @@
         <v>3844476</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -27920,7 +28842,7 @@
         <v>4977219</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -27991,7 +28913,7 @@
         <v>7338547</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -28062,7 +28984,7 @@
         <v>10273837</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -28133,7 +29055,7 @@
         <v>4449060</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -28204,7 +29126,7 @@
         <v>27726204</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -28275,7 +29197,7 @@
         <v>14431113</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -28346,7 +29268,7 @@
         <v>5947237</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -28417,7 +29339,7 @@
         <v>15539857</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -28488,7 +29410,7 @@
         <v>16324656</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -28559,7 +29481,7 @@
         <v>11020160</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -28630,7 +29552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -28701,7 +29623,7 @@
         <v>13121288</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -28772,7 +29694,7 @@
         <v>37451543</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -28843,7 +29765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -28914,7 +29836,7 @@
         <v>3061893</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -28985,7 +29907,7 @@
         <v>20829671</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -29056,7 +29978,7 @@
         <v>23470256</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -29127,7 +30049,7 @@
         <v>24592252.010000002</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -29198,7 +30120,7 @@
         <v>63029835</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -29269,7 +30191,7 @@
         <v>8992806</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -29340,7 +30262,7 @@
         <v>20177439</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -29411,7 +30333,7 @@
         <v>24893044</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -29482,7 +30404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -29553,7 +30475,7 @@
         <v>1654607</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -29624,7 +30546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -29695,7 +30617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -29766,7 +30688,7 @@
         <v>6510571</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -29837,7 +30759,7 @@
         <v>19224689</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -29908,7 +30830,7 @@
         <v>43143134</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -29979,7 +30901,7 @@
         <v>2553536</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -30050,7 +30972,7 @@
         <v>6550442</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -30121,7 +31043,7 @@
         <v>15055988</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -30192,7 +31114,7 @@
         <v>18217838</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -30263,7 +31185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -30334,7 +31256,7 @@
         <v>34047219</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -30405,7 +31327,7 @@
         <v>11318083</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -30476,7 +31398,7 @@
         <v>37329382</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -30547,7 +31469,7 @@
         <v>29967543</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -30618,7 +31540,7 @@
         <v>28414019</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -30689,7 +31611,7 @@
         <v>12720574</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -30760,7 +31682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -30831,7 +31753,7 @@
         <v>11940309</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -30902,7 +31824,7 @@
         <v>25851523.010000002</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -30973,7 +31895,7 @@
         <v>67916859</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -31044,7 +31966,7 @@
         <v>17429204</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -31115,7 +32037,7 @@
         <v>42333045</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -31186,7 +32108,7 @@
         <v>120088414.25</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -31257,7 +32179,7 @@
         <v>50828326</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -31328,7 +32250,7 @@
         <v>196065</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -31399,7 +32321,7 @@
         <v>2750014</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -31470,7 +32392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W56">
         <f>SUM(W2:W55)</f>
         <v>975195459.25999999</v>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -879,6 +879,7 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12756,11 +12757,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -18216,6 +18222,12 @@
       </c>
       <c r="Q103">
         <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O104" s="10">
+        <f>SUM(O2:O103)</f>
+        <v>975195459.25999999</v>
       </c>
     </row>
   </sheetData>
@@ -28481,7 +28493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -788,12 +788,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -823,10 +829,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,13 +1152,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -3504,55 +3525,55 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>35010947</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
         <v>35010947</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="4">
         <v>4376368</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="4">
         <v>30634579</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="3" t="s">
         <v>151</v>
       </c>
       <c r="S41">
@@ -7237,7 +7258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A94" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -12704,11 +12725,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="N104" sqref="N104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="13" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -12764,7 +12803,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -12776,7 +12815,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2">
@@ -12817,7 +12856,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -12829,7 +12868,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3">
@@ -12870,7 +12909,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" t="s">
@@ -12882,7 +12921,7 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>10838735.25</v>
       </c>
       <c r="G4">
@@ -12923,7 +12962,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" t="s">
@@ -12935,7 +12974,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5">
@@ -12976,7 +13015,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" t="s">
@@ -12988,7 +13027,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>10771949</v>
       </c>
       <c r="G6">
@@ -13029,7 +13068,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" t="s">
@@ -13041,7 +13080,7 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>10143306</v>
       </c>
       <c r="G7">
@@ -13082,7 +13121,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" t="s">
@@ -13094,7 +13133,7 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>3331724.97</v>
       </c>
       <c r="G8">
@@ -13135,7 +13174,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" t="s">
@@ -13147,7 +13186,7 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9">
@@ -13188,7 +13227,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" t="s">
@@ -13200,7 +13239,7 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>12285185.1</v>
       </c>
       <c r="G10">
@@ -13241,7 +13280,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" t="s">
@@ -13253,7 +13292,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11">
@@ -13294,7 +13333,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" t="s">
@@ -13306,7 +13345,7 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12">
@@ -13347,7 +13386,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" t="s">
@@ -13359,7 +13398,7 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>6037755.4900000002</v>
       </c>
       <c r="G13">
@@ -13400,7 +13439,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
       <c r="C14" t="s">
@@ -13412,7 +13451,7 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>3815450.81</v>
       </c>
       <c r="G14">
@@ -13453,7 +13492,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" t="s">
@@ -13465,7 +13504,7 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>2812680</v>
       </c>
       <c r="G15">
@@ -13506,7 +13545,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0</v>
       </c>
       <c r="C16" t="s">
@@ -13518,7 +13557,7 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>8785607</v>
       </c>
       <c r="G16">
@@ -13559,7 +13598,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" t="s">
@@ -13571,7 +13610,7 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17">
@@ -13612,7 +13651,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" t="s">
@@ -13624,7 +13663,7 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>6812796</v>
       </c>
       <c r="G18">
@@ -13665,7 +13704,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0</v>
       </c>
       <c r="C19" t="s">
@@ -13677,7 +13716,7 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>5464314.8300000001</v>
       </c>
       <c r="G19">
@@ -13718,7 +13757,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20" t="s">
@@ -13730,7 +13769,7 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20">
@@ -13771,7 +13810,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" t="s">
@@ -13783,7 +13822,7 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21">
@@ -13824,7 +13863,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" t="s">
@@ -13836,7 +13875,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>8856362.2100000009</v>
       </c>
       <c r="G22">
@@ -13877,7 +13916,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23" t="s">
@@ -13889,7 +13928,7 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23">
@@ -13930,7 +13969,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="C24" t="s">
@@ -13942,7 +13981,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>27505670</v>
       </c>
       <c r="G24">
@@ -13983,7 +14022,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" t="s">
@@ -13995,7 +14034,7 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>0</v>
       </c>
       <c r="G25">
@@ -14032,11 +14071,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>0</v>
       </c>
       <c r="C26" t="s">
@@ -14048,7 +14087,7 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>0</v>
       </c>
       <c r="G26">
@@ -14089,7 +14128,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>0</v>
       </c>
       <c r="C27" t="s">
@@ -14101,7 +14140,7 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>846262.62</v>
       </c>
       <c r="G27">
@@ -14142,7 +14181,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0</v>
       </c>
       <c r="C28" t="s">
@@ -14154,7 +14193,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>13387629.5</v>
       </c>
       <c r="G28">
@@ -14195,7 +14234,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0</v>
       </c>
       <c r="C29" t="s">
@@ -14207,7 +14246,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29">
@@ -14248,7 +14287,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0</v>
       </c>
       <c r="C30" t="s">
@@ -14260,7 +14299,7 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>2079511.36</v>
       </c>
       <c r="G30">
@@ -14301,7 +14340,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" t="s">
@@ -14313,7 +14352,7 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>3457141.41</v>
       </c>
       <c r="G31">
@@ -14354,7 +14393,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" t="s">
@@ -14366,7 +14405,7 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32">
@@ -14407,7 +14446,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33" t="s">
@@ -14419,7 +14458,7 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33">
@@ -14460,7 +14499,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0</v>
       </c>
       <c r="C34" t="s">
@@ -14472,7 +14511,7 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
       <c r="G34">
@@ -14513,7 +14552,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" t="s">
@@ -14525,7 +14564,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>3219116.18</v>
       </c>
       <c r="G35">
@@ -14566,7 +14605,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>0</v>
       </c>
       <c r="C36" t="s">
@@ -14578,7 +14617,7 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>669009.26</v>
       </c>
       <c r="G36">
@@ -14619,7 +14658,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>0</v>
       </c>
       <c r="C37" t="s">
@@ -14631,7 +14670,7 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>214323.72</v>
       </c>
       <c r="G37">
@@ -14672,7 +14711,7 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" t="s">
@@ -14684,7 +14723,7 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38">
@@ -14725,7 +14764,7 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>0</v>
       </c>
       <c r="C39" t="s">
@@ -14737,7 +14776,7 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>27178890</v>
       </c>
       <c r="G39">
@@ -14778,7 +14817,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>0</v>
       </c>
       <c r="C40" t="s">
@@ -14790,7 +14829,7 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>15875568.08</v>
       </c>
       <c r="G40">
@@ -14831,7 +14870,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>0</v>
       </c>
       <c r="C41" t="s">
@@ -14843,7 +14882,7 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41">
@@ -14884,43 +14923,43 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>7875399</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>0</v>
       </c>
       <c r="O42">
@@ -14937,7 +14976,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>0</v>
       </c>
       <c r="C43" t="s">
@@ -14949,7 +14988,7 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
       <c r="G43">
@@ -14990,7 +15029,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>0</v>
       </c>
       <c r="C44" t="s">
@@ -15002,7 +15041,7 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>5418735.2599999998</v>
       </c>
       <c r="G44">
@@ -15043,7 +15082,7 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>0</v>
       </c>
       <c r="C45" t="s">
@@ -15055,7 +15094,7 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>291661.88</v>
       </c>
       <c r="G45">
@@ -15096,46 +15135,46 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>1991044</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>1991044</v>
       </c>
       <c r="P46">
@@ -15149,7 +15188,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>0</v>
       </c>
       <c r="C47" t="s">
@@ -15161,7 +15200,7 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>7508818</v>
       </c>
       <c r="G47">
@@ -15202,7 +15241,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>0</v>
       </c>
       <c r="C48" t="s">
@@ -15214,7 +15253,7 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
       <c r="G48">
@@ -15255,7 +15294,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>0</v>
       </c>
       <c r="C49" t="s">
@@ -15267,7 +15306,7 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>45671237</v>
       </c>
       <c r="G49">
@@ -15308,7 +15347,7 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>0</v>
       </c>
       <c r="C50" t="s">
@@ -15320,7 +15359,7 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>12344625.439999999</v>
       </c>
       <c r="G50">
@@ -15361,7 +15400,7 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>0</v>
       </c>
       <c r="C51" t="s">
@@ -15373,7 +15412,7 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
       <c r="G51">
@@ -15414,7 +15453,7 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>0</v>
       </c>
       <c r="C52" t="s">
@@ -15426,7 +15465,7 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
       <c r="G52">
@@ -15467,7 +15506,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>0</v>
       </c>
       <c r="C53" t="s">
@@ -15479,7 +15518,7 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
       <c r="G53">
@@ -15520,7 +15559,7 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>0</v>
       </c>
       <c r="C54" t="s">
@@ -15532,7 +15571,7 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>17429204</v>
       </c>
       <c r="G54">
@@ -15573,7 +15612,7 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>0</v>
       </c>
       <c r="C55" t="s">
@@ -15585,7 +15624,7 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>9281641</v>
       </c>
       <c r="G55">
@@ -15626,7 +15665,7 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>0</v>
       </c>
       <c r="C56" t="s">
@@ -15638,7 +15677,7 @@
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
       <c r="G56">
@@ -15679,7 +15718,7 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>0</v>
       </c>
       <c r="C57" t="s">
@@ -15691,7 +15730,7 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>0</v>
       </c>
       <c r="G57">
@@ -15732,7 +15771,7 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>0</v>
       </c>
       <c r="C58" t="s">
@@ -15744,7 +15783,7 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
       <c r="G58">
@@ -15785,7 +15824,7 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>0</v>
       </c>
       <c r="C59" t="s">
@@ -15797,7 +15836,7 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
       <c r="G59">
@@ -15838,7 +15877,7 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>0</v>
       </c>
       <c r="C60" t="s">
@@ -15850,7 +15889,7 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <v>0</v>
       </c>
       <c r="G60">
@@ -15891,7 +15930,7 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>0</v>
       </c>
       <c r="C61" t="s">
@@ -15903,7 +15942,7 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
       <c r="G61">
@@ -15944,7 +15983,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>0</v>
       </c>
       <c r="C62" t="s">
@@ -15956,7 +15995,7 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>0</v>
       </c>
       <c r="G62">
@@ -15997,7 +16036,7 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>0</v>
       </c>
       <c r="C63" t="s">
@@ -16009,7 +16048,7 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>0</v>
       </c>
       <c r="G63">
@@ -16050,7 +16089,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>0</v>
       </c>
       <c r="C64" t="s">
@@ -16062,7 +16101,7 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <v>9539755.2799999993</v>
       </c>
       <c r="G64">
@@ -16103,7 +16142,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>0</v>
       </c>
       <c r="C65" t="s">
@@ -16115,7 +16154,7 @@
       <c r="E65">
         <v>216272.48</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>1552280.95</v>
       </c>
       <c r="G65">
@@ -16156,7 +16195,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>0</v>
       </c>
       <c r="C66" t="s">
@@ -16168,7 +16207,7 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <v>0</v>
       </c>
       <c r="G66">
@@ -16209,7 +16248,7 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>0</v>
       </c>
       <c r="C67" t="s">
@@ -16221,7 +16260,7 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
       <c r="G67">
@@ -16262,7 +16301,7 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>0</v>
       </c>
       <c r="C68" t="s">
@@ -16274,7 +16313,7 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <v>0</v>
       </c>
       <c r="G68">
@@ -16315,7 +16354,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>0</v>
       </c>
       <c r="C69" t="s">
@@ -16327,7 +16366,7 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <v>0</v>
       </c>
       <c r="G69">
@@ -16368,7 +16407,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>0</v>
       </c>
       <c r="C70" t="s">
@@ -16380,7 +16419,7 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <v>0</v>
       </c>
       <c r="G70">
@@ -16421,7 +16460,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>0</v>
       </c>
       <c r="C71" t="s">
@@ -16433,7 +16472,7 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <v>0</v>
       </c>
       <c r="G71">
@@ -16474,7 +16513,7 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>0</v>
       </c>
       <c r="C72" t="s">
@@ -16486,7 +16525,7 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>8893882</v>
       </c>
       <c r="G72">
@@ -16527,7 +16566,7 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>0</v>
       </c>
       <c r="C73" t="s">
@@ -16539,7 +16578,7 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <v>8101014.9800000004</v>
       </c>
       <c r="G73">
@@ -16580,7 +16619,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>0</v>
       </c>
       <c r="C74" t="s">
@@ -16592,7 +16631,7 @@
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <v>0</v>
       </c>
       <c r="G74">
@@ -16633,7 +16672,7 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>0</v>
       </c>
       <c r="C75" t="s">
@@ -16645,7 +16684,7 @@
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>3557043</v>
       </c>
       <c r="G75">
@@ -16686,7 +16725,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>0</v>
       </c>
       <c r="C76" t="s">
@@ -16698,7 +16737,7 @@
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <v>306188</v>
       </c>
       <c r="G76">
@@ -16739,7 +16778,7 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>0</v>
       </c>
       <c r="C77" t="s">
@@ -16751,7 +16790,7 @@
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>0</v>
       </c>
       <c r="G77">
@@ -16792,7 +16831,7 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>0</v>
       </c>
       <c r="C78" t="s">
@@ -16804,7 +16843,7 @@
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>0</v>
       </c>
       <c r="G78">
@@ -16845,7 +16884,7 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>0</v>
       </c>
       <c r="C79" t="s">
@@ -16857,7 +16896,7 @@
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>0</v>
       </c>
       <c r="G79">
@@ -16898,7 +16937,7 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>0</v>
       </c>
       <c r="C80" t="s">
@@ -16910,7 +16949,7 @@
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <v>0</v>
       </c>
       <c r="G80">
@@ -16951,7 +16990,7 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>0</v>
       </c>
       <c r="C81" t="s">
@@ -16963,7 +17002,7 @@
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <v>4771020.1500000004</v>
       </c>
       <c r="G81">
@@ -17004,7 +17043,7 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>0</v>
       </c>
       <c r="C82" t="s">
@@ -17016,7 +17055,7 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>0</v>
       </c>
       <c r="G82">
@@ -17057,7 +17096,7 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>0</v>
       </c>
       <c r="C83" t="s">
@@ -17069,7 +17108,7 @@
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <v>0</v>
       </c>
       <c r="G83">
@@ -17110,7 +17149,7 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>0</v>
       </c>
       <c r="C84" t="s">
@@ -17122,7 +17161,7 @@
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
         <v>2658668</v>
       </c>
       <c r="G84">
@@ -17163,7 +17202,7 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>0</v>
       </c>
       <c r="C85" t="s">
@@ -17175,7 +17214,7 @@
       <c r="E85">
         <v>0</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <v>0</v>
       </c>
       <c r="G85">
@@ -17216,7 +17255,7 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>0</v>
       </c>
       <c r="C86" t="s">
@@ -17228,7 +17267,7 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>7642685</v>
       </c>
       <c r="G86">
@@ -17269,7 +17308,7 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>0</v>
       </c>
       <c r="C87" t="s">
@@ -17281,7 +17320,7 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <v>4160033.72</v>
       </c>
       <c r="G87">
@@ -17322,7 +17361,7 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>0</v>
       </c>
       <c r="C88" t="s">
@@ -17334,7 +17373,7 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
         <v>0</v>
       </c>
       <c r="G88">
@@ -17375,7 +17414,7 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>0</v>
       </c>
       <c r="C89" t="s">
@@ -17387,7 +17426,7 @@
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <v>0</v>
       </c>
       <c r="G89">
@@ -17428,7 +17467,7 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>0</v>
       </c>
       <c r="C90" t="s">
@@ -17440,7 +17479,7 @@
       <c r="E90">
         <v>0</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>0</v>
       </c>
       <c r="G90">
@@ -17481,7 +17520,7 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>0</v>
       </c>
       <c r="C91" t="s">
@@ -17493,7 +17532,7 @@
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
         <v>0</v>
       </c>
       <c r="G91">
@@ -17534,7 +17573,7 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>0</v>
       </c>
       <c r="C92" t="s">
@@ -17546,7 +17585,7 @@
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>13404590</v>
       </c>
       <c r="G92">
@@ -17587,7 +17626,7 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>0</v>
       </c>
       <c r="C93" t="s">
@@ -17599,7 +17638,7 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>0</v>
       </c>
       <c r="G93">
@@ -17640,7 +17679,7 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>0</v>
       </c>
       <c r="C94" t="s">
@@ -17652,7 +17691,7 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>0</v>
       </c>
       <c r="G94">
@@ -17693,7 +17732,7 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>0</v>
       </c>
       <c r="C95" t="s">
@@ -17705,7 +17744,7 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <v>2324044.7599999998</v>
       </c>
       <c r="G95">
@@ -17746,7 +17785,7 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>0</v>
       </c>
       <c r="C96" t="s">
@@ -17758,7 +17797,7 @@
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>0</v>
       </c>
       <c r="G96">
@@ -17799,7 +17838,7 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>0</v>
       </c>
       <c r="C97" t="s">
@@ -17811,7 +17850,7 @@
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>1387701.82</v>
       </c>
       <c r="G97">
@@ -17852,7 +17891,7 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>0</v>
       </c>
       <c r="C98" t="s">
@@ -17864,7 +17903,7 @@
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>0</v>
       </c>
       <c r="G98">
@@ -17905,7 +17944,7 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>0</v>
       </c>
       <c r="C99" t="s">
@@ -17917,7 +17956,7 @@
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <v>4716185.75</v>
       </c>
       <c r="G99">
@@ -17958,7 +17997,7 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>0</v>
       </c>
       <c r="C100" t="s">
@@ -17970,7 +18009,7 @@
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <v>0</v>
       </c>
       <c r="G100">
@@ -18011,7 +18050,7 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>0</v>
       </c>
       <c r="C101" t="s">
@@ -18023,7 +18062,7 @@
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <v>0</v>
       </c>
       <c r="G101">
@@ -18064,7 +18103,7 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>0</v>
       </c>
       <c r="C102" t="s">
@@ -18076,7 +18115,7 @@
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="2">
         <v>0</v>
       </c>
       <c r="G102">
@@ -18117,7 +18156,7 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>0</v>
       </c>
       <c r="C103" t="s">
@@ -18129,7 +18168,7 @@
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="2">
         <v>0</v>
       </c>
       <c r="G103">
@@ -18166,8 +18205,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="104" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="7"/>
+      <c r="D104" s="7">
+        <f>SUM(D2:D103)</f>
+        <v>13460008.99</v>
+      </c>
+      <c r="E104" s="7">
+        <f>SUM(E2:E103)</f>
+        <v>216272.48</v>
+      </c>
+      <c r="F104" s="7">
+        <f>SUM(F2:F103)</f>
+        <v>355350004.77999997</v>
+      </c>
+      <c r="G104" s="7">
+        <f t="shared" ref="G104:N104" si="0">SUM(G2:G103)</f>
+        <v>195806967.71000001</v>
+      </c>
+      <c r="H104" s="7">
+        <f t="shared" si="0"/>
+        <v>38574270.329999998</v>
+      </c>
+      <c r="I104" s="7">
+        <f t="shared" si="0"/>
+        <v>54082361.539999999</v>
+      </c>
+      <c r="J104" s="7">
+        <f t="shared" si="0"/>
+        <v>2944531.13</v>
+      </c>
+      <c r="K104" s="7">
+        <f t="shared" si="0"/>
+        <v>250205422.27999997</v>
+      </c>
+      <c r="L104" s="7">
+        <f t="shared" si="0"/>
+        <v>53444363.020000003</v>
+      </c>
+      <c r="M104" s="7">
+        <f t="shared" si="0"/>
+        <v>8165178</v>
+      </c>
+      <c r="N104" s="7">
+        <f t="shared" si="0"/>
+        <v>2946079</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18175,9 +18262,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -829,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -845,6 +845,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,15 +1153,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:R42"/>
+    <sheetView topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -3993,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4052,7 +4057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4111,66 +4116,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
         <v>1017606.69</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
         <v>5862363.6399999997</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
         <v>6879970.3300000001</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="3">
         <v>687997</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="3">
         <v>4815979</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U51">
+        <f>P51+Q51</f>
+        <v>5503976</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4229,7 +4238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4288,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4347,7 +4356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4465,7 +4474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4524,7 +4533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4583,7 +4592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4642,7 +4651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4701,7 +4710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4760,7 +4769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4819,7 +4828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4878,7 +4887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -12727,10 +12736,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N104" sqref="N104"/>
+      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18263,13 +18272,14 @@
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27653,7 +27663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="E40" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -12736,8 +12736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
     </sheetView>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="248">
   <si>
     <t xml:space="preserve">Sl No </t>
   </si>
@@ -766,6 +766,9 @@
   <si>
     <t>GT-03</t>
   </si>
+  <si>
+    <t xml:space="preserve">251/(SUNM-02)-02  4th RA Bill </t>
+  </si>
 </sst>
 </file>
 
@@ -12736,10 +12739,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12750,7 +12753,8 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
     <col min="12" max="12" width="16.109375" customWidth="1"/>
@@ -15466,7 +15470,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -18271,16 +18275,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -20991,7 +20998,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="D52">
         <v>0</v>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,6 +801,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -851,6 +857,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,17 +1172,17 @@
       <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1287,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1346,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1405,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1464,7 +1474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1523,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1582,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1700,7 +1710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1759,7 +1769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1818,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1877,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2054,7 +2064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2113,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2172,7 +2182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2231,7 +2241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2290,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2349,7 +2359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2408,7 +2418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2467,7 +2477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2585,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2703,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2762,7 +2772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2821,7 +2831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2880,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2939,7 +2949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2998,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3057,7 +3067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3116,7 +3126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3175,7 +3185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3234,7 +3244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3293,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3352,7 +3362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3411,7 +3421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3470,7 +3480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3529,7 +3539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3588,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3647,7 +3657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3706,7 +3716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3765,7 +3775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3824,7 +3834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3883,7 +3893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3942,7 +3952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4001,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4060,7 +4070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4119,7 +4129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -4182,7 +4192,7 @@
         <v>5503976</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4241,7 +4251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4300,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4359,7 +4369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4418,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4477,7 +4487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4536,7 +4546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4595,7 +4605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4654,7 +4664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4713,7 +4723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4772,7 +4782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4831,7 +4841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4949,7 +4959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5008,7 +5018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5067,7 +5077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5126,7 +5136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5185,7 +5195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5244,7 +5254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5303,7 +5313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5362,7 +5372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5421,7 +5431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5480,7 +5490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5539,7 +5549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5598,7 +5608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5657,7 +5667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5716,7 +5726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5775,7 +5785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5834,7 +5844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5893,7 +5903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5952,7 +5962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6011,7 +6021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6070,7 +6080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6129,7 +6139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6188,7 +6198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6247,7 +6257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6306,7 +6316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6365,7 +6375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6424,7 +6434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6483,7 +6493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6542,7 +6552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6601,7 +6611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6660,7 +6670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6719,7 +6729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6778,7 +6788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6837,7 +6847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6896,7 +6906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6955,7 +6965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7014,7 +7024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7073,7 +7083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7132,7 +7142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7191,7 +7201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7250,13 +7260,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q104">
         <f>SUM(Q2:Q103)</f>
         <v>975195459.25</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q105">
         <v>975195459.25999999</v>
       </c>
@@ -7272,9 +7282,9 @@
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7324,7 +7334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7377,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7430,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7483,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7536,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7589,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7642,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7695,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7748,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7801,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7854,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7907,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7960,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8013,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8066,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8119,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8172,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8225,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8278,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8331,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8384,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8437,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8490,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8543,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8596,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8649,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8702,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8755,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8808,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8861,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8914,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8967,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9020,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9073,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9126,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9179,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9232,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9285,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9338,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9391,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9444,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9497,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9550,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9603,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9656,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9709,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9762,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9815,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9868,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9921,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9974,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -10027,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10080,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10133,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10186,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -10239,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -10292,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10345,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10398,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10451,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10504,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10557,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10610,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10663,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10716,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10769,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10822,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10875,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10928,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10981,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11034,7 +11044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11087,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11140,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11193,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11246,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11299,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11352,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11405,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11458,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11511,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11564,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11617,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11670,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11723,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11776,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11829,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11882,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11935,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -11988,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12041,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12094,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12147,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12200,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -12253,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12306,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12359,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12412,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12465,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12518,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12571,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12624,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12677,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12739,30 +12749,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12812,7 +12822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12865,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12918,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12971,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -13024,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13077,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13130,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13183,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13236,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13289,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13342,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13395,7 +13405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13448,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13501,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13554,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13607,7 +13617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -13660,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -13713,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -13766,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -13819,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -13872,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -13925,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13978,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -14031,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14084,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14137,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14190,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -14243,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -14296,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -14349,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -14402,7 +14412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -14455,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -14508,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -14561,7 +14571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -14614,7 +14624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -14667,7 +14677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -14720,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -14773,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -14826,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -14879,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -14932,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -14985,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -15038,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -15091,7 +15101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -15144,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -15197,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -15250,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -15303,7 +15313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -15356,7 +15366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -15409,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -15462,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -15515,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -15568,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -15621,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -15674,7 +15684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -15727,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -15780,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -15833,7 +15843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -15886,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -15939,7 +15949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -15992,7 +16002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -16045,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -16098,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -16151,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -16204,7 +16214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -16257,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -16310,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -16363,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -16416,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -16469,7 +16479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -16522,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -16575,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -16628,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -16681,7 +16691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -16734,7 +16744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -16787,7 +16797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -16840,41 +16850,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" s="10">
+        <v>0</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" s="2">
-        <v>0</v>
-      </c>
-      <c r="G78">
+      <c r="D78" s="9">
+        <v>0</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0</v>
+      </c>
+      <c r="G78" s="9">
         <v>1167036.8</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
+      <c r="H78" s="9">
+        <v>0</v>
+      </c>
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="9">
+        <v>0</v>
+      </c>
+      <c r="K78" s="9">
         <v>2746569.2</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="9">
         <v>0</v>
       </c>
       <c r="M78">
@@ -16893,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -16946,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -16999,7 +17009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -17052,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -17105,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -17158,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -17211,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -17264,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -17317,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -17370,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -17423,7 +17433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17476,7 +17486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17529,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17582,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17635,7 +17645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17688,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -17741,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -17794,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -17847,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -17900,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -17953,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -18006,7 +18016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -18059,7 +18069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -18112,7 +18122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -18165,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -18218,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="D104" s="7">
         <f>SUM(D2:D103)</f>
@@ -18275,22 +18285,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18340,7 +18351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -18393,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18446,7 +18457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18499,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -18552,7 +18563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -18605,7 +18616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18658,7 +18669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18711,7 +18722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18764,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -18817,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18870,7 +18881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18923,7 +18934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18976,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -19029,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -19082,7 +19093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -19135,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -19188,7 +19199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -19241,7 +19252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -19294,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -19347,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -19400,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -19453,7 +19464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -19506,7 +19517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -19559,7 +19570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -19612,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -19665,7 +19676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -19718,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -19771,7 +19782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -19824,7 +19835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -19877,7 +19888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -19930,7 +19941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -19983,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -20036,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -20089,7 +20100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -20142,7 +20153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -20195,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -20248,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -20301,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -20354,7 +20365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -20407,7 +20418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -20460,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -20513,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -20566,7 +20577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -20619,7 +20630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -20672,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -20725,7 +20736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -20778,7 +20789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -20831,7 +20842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -20884,7 +20895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -20937,7 +20948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -20990,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -21043,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -21096,7 +21107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -21149,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -21202,7 +21213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -21255,7 +21266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -21308,7 +21319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -21361,7 +21372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -21414,7 +21425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -21467,7 +21478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -21520,7 +21531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -21573,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -21626,7 +21637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -21679,7 +21690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -21732,7 +21743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -21785,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -21838,7 +21849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -21891,7 +21902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -21944,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -21997,7 +22008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -22050,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -22103,7 +22114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -22156,7 +22167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -22209,7 +22220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -22262,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -22315,7 +22326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -22368,60 +22379,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" s="9">
+        <v>0</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
+      <c r="D78" s="9">
+        <v>0</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="9">
+        <v>0</v>
+      </c>
+      <c r="G78" s="9">
         <v>166719.67000000001</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
+      <c r="H78" s="9">
+        <v>0</v>
+      </c>
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="9">
+        <v>0</v>
+      </c>
+      <c r="K78" s="9">
         <v>392367.33</v>
       </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
+      <c r="L78" s="9">
+        <v>0</v>
+      </c>
+      <c r="M78" s="9">
+        <v>0</v>
+      </c>
+      <c r="N78" s="9">
+        <v>0</v>
+      </c>
+      <c r="O78" s="9">
         <v>559087</v>
       </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P78" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -22474,7 +22485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -22527,7 +22538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -22580,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -22633,7 +22644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -22686,7 +22697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -22739,7 +22750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -22792,7 +22803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -22845,7 +22856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -22898,7 +22909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -22951,7 +22962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -23004,7 +23015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -23057,7 +23068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -23110,7 +23121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -23163,7 +23174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -23216,7 +23227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -23269,7 +23280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -23322,7 +23333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -23375,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -23428,7 +23439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -23481,7 +23492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -23534,7 +23545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -23587,7 +23598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -23640,7 +23651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -23693,7 +23704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -23757,9 +23768,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>191</v>
       </c>
@@ -23827,7 +23838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -23898,7 +23909,7 @@
         <v>638585</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -23969,7 +23980,7 @@
         <v>455942</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -24040,7 +24051,7 @@
         <v>549211</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -24111,7 +24122,7 @@
         <v>711031</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -24182,7 +24193,7 @@
         <v>1048364</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -24253,7 +24264,7 @@
         <v>1467691</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -24324,7 +24335,7 @@
         <v>635580</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -24395,7 +24406,7 @@
         <v>3960887</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -24466,7 +24477,7 @@
         <v>2061587</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -24537,7 +24548,7 @@
         <v>849606</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -24608,7 +24619,7 @@
         <v>2219979</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -24679,7 +24690,7 @@
         <v>2332094</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -24750,7 +24761,7 @@
         <v>1574309</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -24821,7 +24832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -24892,7 +24903,7 @@
         <v>1874470</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -24963,7 +24974,7 @@
         <v>5350219.99</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -25034,7 +25045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -25105,7 +25116,7 @@
         <v>437413</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -25176,7 +25187,7 @@
         <v>2975667</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -25247,7 +25258,7 @@
         <v>3352893</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -25318,7 +25329,7 @@
         <v>3513179</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -25389,7 +25400,7 @@
         <v>9004263</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -25460,7 +25471,7 @@
         <v>1284687</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -25531,7 +25542,7 @@
         <v>2882492.01</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -25602,7 +25613,7 @@
         <v>3556149</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -25673,7 +25684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -25744,7 +25755,7 @@
         <v>236372</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -25815,7 +25826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -25886,7 +25897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -25957,7 +25968,7 @@
         <v>930082</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -26028,7 +26039,7 @@
         <v>2746384</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -26099,7 +26110,7 @@
         <v>6163305</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -26170,7 +26181,7 @@
         <v>364791</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -26241,7 +26252,7 @@
         <v>935778</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -26312,7 +26323,7 @@
         <v>2150856</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -26383,7 +26394,7 @@
         <v>2602548</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -26454,7 +26465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -26525,7 +26536,7 @@
         <v>4863889</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -26596,7 +26607,7 @@
         <v>1616869</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -26667,7 +26678,7 @@
         <v>5332769</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -26738,7 +26749,7 @@
         <v>4281078</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -26809,7 +26820,7 @@
         <v>4059146</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -26880,7 +26891,7 @@
         <v>1817224.99</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -26951,7 +26962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -27022,7 +27033,7 @@
         <v>1705759</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -27093,7 +27104,7 @@
         <v>3693075</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -27164,7 +27175,7 @@
         <v>9702408</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -27235,7 +27246,7 @@
         <v>2489886</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -27306,7 +27317,7 @@
         <v>6047579</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -27377,7 +27388,7 @@
         <v>17155488.75</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -27448,7 +27459,7 @@
         <v>7261190</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -27519,7 +27530,7 @@
         <v>28740</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -27590,7 +27601,7 @@
         <v>342118</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -27674,12 +27685,12 @@
       <selection activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>191</v>
       </c>
@@ -27747,7 +27758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27818,7 +27829,7 @@
         <v>4470090</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -27889,7 +27900,7 @@
         <v>3191591.99</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -27960,7 +27971,7 @@
         <v>3844476</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -28031,7 +28042,7 @@
         <v>4977219</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -28102,7 +28113,7 @@
         <v>7338547</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -28173,7 +28184,7 @@
         <v>10273837</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -28244,7 +28255,7 @@
         <v>4449060</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -28315,7 +28326,7 @@
         <v>27726204</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -28386,7 +28397,7 @@
         <v>14431113</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -28457,7 +28468,7 @@
         <v>5947237</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -28528,7 +28539,7 @@
         <v>15539857</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -28599,7 +28610,7 @@
         <v>16324656</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -28670,7 +28681,7 @@
         <v>11020160</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -28741,7 +28752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -28812,7 +28823,7 @@
         <v>13121288</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -28883,7 +28894,7 @@
         <v>37451543</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -28954,7 +28965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -29025,7 +29036,7 @@
         <v>3061893</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -29096,7 +29107,7 @@
         <v>20829671</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -29167,7 +29178,7 @@
         <v>23470256</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -29238,7 +29249,7 @@
         <v>24592252.010000002</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -29309,7 +29320,7 @@
         <v>63029835</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -29380,7 +29391,7 @@
         <v>8992806</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -29451,7 +29462,7 @@
         <v>20177439</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -29522,7 +29533,7 @@
         <v>24893044</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -29593,7 +29604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -29664,7 +29675,7 @@
         <v>1654607</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -29735,7 +29746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -29806,7 +29817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -29877,7 +29888,7 @@
         <v>6510571</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -29948,7 +29959,7 @@
         <v>19224689</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -30019,7 +30030,7 @@
         <v>43143134</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -30090,7 +30101,7 @@
         <v>2553536</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -30161,7 +30172,7 @@
         <v>6550442</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -30232,7 +30243,7 @@
         <v>15055988</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -30303,7 +30314,7 @@
         <v>18217838</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -30374,7 +30385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -30445,7 +30456,7 @@
         <v>34047219</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -30516,7 +30527,7 @@
         <v>11318083</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -30587,7 +30598,7 @@
         <v>37329382</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -30658,7 +30669,7 @@
         <v>29967543</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -30729,7 +30740,7 @@
         <v>28414019</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -30800,7 +30811,7 @@
         <v>12720574</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -30871,7 +30882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -30942,7 +30953,7 @@
         <v>11940309</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -31013,7 +31024,7 @@
         <v>25851523.010000002</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -31084,7 +31095,7 @@
         <v>67916859</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -31155,7 +31166,7 @@
         <v>17429204</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -31226,7 +31237,7 @@
         <v>42333045</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -31297,7 +31308,7 @@
         <v>120088414.25</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -31368,7 +31379,7 @@
         <v>50828326</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -31439,7 +31450,7 @@
         <v>196065</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -31510,7 +31521,7 @@
         <v>2750014</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -31581,7 +31592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W56">
         <f>SUM(W2:W55)</f>
         <v>975195459.25999999</v>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -12739,10 +12739,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18275,14 +18275,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
@@ -18353,7 +18355,7 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2">
@@ -18406,7 +18408,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3">
@@ -18459,7 +18461,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4">
@@ -18512,7 +18514,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5">
@@ -18565,7 +18567,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6">
@@ -18618,7 +18620,7 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7">
@@ -18671,7 +18673,7 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8">
@@ -18724,7 +18726,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9">
@@ -18777,7 +18779,7 @@
       <c r="D10">
         <v>128828.69</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10">
@@ -18830,7 +18832,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11">
@@ -18883,7 +18885,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12">
@@ -18936,7 +18938,7 @@
       <c r="D13">
         <v>689062.37</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13">
@@ -18989,7 +18991,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14">
@@ -19042,7 +19044,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15">
@@ -19095,7 +19097,7 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16">
@@ -19148,7 +19150,7 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17">
@@ -19201,7 +19203,7 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18">
@@ -19254,7 +19256,7 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19">
@@ -19307,7 +19309,7 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20">
@@ -19360,7 +19362,7 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21">
@@ -19413,7 +19415,7 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22">
@@ -19466,7 +19468,7 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="F23">
@@ -19519,7 +19521,7 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>0</v>
       </c>
       <c r="F24">
@@ -19572,7 +19574,7 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>0</v>
       </c>
       <c r="F25">
@@ -19625,7 +19627,7 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26">
@@ -19678,7 +19680,7 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27">
@@ -19731,7 +19733,7 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28">
@@ -19784,7 +19786,7 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>0</v>
       </c>
       <c r="F29">
@@ -19837,7 +19839,7 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>0</v>
       </c>
       <c r="F30">
@@ -19890,7 +19892,7 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>0</v>
       </c>
       <c r="F31">
@@ -19943,7 +19945,7 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>0</v>
       </c>
       <c r="F32">
@@ -19996,7 +19998,7 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>0</v>
       </c>
       <c r="F33">
@@ -20049,7 +20051,7 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>0</v>
       </c>
       <c r="F34">
@@ -20102,7 +20104,7 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>0</v>
       </c>
       <c r="F35">
@@ -20155,7 +20157,7 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>0</v>
       </c>
       <c r="F36">
@@ -20208,7 +20210,7 @@
       <c r="D37">
         <v>751299.34</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>0</v>
       </c>
       <c r="F37">
@@ -20261,7 +20263,7 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>0</v>
       </c>
       <c r="F38">
@@ -20314,7 +20316,7 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>0</v>
       </c>
       <c r="F39">
@@ -20367,7 +20369,7 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>0</v>
       </c>
       <c r="F40">
@@ -20420,7 +20422,7 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>0</v>
       </c>
       <c r="F41">
@@ -20473,7 +20475,7 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>0</v>
       </c>
       <c r="F42">
@@ -20526,7 +20528,7 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>0</v>
       </c>
       <c r="F43">
@@ -20579,7 +20581,7 @@
       <c r="D44">
         <v>324008.09000000003</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>0</v>
       </c>
       <c r="F44">
@@ -20632,7 +20634,7 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="F45">
@@ -20685,7 +20687,7 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>0</v>
       </c>
       <c r="F46">
@@ -20738,7 +20740,7 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>0</v>
       </c>
       <c r="F47">
@@ -20791,7 +20793,7 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>0</v>
       </c>
       <c r="F48">
@@ -20844,7 +20846,7 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>0</v>
       </c>
       <c r="F49">
@@ -20897,7 +20899,7 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>0</v>
       </c>
       <c r="F50">
@@ -20950,7 +20952,7 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51">
@@ -21003,7 +21005,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>0</v>
       </c>
       <c r="F52">
@@ -21056,7 +21058,7 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>0</v>
       </c>
       <c r="F53">
@@ -21109,7 +21111,7 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>0</v>
       </c>
       <c r="F54">
@@ -21162,7 +21164,7 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>0</v>
       </c>
       <c r="F55">
@@ -21215,7 +21217,7 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>0</v>
       </c>
       <c r="F56">
@@ -21268,7 +21270,7 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>0</v>
       </c>
       <c r="F57">
@@ -21321,7 +21323,7 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>0</v>
       </c>
       <c r="F58">
@@ -21374,7 +21376,7 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>0</v>
       </c>
       <c r="F59">
@@ -21427,7 +21429,7 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>0</v>
       </c>
       <c r="F60">
@@ -21480,7 +21482,7 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>0</v>
       </c>
       <c r="F61">
@@ -21533,7 +21535,7 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>0</v>
       </c>
       <c r="F62">
@@ -21586,7 +21588,7 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>0</v>
       </c>
       <c r="F63">
@@ -21639,7 +21641,7 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>0</v>
       </c>
       <c r="F64">
@@ -21692,7 +21694,7 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>30896.02</v>
       </c>
       <c r="F65">
@@ -21745,7 +21747,7 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>0</v>
       </c>
       <c r="F66">
@@ -21798,7 +21800,7 @@
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>0</v>
       </c>
       <c r="F67">
@@ -21851,7 +21853,7 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>0</v>
       </c>
       <c r="F68">
@@ -21904,7 +21906,7 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>0</v>
       </c>
       <c r="F69">
@@ -21957,7 +21959,7 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>0</v>
       </c>
       <c r="F70">
@@ -22010,7 +22012,7 @@
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>0</v>
       </c>
       <c r="F71">
@@ -22063,7 +22065,7 @@
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>0</v>
       </c>
       <c r="F72">
@@ -22116,7 +22118,7 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>0</v>
       </c>
       <c r="F73">
@@ -22169,7 +22171,7 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>0</v>
       </c>
       <c r="F74">
@@ -22222,7 +22224,7 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>0</v>
       </c>
       <c r="F75">
@@ -22275,7 +22277,7 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>0</v>
       </c>
       <c r="F76">
@@ -22328,7 +22330,7 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>0</v>
       </c>
       <c r="F77">
@@ -22381,7 +22383,7 @@
       <c r="D78">
         <v>0</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <v>0</v>
       </c>
       <c r="F78">
@@ -22434,7 +22436,7 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>0</v>
       </c>
       <c r="F79">
@@ -22487,7 +22489,7 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>0</v>
       </c>
       <c r="F80">
@@ -22540,7 +22542,7 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <v>0</v>
       </c>
       <c r="F81">
@@ -22593,7 +22595,7 @@
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>0</v>
       </c>
       <c r="F82">
@@ -22646,7 +22648,7 @@
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <v>0</v>
       </c>
       <c r="F83">
@@ -22699,7 +22701,7 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <v>0</v>
       </c>
       <c r="F84">
@@ -22752,7 +22754,7 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <v>0</v>
       </c>
       <c r="F85">
@@ -22805,7 +22807,7 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
         <v>0</v>
       </c>
       <c r="F86">
@@ -22858,7 +22860,7 @@
       <c r="D87">
         <v>29659.64</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
         <v>0</v>
       </c>
       <c r="F87">
@@ -22911,7 +22913,7 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
         <v>0</v>
       </c>
       <c r="F88">
@@ -22964,7 +22966,7 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <v>0</v>
       </c>
       <c r="F89">
@@ -23017,7 +23019,7 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
         <v>0</v>
       </c>
       <c r="F90">
@@ -23070,7 +23072,7 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <v>0</v>
       </c>
       <c r="F91">
@@ -23123,7 +23125,7 @@
       <c r="D92">
         <v>0</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>0</v>
       </c>
       <c r="F92">
@@ -23176,7 +23178,7 @@
       <c r="D93">
         <v>0</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>0</v>
       </c>
       <c r="F93">
@@ -23229,7 +23231,7 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>0</v>
       </c>
       <c r="F94">
@@ -23282,7 +23284,7 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <v>0</v>
       </c>
       <c r="F95">
@@ -23335,7 +23337,7 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <v>0</v>
       </c>
       <c r="F96">
@@ -23388,7 +23390,7 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <v>0</v>
       </c>
       <c r="F97">
@@ -23441,7 +23443,7 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <v>0</v>
       </c>
       <c r="F98">
@@ -23494,7 +23496,7 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2">
         <v>0</v>
       </c>
       <c r="F99">
@@ -23547,7 +23549,7 @@
       <c r="D100">
         <v>0</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
         <v>0</v>
       </c>
       <c r="F100">
@@ -23600,7 +23602,7 @@
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <v>0</v>
       </c>
       <c r="F101">
@@ -23653,7 +23655,7 @@
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2">
         <v>0</v>
       </c>
       <c r="F102">
@@ -23706,7 +23708,7 @@
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <v>0</v>
       </c>
       <c r="F103">

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -791,7 +791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,6 +801,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -851,6 +857,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12739,10 +12749,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83:Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12754,8 +12764,8 @@
     <col min="6" max="6" width="20.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
     <col min="12" max="12" width="16.109375" customWidth="1"/>
     <col min="13" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -17059,49 +17069,49 @@
       <c r="B82" s="2">
         <v>0</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" s="2">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
+      <c r="D82" s="9">
+        <v>0</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="10">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
         <v>6455271.8700000001</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
+      <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="9">
         <v>2944531.13</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
+      <c r="K82" s="9">
+        <v>0</v>
+      </c>
+      <c r="L82" s="9">
+        <v>0</v>
+      </c>
+      <c r="M82" s="9">
+        <v>0</v>
+      </c>
+      <c r="N82" s="9">
+        <v>0</v>
+      </c>
+      <c r="O82" s="9">
         <v>9399803</v>
       </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
+      <c r="P82" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="9">
         <v>0</v>
       </c>
     </row>
@@ -18275,13 +18285,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83:Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
@@ -18289,7 +18300,8 @@
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -18346,7 +18358,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -18376,7 +18388,7 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>0</v>
       </c>
       <c r="M2">
@@ -18399,7 +18411,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -18429,7 +18441,7 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0</v>
       </c>
       <c r="M3">
@@ -18452,7 +18464,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" t="s">
@@ -18482,7 +18494,7 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4">
@@ -18505,7 +18517,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" t="s">
@@ -18535,7 +18547,7 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5">
@@ -18558,7 +18570,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" t="s">
@@ -18588,7 +18600,7 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6">
@@ -18611,7 +18623,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" t="s">
@@ -18641,7 +18653,7 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>0</v>
       </c>
       <c r="M7">
@@ -18664,7 +18676,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" t="s">
@@ -18694,7 +18706,7 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8">
@@ -18717,7 +18729,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" t="s">
@@ -18747,7 +18759,7 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9">
@@ -18770,7 +18782,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" t="s">
@@ -18800,7 +18812,7 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10">
@@ -18823,7 +18835,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" t="s">
@@ -18853,7 +18865,7 @@
       <c r="K11">
         <v>616282.51</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11">
@@ -18876,7 +18888,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" t="s">
@@ -18906,7 +18918,7 @@
       <c r="K12">
         <v>68476.039999999994</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12">
@@ -18929,7 +18941,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" t="s">
@@ -18959,7 +18971,7 @@
       <c r="K13">
         <v>769465.29</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13">
@@ -18982,7 +18994,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
       <c r="C14" t="s">
@@ -19012,7 +19024,7 @@
       <c r="K14">
         <v>591783.80000000005</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14">
@@ -19035,7 +19047,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" t="s">
@@ -19065,7 +19077,7 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15">
@@ -19088,7 +19100,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0</v>
       </c>
       <c r="C16" t="s">
@@ -19118,7 +19130,7 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>0</v>
       </c>
       <c r="M16">
@@ -19141,7 +19153,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" t="s">
@@ -19171,7 +19183,7 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17">
@@ -19194,7 +19206,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" t="s">
@@ -19224,7 +19236,7 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>0</v>
       </c>
       <c r="M18">
@@ -19247,7 +19259,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0</v>
       </c>
       <c r="C19" t="s">
@@ -19277,7 +19289,7 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>0</v>
       </c>
       <c r="M19">
@@ -19300,7 +19312,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20" t="s">
@@ -19330,7 +19342,7 @@
       <c r="K20">
         <v>516199</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20">
@@ -19353,7 +19365,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" t="s">
@@ -19383,7 +19395,7 @@
       <c r="K21">
         <v>391128</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>0</v>
       </c>
       <c r="M21">
@@ -19406,7 +19418,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" t="s">
@@ -19436,7 +19448,7 @@
       <c r="K22">
         <v>1177101.1000000001</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>0</v>
       </c>
       <c r="M22">
@@ -19459,7 +19471,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23" t="s">
@@ -19489,7 +19501,7 @@
       <c r="K23">
         <v>519238</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>0</v>
       </c>
       <c r="M23">
@@ -19512,7 +19524,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="C24" t="s">
@@ -19542,7 +19554,7 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>0</v>
       </c>
       <c r="M24">
@@ -19565,7 +19577,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" t="s">
@@ -19595,7 +19607,7 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>0</v>
       </c>
       <c r="M25">
@@ -19618,7 +19630,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>0</v>
       </c>
       <c r="C26" t="s">
@@ -19648,7 +19660,7 @@
       <c r="K26">
         <v>1096659</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
         <v>0</v>
       </c>
       <c r="M26">
@@ -19671,7 +19683,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>0</v>
       </c>
       <c r="C27" t="s">
@@ -19701,7 +19713,7 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <v>0</v>
       </c>
       <c r="M27">
@@ -19724,7 +19736,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0</v>
       </c>
       <c r="C28" t="s">
@@ -19754,7 +19766,7 @@
       <c r="K28">
         <v>625280.39</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="2">
         <v>0</v>
       </c>
       <c r="M28">
@@ -19777,7 +19789,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0</v>
       </c>
       <c r="C29" t="s">
@@ -19807,7 +19819,7 @@
       <c r="K29">
         <v>784054</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="2">
         <v>0</v>
       </c>
       <c r="M29">
@@ -19830,7 +19842,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0</v>
       </c>
       <c r="C30" t="s">
@@ -19860,7 +19872,7 @@
       <c r="K30">
         <v>731407.83</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="2">
         <v>0</v>
       </c>
       <c r="M30">
@@ -19883,7 +19895,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" t="s">
@@ -19913,7 +19925,7 @@
       <c r="K31">
         <v>425168.72</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <v>0</v>
       </c>
       <c r="M31">
@@ -19936,7 +19948,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" t="s">
@@ -19966,7 +19978,7 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="2">
         <v>0</v>
       </c>
       <c r="M32">
@@ -19989,7 +20001,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33" t="s">
@@ -20019,7 +20031,7 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="2">
         <v>0</v>
       </c>
       <c r="M33">
@@ -20042,7 +20054,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0</v>
       </c>
       <c r="C34" t="s">
@@ -20072,7 +20084,7 @@
       <c r="K34">
         <v>1475462</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="2">
         <v>0</v>
       </c>
       <c r="M34">
@@ -20095,7 +20107,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" t="s">
@@ -20125,7 +20137,7 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="2">
         <v>3053.78</v>
       </c>
       <c r="M35">
@@ -20148,7 +20160,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>0</v>
       </c>
       <c r="C36" t="s">
@@ -20178,7 +20190,7 @@
       <c r="K36">
         <v>952791.24</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="2">
         <v>0</v>
       </c>
       <c r="M36">
@@ -20201,7 +20213,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>0</v>
       </c>
       <c r="C37" t="s">
@@ -20231,7 +20243,7 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="2">
         <v>0</v>
       </c>
       <c r="M37">
@@ -20254,7 +20266,7 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" t="s">
@@ -20284,7 +20296,7 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="2">
         <v>0</v>
       </c>
       <c r="M38">
@@ -20307,7 +20319,7 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>0</v>
       </c>
       <c r="C39" t="s">
@@ -20337,7 +20349,7 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="2">
         <v>0</v>
       </c>
       <c r="M39">
@@ -20360,7 +20372,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>0</v>
       </c>
       <c r="C40" t="s">
@@ -20390,7 +20402,7 @@
       <c r="K40">
         <v>80579.289999999994</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="2">
         <v>0</v>
       </c>
       <c r="M40">
@@ -20413,7 +20425,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>0</v>
       </c>
       <c r="C41" t="s">
@@ -20443,7 +20455,7 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="2">
         <v>0</v>
       </c>
       <c r="M41">
@@ -20466,7 +20478,7 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>0</v>
       </c>
       <c r="C42" t="s">
@@ -20496,7 +20508,7 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="2">
         <v>0</v>
       </c>
       <c r="M42">
@@ -20519,7 +20531,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>0</v>
       </c>
       <c r="C43" t="s">
@@ -20549,7 +20561,7 @@
       <c r="K43">
         <v>774438</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="2">
         <v>0</v>
       </c>
       <c r="M43">
@@ -20572,7 +20584,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>0</v>
       </c>
       <c r="C44" t="s">
@@ -20602,7 +20614,7 @@
       <c r="K44">
         <v>83101.59</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <v>0</v>
       </c>
       <c r="M44">
@@ -20625,7 +20637,7 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>0</v>
       </c>
       <c r="C45" t="s">
@@ -20655,7 +20667,7 @@
       <c r="K45">
         <v>507545.01</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="2">
         <v>0</v>
       </c>
       <c r="M45">
@@ -20678,7 +20690,7 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>0</v>
       </c>
       <c r="C46" t="s">
@@ -20708,7 +20720,7 @@
       <c r="K46">
         <v>284435</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="2">
         <v>0</v>
       </c>
       <c r="M46">
@@ -20731,7 +20743,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>0</v>
       </c>
       <c r="C47" t="s">
@@ -20761,7 +20773,7 @@
       <c r="K47">
         <v>0</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="2">
         <v>0</v>
       </c>
       <c r="M47">
@@ -20784,7 +20796,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>0</v>
       </c>
       <c r="C48" t="s">
@@ -20814,7 +20826,7 @@
       <c r="K48">
         <v>2392454</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="2">
         <v>0</v>
       </c>
       <c r="M48">
@@ -20837,7 +20849,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>0</v>
       </c>
       <c r="C49" t="s">
@@ -20867,7 +20879,7 @@
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="2">
         <v>0</v>
       </c>
       <c r="M49">
@@ -20890,7 +20902,7 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>0</v>
       </c>
       <c r="C50" t="s">
@@ -20920,7 +20932,7 @@
       <c r="K50">
         <v>807639.08</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="2">
         <v>0</v>
       </c>
       <c r="M50">
@@ -20943,7 +20955,7 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>0</v>
       </c>
       <c r="C51" t="s">
@@ -20973,7 +20985,7 @@
       <c r="K51">
         <v>586236.34</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <v>0</v>
       </c>
       <c r="M51">
@@ -20996,7 +21008,7 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>0</v>
       </c>
       <c r="C52" t="s">
@@ -21026,7 +21038,7 @@
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="2">
         <v>0</v>
       </c>
       <c r="M52">
@@ -21049,7 +21061,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>0</v>
       </c>
       <c r="C53" t="s">
@@ -21079,7 +21091,7 @@
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="2">
         <v>0</v>
       </c>
       <c r="M53">
@@ -21102,7 +21114,7 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>0</v>
       </c>
       <c r="C54" t="s">
@@ -21132,7 +21144,7 @@
       <c r="K54">
         <v>0</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="2">
         <v>0</v>
       </c>
       <c r="M54">
@@ -21155,7 +21167,7 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>0</v>
       </c>
       <c r="C55" t="s">
@@ -21185,7 +21197,7 @@
       <c r="K55">
         <v>0</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="2">
         <v>0</v>
       </c>
       <c r="M55">
@@ -21208,7 +21220,7 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>0</v>
       </c>
       <c r="C56" t="s">
@@ -21238,7 +21250,7 @@
       <c r="K56">
         <v>2740603</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="2">
         <v>0</v>
       </c>
       <c r="M56">
@@ -21261,7 +21273,7 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>0</v>
       </c>
       <c r="C57" t="s">
@@ -21291,7 +21303,7 @@
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="2">
         <v>447794</v>
       </c>
       <c r="M57">
@@ -21314,7 +21326,7 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>0</v>
       </c>
       <c r="C58" t="s">
@@ -21344,7 +21356,7 @@
       <c r="K58">
         <v>492554.14</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="2">
         <v>432184.86</v>
       </c>
       <c r="M58">
@@ -21367,7 +21379,7 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>0</v>
       </c>
       <c r="C59" t="s">
@@ -21397,7 +21409,7 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="2">
         <v>0</v>
       </c>
       <c r="M59">
@@ -21420,7 +21432,7 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>0</v>
       </c>
       <c r="C60" t="s">
@@ -21450,7 +21462,7 @@
       <c r="K60">
         <v>1263345</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="2">
         <v>0</v>
       </c>
       <c r="M60">
@@ -21473,7 +21485,7 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>0</v>
       </c>
       <c r="C61" t="s">
@@ -21503,7 +21515,7 @@
       <c r="K61">
         <v>0</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="2">
         <v>0</v>
       </c>
       <c r="M61">
@@ -21526,7 +21538,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>0</v>
       </c>
       <c r="C62" t="s">
@@ -21556,7 +21568,7 @@
       <c r="K62">
         <v>0</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="2">
         <v>0</v>
       </c>
       <c r="M62">
@@ -21579,7 +21591,7 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>0</v>
       </c>
       <c r="C63" t="s">
@@ -21609,7 +21621,7 @@
       <c r="K63">
         <v>0</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="2">
         <v>427629</v>
       </c>
       <c r="M63">
@@ -21632,7 +21644,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>0</v>
       </c>
       <c r="C64" t="s">
@@ -21662,7 +21674,7 @@
       <c r="K64">
         <v>409538.93</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="2">
         <v>0</v>
       </c>
       <c r="M64">
@@ -21685,7 +21697,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>0</v>
       </c>
       <c r="C65" t="s">
@@ -21715,7 +21727,7 @@
       <c r="K65">
         <v>0</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="2">
         <v>0</v>
       </c>
       <c r="M65">
@@ -21738,7 +21750,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>0</v>
       </c>
       <c r="C66" t="s">
@@ -21768,7 +21780,7 @@
       <c r="K66">
         <v>0</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="2">
         <v>0</v>
       </c>
       <c r="M66">
@@ -21791,7 +21803,7 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>0</v>
       </c>
       <c r="C67" t="s">
@@ -21821,7 +21833,7 @@
       <c r="K67">
         <v>59685.02</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="2">
         <v>0</v>
       </c>
       <c r="M67">
@@ -21844,7 +21856,7 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>0</v>
       </c>
       <c r="C68" t="s">
@@ -21874,7 +21886,7 @@
       <c r="K68">
         <v>960339</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="2">
         <v>0</v>
       </c>
       <c r="M68">
@@ -21897,7 +21909,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>0</v>
       </c>
       <c r="C69" t="s">
@@ -21927,7 +21939,7 @@
       <c r="K69">
         <v>0</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="2">
         <v>0</v>
       </c>
       <c r="M69">
@@ -21950,7 +21962,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>0</v>
       </c>
       <c r="C70" t="s">
@@ -21980,7 +21992,7 @@
       <c r="K70">
         <v>960439</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="2">
         <v>0</v>
       </c>
       <c r="M70">
@@ -22003,7 +22015,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>0</v>
       </c>
       <c r="C71" t="s">
@@ -22033,7 +22045,7 @@
       <c r="K71">
         <v>1831514</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="2">
         <v>0</v>
       </c>
       <c r="M71">
@@ -22056,7 +22068,7 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>0</v>
       </c>
       <c r="C72" t="s">
@@ -22086,7 +22098,7 @@
       <c r="K72">
         <v>0</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="2">
         <v>0</v>
       </c>
       <c r="M72">
@@ -22109,7 +22121,7 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>0</v>
       </c>
       <c r="C73" t="s">
@@ -22139,7 +22151,7 @@
       <c r="K73">
         <v>68102.25</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="2">
         <v>25389.16</v>
       </c>
       <c r="M73">
@@ -22162,7 +22174,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>0</v>
       </c>
       <c r="C74" t="s">
@@ -22192,7 +22204,7 @@
       <c r="K74">
         <v>364791</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="2">
         <v>0</v>
       </c>
       <c r="M74">
@@ -22215,7 +22227,7 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>0</v>
       </c>
       <c r="C75" t="s">
@@ -22245,7 +22257,7 @@
       <c r="K75">
         <v>0</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="2">
         <v>0</v>
       </c>
       <c r="M75">
@@ -22268,7 +22280,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>0</v>
       </c>
       <c r="C76" t="s">
@@ -22298,7 +22310,7 @@
       <c r="K76">
         <v>756129.85</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="2">
         <v>0</v>
       </c>
       <c r="M76">
@@ -22321,7 +22333,7 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>0</v>
       </c>
       <c r="C77" t="s">
@@ -22351,7 +22363,7 @@
       <c r="K77">
         <v>271746.14</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="2">
         <v>0</v>
       </c>
       <c r="M77">
@@ -22374,7 +22386,7 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>0</v>
       </c>
       <c r="C78" t="s">
@@ -22404,7 +22416,7 @@
       <c r="K78">
         <v>392367.33</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="2">
         <v>0</v>
       </c>
       <c r="M78">
@@ -22427,7 +22439,7 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>0</v>
       </c>
       <c r="C79" t="s">
@@ -22457,7 +22469,7 @@
       <c r="K79">
         <v>0</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="2">
         <v>0</v>
       </c>
       <c r="M79">
@@ -22480,7 +22492,7 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>0</v>
       </c>
       <c r="C80" t="s">
@@ -22510,7 +22522,7 @@
       <c r="K80">
         <v>1544596.56</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="2">
         <v>0</v>
       </c>
       <c r="M80">
@@ -22533,7 +22545,7 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>0</v>
       </c>
       <c r="C81" t="s">
@@ -22563,7 +22575,7 @@
       <c r="K81">
         <v>2910573.67</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="2">
         <v>0</v>
       </c>
       <c r="M81">
@@ -22586,7 +22598,7 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>0</v>
       </c>
       <c r="C82" t="s">
@@ -22616,7 +22628,7 @@
       <c r="K82">
         <v>0</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="2">
         <v>0</v>
       </c>
       <c r="M82">
@@ -22639,7 +22651,7 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>0</v>
       </c>
       <c r="C83" t="s">
@@ -22669,7 +22681,7 @@
       <c r="K83">
         <v>0</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="2">
         <v>2520296</v>
       </c>
       <c r="M83">
@@ -22692,7 +22704,7 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>0</v>
       </c>
       <c r="C84" t="s">
@@ -22722,7 +22734,7 @@
       <c r="K84">
         <v>0</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="2">
         <v>0</v>
       </c>
       <c r="M84">
@@ -22745,7 +22757,7 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>0</v>
       </c>
       <c r="C85" t="s">
@@ -22775,7 +22787,7 @@
       <c r="K85">
         <v>0</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="2">
         <v>0</v>
       </c>
       <c r="M85">
@@ -22798,7 +22810,7 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>0</v>
       </c>
       <c r="C86" t="s">
@@ -22828,7 +22840,7 @@
       <c r="K86">
         <v>0</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="2">
         <v>0</v>
       </c>
       <c r="M86">
@@ -22851,7 +22863,7 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>0</v>
       </c>
       <c r="C87" t="s">
@@ -22881,7 +22893,7 @@
       <c r="K87">
         <v>442073.9</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="2">
         <v>0</v>
       </c>
       <c r="M87">
@@ -22904,7 +22916,7 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>0</v>
       </c>
       <c r="C88" t="s">
@@ -22934,7 +22946,7 @@
       <c r="K88">
         <v>1070797</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="2">
         <v>0</v>
       </c>
       <c r="M88">
@@ -22957,7 +22969,7 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>0</v>
       </c>
       <c r="C89" t="s">
@@ -22987,7 +22999,7 @@
       <c r="K89">
         <v>0</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="2">
         <v>2602548</v>
       </c>
       <c r="M89">
@@ -23010,7 +23022,7 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>0</v>
       </c>
       <c r="C90" t="s">
@@ -23040,7 +23052,7 @@
       <c r="K90">
         <v>228366.2</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="2">
         <v>482664.8</v>
       </c>
       <c r="M90">
@@ -23063,7 +23075,7 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>0</v>
       </c>
       <c r="C91" t="s">
@@ -23093,7 +23105,7 @@
       <c r="K91">
         <v>0</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="2">
         <v>464428</v>
       </c>
       <c r="M91">
@@ -23116,7 +23128,7 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>0</v>
       </c>
       <c r="C92" t="s">
@@ -23146,7 +23158,7 @@
       <c r="K92">
         <v>0</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="2">
         <v>0</v>
       </c>
       <c r="M92">
@@ -23169,7 +23181,7 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>0</v>
       </c>
       <c r="C93" t="s">
@@ -23199,7 +23211,7 @@
       <c r="K93">
         <v>14062.5</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="2">
         <v>0</v>
       </c>
       <c r="M93">
@@ -23222,7 +23234,7 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>0</v>
       </c>
       <c r="C94" t="s">
@@ -23252,7 +23264,7 @@
       <c r="K94">
         <v>921416</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="2">
         <v>0</v>
       </c>
       <c r="M94">
@@ -23275,7 +23287,7 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>0</v>
       </c>
       <c r="C95" t="s">
@@ -23305,7 +23317,7 @@
       <c r="K95">
         <v>4600.57</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="2">
         <v>0</v>
       </c>
       <c r="M95">
@@ -23328,7 +23340,7 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>0</v>
       </c>
       <c r="C96" t="s">
@@ -23358,7 +23370,7 @@
       <c r="K96">
         <v>1284687</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="2">
         <v>0</v>
       </c>
       <c r="M96">
@@ -23381,7 +23393,7 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>0</v>
       </c>
       <c r="C97" t="s">
@@ -23411,7 +23423,7 @@
       <c r="K97">
         <v>0</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="2">
         <v>0</v>
       </c>
       <c r="M97">
@@ -23434,7 +23446,7 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>0</v>
       </c>
       <c r="C98" t="s">
@@ -23464,7 +23476,7 @@
       <c r="K98">
         <v>56967.82</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="2">
         <v>228922.15</v>
       </c>
       <c r="M98">
@@ -23487,7 +23499,7 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>0</v>
       </c>
       <c r="C99" t="s">
@@ -23517,7 +23529,7 @@
       <c r="K99">
         <v>0</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="2">
         <v>0</v>
       </c>
       <c r="M99">
@@ -23540,7 +23552,7 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>0</v>
       </c>
       <c r="C100" t="s">
@@ -23570,7 +23582,7 @@
       <c r="K100">
         <v>437413</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="2">
         <v>0</v>
       </c>
       <c r="M100">
@@ -23593,7 +23605,7 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>0</v>
       </c>
       <c r="C101" t="s">
@@ -23623,7 +23635,7 @@
       <c r="K101">
         <v>0</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="2">
         <v>0</v>
       </c>
       <c r="M101">
@@ -23646,7 +23658,7 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>0</v>
       </c>
       <c r="C102" t="s">
@@ -23676,7 +23688,7 @@
       <c r="K102">
         <v>0</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="2">
         <v>0</v>
       </c>
       <c r="M102">
@@ -23699,7 +23711,7 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>0</v>
       </c>
       <c r="C103" t="s">
@@ -23729,7 +23741,7 @@
       <c r="K103">
         <v>0</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="2">
         <v>0</v>
       </c>
       <c r="M103">

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -12015,7 +12015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <sheet name="monthly_gob" sheetId="7" r:id="rId7"/>
     <sheet name="monthly_rpa" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -625,8 +620,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,13 +633,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -685,19 +673,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,14 +684,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -759,7 +730,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -791,10 +762,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,7 +796,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1002,20 +971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView topLeftCell="F82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q94" sqref="Q94"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1120,10 +1083,10 @@
       <c r="O2">
         <v>2821414</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2">
         <v>394997.96</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2">
         <v>2426416.04</v>
       </c>
       <c r="R2" t="s">
@@ -1136,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1182,10 +1145,10 @@
       <c r="O3">
         <v>1644949.13</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3">
         <v>230293</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3">
         <v>1414656</v>
       </c>
       <c r="R3" t="s">
@@ -1198,7 +1161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1244,11 +1207,11 @@
       <c r="O4">
         <v>7908184</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4">
         <v>1107145</v>
       </c>
-      <c r="Q4" s="3">
-        <v>6801038.2400000002</v>
+      <c r="Q4">
+        <v>6801038.24</v>
       </c>
       <c r="R4" t="s">
         <v>113</v>
@@ -1260,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1280,7 +1243,7 @@
         <v>3391138.5</v>
       </c>
       <c r="G5">
-        <v>8657627.4399999995</v>
+        <v>8657627.439999999</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1304,12 +1267,12 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12048765.939999999</v>
-      </c>
-      <c r="P5" s="3">
+        <v>12048765.94</v>
+      </c>
+      <c r="P5">
         <v>1686827.24</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5">
         <v>10361938</v>
       </c>
       <c r="R5" t="s">
@@ -1322,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1354,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5957470.4000000004</v>
+        <v>5957470.4</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1368,10 +1331,10 @@
       <c r="O6">
         <v>8376745.068</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6">
         <v>1725298.82</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6">
         <v>10598264.18</v>
       </c>
       <c r="R6" t="s">
@@ -1384,7 +1347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1401,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>9832217.6799999997</v>
+        <v>9832217.68</v>
       </c>
       <c r="G7">
-        <v>5030725.9800000004</v>
+        <v>5030725.98</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1430,10 +1393,10 @@
       <c r="O7">
         <v>14862943.66</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7">
         <v>2727631.34</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7">
         <v>16755449.66</v>
       </c>
       <c r="R7" t="s">
@@ -1446,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1492,11 +1455,11 @@
       <c r="O8">
         <v>21505835</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8">
         <v>3010816.9</v>
       </c>
-      <c r="Q8" s="3">
-        <v>18495018.100000001</v>
+      <c r="Q8">
+        <v>18495018.1</v>
       </c>
       <c r="R8" t="s">
         <v>117</v>
@@ -1508,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1528,7 +1491,7 @@
         <v>3103589.69</v>
       </c>
       <c r="G9">
-        <v>8782672.0999999996</v>
+        <v>8782672.1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1552,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11886261.789999999</v>
-      </c>
-      <c r="P9" s="3">
+        <v>11886261.79</v>
+      </c>
+      <c r="P9">
         <v>1530743.06</v>
       </c>
-      <c r="Q9" s="3">
-        <v>9403135.9399999995</v>
+      <c r="Q9">
+        <v>9403135.939999999</v>
       </c>
       <c r="R9" t="s">
         <v>114</v>
@@ -1570,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1616,11 +1579,11 @@
       <c r="O10">
         <v>9825070</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10">
         <v>1375509.8</v>
       </c>
-      <c r="Q10" s="3">
-        <v>8449560.1999999993</v>
+      <c r="Q10">
+        <v>8449560.199999999</v>
       </c>
       <c r="R10" t="s">
         <v>118</v>
@@ -1632,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1678,11 +1641,11 @@
       <c r="O11">
         <v>51500068</v>
       </c>
-      <c r="P11" s="3">
-        <v>7210009.5199999996</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>44290058.479999997</v>
+      <c r="P11">
+        <v>7210009.52</v>
+      </c>
+      <c r="Q11">
+        <v>44290058.48</v>
       </c>
       <c r="R11" t="s">
         <v>119</v>
@@ -1694,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1738,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5969736.9100000001</v>
-      </c>
-      <c r="P12" s="3">
-        <v>776065.81</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>5193671.1900000004</v>
+        <v>5969736.91</v>
+      </c>
+      <c r="P12">
+        <v>776065.8100000001</v>
+      </c>
+      <c r="Q12">
+        <v>5193671.19</v>
       </c>
       <c r="R12" t="s">
         <v>120</v>
@@ -1756,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1782,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23055022.969999999</v>
+        <v>23055022.97</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1800,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23055022.969999999</v>
-      </c>
-      <c r="P13" s="3">
+        <v>23055022.97</v>
+      </c>
+      <c r="P13">
         <v>3227703.22</v>
       </c>
-      <c r="Q13" s="3">
-        <v>19827319.780000001</v>
+      <c r="Q13">
+        <v>19827319.78</v>
       </c>
       <c r="R13" t="s">
         <v>121</v>
@@ -1818,7 +1781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1864,10 +1827,10 @@
       <c r="O14">
         <v>17372657</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14">
         <v>2432171.98</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14">
         <v>14940485.02</v>
       </c>
       <c r="R14" t="s">
@@ -1880,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1912,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5353824.1399999997</v>
+        <v>5353824.14</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1924,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5353824.1399999997</v>
-      </c>
-      <c r="P15" s="3">
+        <v>5353824.14</v>
+      </c>
+      <c r="P15">
         <v>749535.36</v>
       </c>
-      <c r="Q15" s="3">
-        <v>4604288.6399999997</v>
+      <c r="Q15">
+        <v>4604288.64</v>
       </c>
       <c r="R15" t="s">
         <v>122</v>
@@ -1942,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1988,11 +1951,11 @@
       <c r="O16">
         <v>7212480</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16">
         <v>1009747.2</v>
       </c>
-      <c r="Q16" s="3">
-        <v>6202732.7999999998</v>
+      <c r="Q16">
+        <v>6202732.8</v>
       </c>
       <c r="R16" t="s">
         <v>123</v>
@@ -2004,7 +1967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2027,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8064231.7910000002</v>
+        <v>8064231.791</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2048,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8064231.7910000002</v>
-      </c>
-      <c r="P17" s="3">
+        <v>8064231.791</v>
+      </c>
+      <c r="P17">
         <v>1128992.48</v>
       </c>
-      <c r="Q17" s="3">
-        <v>6935239.5199999996</v>
+      <c r="Q17">
+        <v>6935239.52</v>
       </c>
       <c r="R17" t="s">
         <v>124</v>
@@ -2066,7 +2029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2112,10 +2075,10 @@
       <c r="O18">
         <v>20423243</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18">
         <v>2859254.02</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18">
         <v>17563988.98</v>
       </c>
       <c r="R18" t="s">
@@ -2128,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2174,11 +2137,11 @@
       <c r="O19">
         <v>11032342</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19">
         <v>1544527.88</v>
       </c>
-      <c r="Q19" s="3">
-        <v>9487814.1199999992</v>
+      <c r="Q19">
+        <v>9487814.119999999</v>
       </c>
       <c r="R19" t="s">
         <v>125</v>
@@ -2190,7 +2153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2222,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5159158.9000000004</v>
+        <v>5159158.9</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2234,12 +2197,12 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5159158.9000000004</v>
-      </c>
-      <c r="P20" s="3">
-        <v>928648.52000000048</v>
-      </c>
-      <c r="Q20" s="3">
+        <v>5159158.9</v>
+      </c>
+      <c r="P20">
+        <v>928648.5200000005</v>
+      </c>
+      <c r="Q20">
         <v>4230510.38</v>
       </c>
       <c r="R20" t="s">
@@ -2252,7 +2215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2298,10 +2261,10 @@
       <c r="O21">
         <v>36727928</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21">
         <v>5141909.92</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21">
         <v>31586018</v>
       </c>
       <c r="R21" t="s">
@@ -2314,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2360,11 +2323,11 @@
       <c r="O22">
         <v>23244978</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22">
         <v>3254296.92</v>
       </c>
-      <c r="Q22" s="3">
-        <v>19990681.079999998</v>
+      <c r="Q22">
+        <v>19990681.08</v>
       </c>
       <c r="R22" t="s">
         <v>127</v>
@@ -2376,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2422,10 +2385,10 @@
       <c r="O23">
         <v>16844694</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23">
         <v>2358257</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23">
         <v>14486436</v>
       </c>
       <c r="R23" t="s">
@@ -2438,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2484,11 +2447,11 @@
       <c r="O24">
         <v>10415125.77</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24">
         <v>1458117.64</v>
       </c>
-      <c r="Q24" s="3">
-        <v>8957008.3599999994</v>
+      <c r="Q24">
+        <v>8957008.359999999</v>
       </c>
       <c r="R24" t="s">
         <v>116</v>
@@ -2500,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2546,10 +2509,10 @@
       <c r="O25">
         <v>15061663</v>
       </c>
-      <c r="P25" s="3">
-        <v>2108632.8199999998</v>
-      </c>
-      <c r="Q25" s="3">
+      <c r="P25">
+        <v>2108632.82</v>
+      </c>
+      <c r="Q25">
         <v>12953030</v>
       </c>
       <c r="R25" t="s">
@@ -2562,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2608,11 +2571,11 @@
       <c r="O26">
         <v>21472510</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26">
         <v>3006151.4</v>
       </c>
-      <c r="Q26" s="3">
-        <v>18466358.600000001</v>
+      <c r="Q26">
+        <v>18466358.6</v>
       </c>
       <c r="R26" t="s">
         <v>129</v>
@@ -2624,7 +2587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2670,10 +2633,10 @@
       <c r="O27">
         <v>15753462</v>
       </c>
-      <c r="P27" s="3">
-        <v>2205484.6800000002</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="P27">
+        <v>2205484.68</v>
+      </c>
+      <c r="Q27">
         <v>13547977.32</v>
       </c>
       <c r="R27" t="s">
@@ -2686,7 +2649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2732,10 +2695,10 @@
       <c r="O28">
         <v>2017067</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28">
         <v>282389.38</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28">
         <v>1734677.62</v>
       </c>
       <c r="R28" t="s">
@@ -2748,7 +2711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2794,11 +2757,11 @@
       <c r="O29">
         <v>19766138</v>
       </c>
-      <c r="P29" s="3">
-        <v>3755566.2200000011</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>16010571.779999999</v>
+      <c r="P29">
+        <v>3755566.220000001</v>
+      </c>
+      <c r="Q29">
+        <v>16010571.78</v>
       </c>
       <c r="R29" t="s">
         <v>131</v>
@@ -2810,7 +2773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2856,10 +2819,10 @@
       <c r="O30">
         <v>12158123</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30">
         <v>1580555.99</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30">
         <v>10577567.01</v>
       </c>
       <c r="R30" t="s">
@@ -2872,7 +2835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2918,10 +2881,10 @@
       <c r="O31">
         <v>2366092</v>
       </c>
-      <c r="P31" s="3">
-        <v>309991.96000000002</v>
-      </c>
-      <c r="Q31" s="3">
+      <c r="P31">
+        <v>309991.96</v>
+      </c>
+      <c r="Q31">
         <v>2056100.04</v>
       </c>
       <c r="R31" t="s">
@@ -2934,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2980,10 +2943,10 @@
       <c r="O32">
         <v>7400966</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32">
         <v>962126</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32">
         <v>6438840</v>
       </c>
       <c r="R32" t="s">
@@ -2996,7 +2959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3042,11 +3005,11 @@
       <c r="O33">
         <v>24987347</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33">
         <v>3498228.58</v>
       </c>
-      <c r="Q33" s="3">
-        <v>21489118.420000002</v>
+      <c r="Q33">
+        <v>21489118.42</v>
       </c>
       <c r="R33" t="s">
         <v>133</v>
@@ -3058,7 +3021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3104,11 +3067,11 @@
       <c r="O34">
         <v>7803383</v>
       </c>
-      <c r="P34" s="3">
-        <v>1093173.6200000001</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>6715209.3799999999</v>
+      <c r="P34">
+        <v>1093173.62</v>
+      </c>
+      <c r="Q34">
+        <v>6715209.38</v>
       </c>
       <c r="R34" t="s">
         <v>123</v>
@@ -3120,7 +3083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3166,10 +3129,10 @@
       <c r="O35">
         <v>22263325</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35">
         <v>3116865.5</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35">
         <v>19146459.5</v>
       </c>
       <c r="R35" t="s">
@@ -3182,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3228,11 +3191,11 @@
       <c r="O36">
         <v>5347170</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36">
         <v>695132.1</v>
       </c>
-      <c r="Q36" s="3">
-        <v>4652037.9000000004</v>
+      <c r="Q36">
+        <v>4652037.9</v>
       </c>
       <c r="R36" t="s">
         <v>134</v>
@@ -3244,7 +3207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3290,11 +3253,11 @@
       <c r="O37">
         <v>6516132</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37">
         <v>912258.48</v>
       </c>
-      <c r="Q37" s="3">
-        <v>5603873.5199999996</v>
+      <c r="Q37">
+        <v>5603873.52</v>
       </c>
       <c r="R37" t="s">
         <v>116</v>
@@ -3306,7 +3269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3352,10 +3315,10 @@
       <c r="O38">
         <v>35514537</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38">
         <v>4972035.18</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38">
         <v>30542501.82</v>
       </c>
       <c r="R38" t="s">
@@ -3368,7 +3331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3414,11 +3377,11 @@
       <c r="O39">
         <v>5347170</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39">
         <v>695132.1</v>
       </c>
-      <c r="Q39" s="3">
-        <v>4652037.9000000004</v>
+      <c r="Q39">
+        <v>4652037.9</v>
       </c>
       <c r="R39" t="s">
         <v>135</v>
@@ -3430,7 +3393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3476,11 +3439,11 @@
       <c r="O40">
         <v>34155772</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40">
         <v>4781808.08</v>
       </c>
-      <c r="Q40" s="3">
-        <v>29373963.920000002</v>
+      <c r="Q40">
+        <v>29373963.92</v>
       </c>
       <c r="R40" t="s">
         <v>121</v>
@@ -3492,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3538,10 +3501,10 @@
       <c r="O41">
         <v>15079860</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41">
         <v>2111180.4</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41">
         <v>12968679.6</v>
       </c>
       <c r="R41" t="s">
@@ -3554,7 +3517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3571,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>4552593.8499999996</v>
+        <v>4552593.85</v>
       </c>
       <c r="G42">
         <v>3078009.85</v>
@@ -3598,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>7630603.6999999993</v>
-      </c>
-      <c r="P42" s="3">
+        <v>7630603.699999999</v>
+      </c>
+      <c r="P42">
         <v>1449814.459999999</v>
       </c>
-      <c r="Q42" s="3">
-        <v>6180789.2400000002</v>
+      <c r="Q42">
+        <v>6180789.24</v>
       </c>
       <c r="R42" t="s">
         <v>114</v>
@@ -3616,7 +3579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3633,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>26816203.760000002</v>
+        <v>26816203.76</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3660,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>26816203.760000002</v>
-      </c>
-      <c r="P43" s="3">
+        <v>26816203.76</v>
+      </c>
+      <c r="P43">
         <v>3754312.24</v>
       </c>
-      <c r="Q43" s="3">
-        <v>23062203.760000002</v>
+      <c r="Q43">
+        <v>23062203.76</v>
       </c>
       <c r="R43" t="s">
         <v>136</v>
@@ -3678,7 +3641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3724,11 +3687,11 @@
       <c r="O44">
         <v>11969055</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44">
         <v>1675667.7</v>
       </c>
-      <c r="Q44" s="3">
-        <v>10293387.300000001</v>
+      <c r="Q44">
+        <v>10293387.3</v>
       </c>
       <c r="R44" t="s">
         <v>130</v>
@@ -3740,7 +3703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3786,10 +3749,10 @@
       <c r="O45">
         <v>2292340</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45">
         <v>298004.2</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45">
         <v>1994335.8</v>
       </c>
       <c r="R45" t="s">
@@ -3802,7 +3765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3848,10 +3811,10 @@
       <c r="O46">
         <v>3478937</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46">
         <v>487051.18</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46">
         <v>2991885.82</v>
       </c>
       <c r="R46" t="s">
@@ -3864,7 +3827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3881,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>15241072.859999999</v>
+        <v>15241072.86</v>
       </c>
       <c r="G47">
-        <v>7702950.4800000004</v>
+        <v>7702950.48</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3910,11 +3873,11 @@
       <c r="O47">
         <v>22944023.34</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47">
         <v>3212163.22</v>
       </c>
-      <c r="Q47" s="3">
-        <v>19731859.780000001</v>
+      <c r="Q47">
+        <v>19731859.78</v>
       </c>
       <c r="R47" t="s">
         <v>118</v>
@@ -3926,7 +3889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3972,10 +3935,10 @@
       <c r="O48">
         <v>10168500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48">
         <v>1423590</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48">
         <v>8744910</v>
       </c>
       <c r="R48" t="s">
@@ -3988,7 +3951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4034,10 +3997,10 @@
       <c r="O49">
         <v>15531785</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49">
         <v>2174449.9</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49">
         <v>13357335.1</v>
       </c>
       <c r="R49" t="s">
@@ -4050,7 +4013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4070,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>17634405.789999999</v>
+        <v>17634405.79</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4094,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>29902327.449999999</v>
-      </c>
-      <c r="P50" s="3">
+        <v>29902327.45</v>
+      </c>
+      <c r="P50">
         <v>4186325.78</v>
       </c>
-      <c r="Q50" s="3">
-        <v>25716001.219999999</v>
+      <c r="Q50">
+        <v>25716001.22</v>
       </c>
       <c r="R50" t="s">
         <v>128</v>
@@ -4112,7 +4075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4158,11 +4121,11 @@
       <c r="O51">
         <v>14883526</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51">
         <v>2083693.64</v>
       </c>
-      <c r="Q51" s="3">
-        <v>12799832.359999999</v>
+      <c r="Q51">
+        <v>12799832.36</v>
       </c>
       <c r="R51" t="s">
         <v>137</v>
@@ -4174,7 +4137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4220,10 +4183,10 @@
       <c r="O52">
         <v>3264155</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52">
         <v>437340.15</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52">
         <v>2926814.85</v>
       </c>
       <c r="R52" t="s">
@@ -4236,7 +4199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4253,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>6038020.1900000004</v>
+        <v>6038020.19</v>
       </c>
       <c r="G53">
         <v>350222.81</v>
@@ -4282,11 +4245,11 @@
       <c r="O53">
         <v>6388243</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53">
         <v>894354.02</v>
       </c>
-      <c r="Q53" s="3">
-        <v>5493888.9800000004</v>
+      <c r="Q53">
+        <v>5493888.98</v>
       </c>
       <c r="R53" t="s">
         <v>116</v>
@@ -4298,7 +4261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4344,10 +4307,10 @@
       <c r="O54">
         <v>3574390</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54">
         <v>500414.6</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54">
         <v>3073975.4</v>
       </c>
       <c r="R54" t="s">
@@ -4360,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4406,10 +4369,10 @@
       <c r="O55">
         <v>14918906</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55">
         <v>2088646.84</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="Q55">
         <v>12830259.16</v>
       </c>
       <c r="R55" t="s">
@@ -4422,7 +4385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4442,7 +4405,7 @@
         <v>3809899.07</v>
       </c>
       <c r="G56">
-        <v>5431835.9299999997</v>
+        <v>5431835.93</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4468,10 +4431,10 @@
       <c r="O56">
         <v>9241735</v>
       </c>
-      <c r="P56" s="3">
-        <v>1293842.8999999999</v>
-      </c>
-      <c r="Q56" s="3">
+      <c r="P56">
+        <v>1293842.9</v>
+      </c>
+      <c r="Q56">
         <v>7947892</v>
       </c>
       <c r="R56" t="s">
@@ -4484,7 +4447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4501,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>5853043.0800000001</v>
+        <v>5853043.08</v>
       </c>
       <c r="G57">
-        <v>5592440.8700000001</v>
+        <v>5592440.87</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -4528,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>11445483.949999999</v>
-      </c>
-      <c r="P57" s="3">
+        <v>11445483.95</v>
+      </c>
+      <c r="P57">
         <v>1602367.76</v>
       </c>
-      <c r="Q57" s="3">
-        <v>9843116.2400000002</v>
+      <c r="Q57">
+        <v>9843116.24</v>
       </c>
       <c r="R57" t="s">
         <v>118</v>
@@ -4546,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4592,10 +4555,10 @@
       <c r="O58">
         <v>9057764</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58">
         <v>1268086.96</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58">
         <v>7789677.04</v>
       </c>
       <c r="R58" t="s">
@@ -4608,7 +4571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4654,10 +4617,10 @@
       <c r="O59">
         <v>3912020</v>
       </c>
-      <c r="P59" s="3">
-        <v>547682.80000000005</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="P59">
+        <v>547682.8</v>
+      </c>
+      <c r="Q59">
         <v>3364337.2</v>
       </c>
       <c r="R59" t="s">
@@ -4670,7 +4633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4716,11 +4679,11 @@
       <c r="O60">
         <v>15170448</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60">
         <v>123862.72</v>
       </c>
-      <c r="Q60" s="3">
-        <v>13046585.279999999</v>
+      <c r="Q60">
+        <v>13046585.28</v>
       </c>
       <c r="R60" t="s">
         <v>138</v>
@@ -4732,7 +4695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4778,11 +4741,11 @@
       <c r="O61">
         <v>12984139</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P61">
         <v>1817779.46</v>
       </c>
-      <c r="Q61" s="3">
-        <v>11166359.539999999</v>
+      <c r="Q61">
+        <v>11166359.54</v>
       </c>
       <c r="R61" t="s">
         <v>115</v>
@@ -4794,7 +4757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4840,11 +4803,11 @@
       <c r="O62">
         <v>25552184</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62">
         <v>3577306.76</v>
       </c>
-      <c r="Q62" s="3">
-        <v>21974878.239999998</v>
+      <c r="Q62">
+        <v>21974878.24</v>
       </c>
       <c r="R62" t="s">
         <v>111</v>
@@ -4856,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4902,10 +4865,10 @@
       <c r="O63">
         <v>10190150</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P63">
         <v>1426261</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="Q63">
         <v>8763529</v>
       </c>
       <c r="R63" t="s">
@@ -4918,7 +4881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4964,11 +4927,11 @@
       <c r="O64">
         <v>15010514</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P64">
         <v>2101471.96</v>
       </c>
-      <c r="Q64" s="3">
-        <v>12909042.039999999</v>
+      <c r="Q64">
+        <v>12909042.04</v>
       </c>
       <c r="R64" t="s">
         <v>139</v>
@@ -4980,7 +4943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5026,10 +4989,10 @@
       <c r="O65">
         <v>6575000</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P65">
         <v>920500</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="Q65">
         <v>5654500</v>
       </c>
       <c r="R65" t="s">
@@ -5042,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5088,10 +5051,10 @@
       <c r="O66">
         <v>6430088</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66">
         <v>756830</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66">
         <v>5673258</v>
       </c>
       <c r="R66" t="s">
@@ -5104,7 +5067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5150,11 +5113,11 @@
       <c r="O67">
         <v>8404669</v>
       </c>
-      <c r="P67" s="3">
-        <v>1176653.6599999999</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>7228015.3399999999</v>
+      <c r="P67">
+        <v>1176653.66</v>
+      </c>
+      <c r="Q67">
+        <v>7228015.34</v>
       </c>
       <c r="R67" t="s">
         <v>121</v>
@@ -5166,7 +5129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5212,10 +5175,10 @@
       <c r="O68">
         <v>1642962</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P68">
         <v>230014.68</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="Q68">
         <v>1412947.32</v>
       </c>
       <c r="R68" t="s">
@@ -5228,7 +5191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5274,10 +5237,10 @@
       <c r="O69">
         <v>2757459</v>
       </c>
-      <c r="P69" s="3">
+      <c r="P69">
         <v>358469.67</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="Q69">
         <v>2398989.33</v>
       </c>
       <c r="R69" t="s">
@@ -5290,7 +5253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5336,10 +5299,10 @@
       <c r="O70">
         <v>4689243</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P70">
         <v>609601.59</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="Q70">
         <v>4079641.41</v>
       </c>
       <c r="R70" t="s">
@@ -5352,7 +5315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5398,11 +5361,11 @@
       <c r="O71">
         <v>6240271</v>
       </c>
-      <c r="P71" s="3">
-        <v>873637.94</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>5366633.0599999996</v>
+      <c r="P71">
+        <v>873637.9399999999</v>
+      </c>
+      <c r="Q71">
+        <v>5366633.06</v>
       </c>
       <c r="R71" t="s">
         <v>121</v>
@@ -5414,7 +5377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5460,10 +5423,10 @@
       <c r="O72">
         <v>13101081</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72">
         <v>1834151.34</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72">
         <v>11266929.66</v>
       </c>
       <c r="R72" t="s">
@@ -5476,7 +5439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5522,11 +5485,11 @@
       <c r="O73">
         <v>16716505</v>
       </c>
-      <c r="P73" s="3">
-        <v>2340310.7000000002</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>14376194.300000001</v>
+      <c r="P73">
+        <v>2340310.7</v>
+      </c>
+      <c r="Q73">
+        <v>14376194.3</v>
       </c>
       <c r="R73" t="s">
         <v>117</v>
@@ -5538,7 +5501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5584,11 +5547,11 @@
       <c r="O74">
         <v>11206363</v>
       </c>
-      <c r="P74" s="3">
+      <c r="P74">
         <v>1568890.82</v>
       </c>
-      <c r="Q74" s="3">
-        <v>9637472.0999999996</v>
+      <c r="Q74">
+        <v>9637472.1</v>
       </c>
       <c r="R74" t="s">
         <v>124</v>
@@ -5600,7 +5563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5646,10 +5609,10 @@
       <c r="O75">
         <v>3705998</v>
       </c>
-      <c r="P75" s="3">
+      <c r="P75">
         <v>518839.72</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="Q75">
         <v>3187158.28</v>
       </c>
       <c r="R75" t="s">
@@ -5662,7 +5625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5708,10 +5671,10 @@
       <c r="O76">
         <v>3995166</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76">
         <v>519371.58</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76">
         <v>3475794</v>
       </c>
       <c r="R76" t="s">
@@ -5724,7 +5687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5741,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>8736715.4719999991</v>
+        <v>8736715.471999999</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -5768,13 +5731,13 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>13452647.291999999</v>
-      </c>
-      <c r="P77" s="3">
+        <v>13452647.292</v>
+      </c>
+      <c r="P77">
         <v>1650964.12</v>
       </c>
-      <c r="Q77" s="3">
-        <v>11048759.880000001</v>
+      <c r="Q77">
+        <v>11048759.88</v>
       </c>
       <c r="R77" t="s">
         <v>140</v>
@@ -5786,7 +5749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5832,10 +5795,10 @@
       <c r="O78">
         <v>4436884</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78">
         <v>621163.76</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="Q78">
         <v>3815720.24</v>
       </c>
       <c r="R78" t="s">
@@ -5848,7 +5811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5859,13 +5822,13 @@
         <v>96</v>
       </c>
       <c r="D79">
-        <v>491243.98499999999</v>
+        <v>491243.985</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>19959771.015000001</v>
+        <v>19959771.015</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5894,11 +5857,11 @@
       <c r="O79">
         <v>20451015</v>
       </c>
-      <c r="P79" s="3">
+      <c r="P79">
         <v>2863142.1</v>
       </c>
-      <c r="Q79" s="3">
-        <v>17587872.899999999</v>
+      <c r="Q79">
+        <v>17587872.9</v>
       </c>
       <c r="R79" t="s">
         <v>129</v>
@@ -5910,7 +5873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5954,12 +5917,12 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>16847365.449000001</v>
-      </c>
-      <c r="P80" s="3">
+        <v>16847365.449</v>
+      </c>
+      <c r="P80">
         <v>2358631.1</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="Q80">
         <v>14488733.9</v>
       </c>
       <c r="R80" t="s">
@@ -5972,7 +5935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6018,11 +5981,11 @@
       <c r="O81">
         <v>11681236</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81">
         <v>1635373.04</v>
       </c>
-      <c r="Q81" s="3">
-        <v>10045862.960000001</v>
+      <c r="Q81">
+        <v>10045862.96</v>
       </c>
       <c r="R81" t="s">
         <v>133</v>
@@ -6034,7 +5997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6080,10 +6043,10 @@
       <c r="O82">
         <v>3836480</v>
       </c>
-      <c r="P82" s="3">
-        <v>537107.19999999995</v>
-      </c>
-      <c r="Q82" s="3">
+      <c r="P82">
+        <v>537107.2</v>
+      </c>
+      <c r="Q82">
         <v>3299372.8</v>
       </c>
       <c r="R82" t="s">
@@ -6096,7 +6059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6113,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>10766653.289999999</v>
+        <v>10766653.29</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -6128,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>5035726.7240000004</v>
+        <v>5035726.724</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -6142,11 +6105,11 @@
       <c r="O83">
         <v>15802380.014</v>
       </c>
-      <c r="P83" s="3">
-        <v>2212333.2000000002</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>13590046.800000001</v>
+      <c r="P83">
+        <v>2212333.2</v>
+      </c>
+      <c r="Q83">
+        <v>13590046.8</v>
       </c>
       <c r="R83" t="s">
         <v>141</v>
@@ -6158,7 +6121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6204,10 +6167,10 @@
       <c r="O84">
         <v>4209533</v>
       </c>
-      <c r="P84" s="3">
+      <c r="P84">
         <v>547239.29</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="Q84">
         <v>3662293.71</v>
       </c>
       <c r="R84" t="s">
@@ -6220,7 +6183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6237,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1092242.6100000001</v>
+        <v>1092242.61</v>
       </c>
       <c r="G85">
         <v>6565980.71</v>
@@ -6264,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>7658223.3200000003</v>
-      </c>
-      <c r="P85" s="3">
+        <v>7658223.32</v>
+      </c>
+      <c r="P85">
         <v>1072151.22</v>
       </c>
-      <c r="Q85" s="3">
-        <v>6586071.7800000003</v>
+      <c r="Q85">
+        <v>6586071.78</v>
       </c>
       <c r="R85" t="s">
         <v>118</v>
@@ -6282,7 +6245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6328,10 +6291,10 @@
       <c r="O86">
         <v>2772925</v>
       </c>
-      <c r="P86" s="3">
+      <c r="P86">
         <v>360480.25</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="Q86">
         <v>2412444.75</v>
       </c>
       <c r="R86" t="s">
@@ -6344,7 +6307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6364,7 +6327,7 @@
         <v>1865950.84</v>
       </c>
       <c r="G87">
-        <v>1241270.5900000001</v>
+        <v>1241270.59</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -6390,10 +6353,10 @@
       <c r="O87">
         <v>3129648.13</v>
       </c>
-      <c r="P87" s="3">
+      <c r="P87">
         <v>427536.34</v>
       </c>
-      <c r="Q87" s="3">
+      <c r="Q87">
         <v>2626294.66</v>
       </c>
       <c r="R87" t="s">
@@ -6406,7 +6369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6452,10 +6415,10 @@
       <c r="O88">
         <v>5676932</v>
       </c>
-      <c r="P88" s="3">
+      <c r="P88">
         <v>738001.16</v>
       </c>
-      <c r="Q88" s="3">
+      <c r="Q88">
         <v>4938930.84</v>
       </c>
       <c r="R88" t="s">
@@ -6468,7 +6431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6500,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>116300.22500000001</v>
+        <v>116300.225</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -6512,12 +6475,12 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>237005.48499999999</v>
-      </c>
-      <c r="P89" s="3">
+        <v>237005.485</v>
+      </c>
+      <c r="P89">
         <v>274463.7</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89">
         <v>1685991.3</v>
       </c>
       <c r="R89" t="s">
@@ -6530,7 +6493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6576,11 +6539,11 @@
       <c r="O90">
         <v>7869228</v>
       </c>
-      <c r="P90" s="3">
+      <c r="P90">
         <v>1101691.92</v>
       </c>
-      <c r="Q90" s="3">
-        <v>6767536.0800000001</v>
+      <c r="Q90">
+        <v>6767536.08</v>
       </c>
       <c r="R90" t="s">
         <v>123</v>
@@ -6592,7 +6555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6624,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>5168075.6689999998</v>
+        <v>5168075.669</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -6636,13 +6599,13 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <v>7003616.6769999992</v>
-      </c>
-      <c r="P91" s="3">
+        <v>7003616.676999999</v>
+      </c>
+      <c r="P91">
         <v>980506.38</v>
       </c>
-      <c r="Q91" s="3">
-        <v>6023110.6200000001</v>
+      <c r="Q91">
+        <v>6023110.62</v>
       </c>
       <c r="R91" t="s">
         <v>115</v>
@@ -6654,7 +6617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6700,10 +6663,10 @@
       <c r="O92">
         <v>4828643</v>
       </c>
-      <c r="P92" s="3">
+      <c r="P92">
         <v>676010.2</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="Q92">
         <v>4152632.68</v>
       </c>
       <c r="R92" t="s">
@@ -6716,7 +6679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6762,10 +6725,10 @@
       <c r="O93">
         <v>4271305.01</v>
       </c>
-      <c r="P93" s="3">
-        <v>597982.69999999995</v>
-      </c>
-      <c r="Q93" s="3">
+      <c r="P93">
+        <v>597982.7</v>
+      </c>
+      <c r="Q93">
         <v>3673322.3</v>
       </c>
       <c r="R93" t="s">
@@ -6776,16 +6739,6 @@
       </c>
       <c r="T93">
         <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P94" s="2">
-        <f>SUM(P2:P93)</f>
-        <v>152741752.70999989</v>
-      </c>
-      <c r="Q94" s="2">
-        <f>SUM(Q2:Q93)</f>
-        <v>946096159.38999975</v>
       </c>
     </row>
   </sheetData>
@@ -6794,14 +6747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6854,7 +6807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6910,7 +6863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6927,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.47962919072153931</v>
+        <v>0.4796291907215393</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6966,7 +6919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7022,7 +6975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7039,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.28145110602090428</v>
+        <v>0.2814511060209043</v>
       </c>
       <c r="G5">
-        <v>0.71854889397909572</v>
+        <v>0.7185488939790957</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7078,7 +7031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7089,13 +7042,13 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>7.8172427319236168E-2</v>
+        <v>0.07817242731923617</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.21063601180133229</v>
+        <v>0.2106360118013323</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7110,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.71119156087943158</v>
+        <v>0.7111915608794316</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -7134,7 +7087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7151,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.66152559714405856</v>
+        <v>0.6615255971440586</v>
       </c>
       <c r="G7">
-        <v>0.33847440285594138</v>
+        <v>0.3384744028559414</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7190,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7246,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7263,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.26110729721694947</v>
+        <v>0.2611072972169495</v>
       </c>
       <c r="G9">
-        <v>0.73889270278305053</v>
+        <v>0.7388927027830505</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7302,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7358,7 +7311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7414,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7470,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7526,7 +7479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7582,7 +7535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7638,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7694,7 +7647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7750,7 +7703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7806,7 +7759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7862,7 +7815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7918,7 +7871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7974,7 +7927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8030,7 +7983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8086,7 +8039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8103,10 +8056,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.70698531756664518</v>
+        <v>0.7069853175666452</v>
       </c>
       <c r="G24">
-        <v>0.29301468243335482</v>
+        <v>0.2930146824333548</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -8142,7 +8095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8198,7 +8151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8254,7 +8207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8310,7 +8263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8366,7 +8319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8422,7 +8375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8478,7 +8431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8534,7 +8487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8590,7 +8543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8646,7 +8599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8702,7 +8655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8758,7 +8711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8814,7 +8767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8870,7 +8823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8926,7 +8879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8982,7 +8935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9038,7 +8991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9094,7 +9047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9114,7 +9067,7 @@
         <v>0.5966230234181864</v>
       </c>
       <c r="G42">
-        <v>0.40337697658181371</v>
+        <v>0.4033769765818137</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -9150,7 +9103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9206,7 +9159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9262,7 +9215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9318,7 +9271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9374,7 +9327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9391,10 +9344,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.66427202562286092</v>
+        <v>0.6642720256228609</v>
       </c>
       <c r="G47">
-        <v>0.33572797437713908</v>
+        <v>0.3357279743771391</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -9430,7 +9383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9486,7 +9439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9542,7 +9495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9562,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.58973355232921842</v>
+        <v>0.5897335523292184</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -9574,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0.41026644767078152</v>
+        <v>0.4102664476707815</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -9598,7 +9551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9654,7 +9607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9710,7 +9663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9727,10 +9680,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.94517697432611758</v>
+        <v>0.9451769743261176</v>
       </c>
       <c r="G53">
-        <v>5.4823025673882482E-2</v>
+        <v>0.05482302567388248</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -9766,7 +9719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9822,7 +9775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9878,7 +9831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9895,10 +9848,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.41224933088862648</v>
+        <v>0.4122493308886265</v>
       </c>
       <c r="G56">
-        <v>0.58775066911137352</v>
+        <v>0.5877506691113735</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -9934,7 +9887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9951,10 +9904,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.51138449938589103</v>
+        <v>0.511384499385891</v>
       </c>
       <c r="G57">
-        <v>0.48861550061410908</v>
+        <v>0.4886155006141091</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -9990,7 +9943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10046,7 +9999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10063,10 +10016,10 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.49323524675231722</v>
+        <v>0.4932352467523172</v>
       </c>
       <c r="G59">
-        <v>0.50676475324768278</v>
+        <v>0.5067647532476828</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -10102,7 +10055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10158,7 +10111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10169,13 +10122,13 @@
         <v>78</v>
       </c>
       <c r="D61">
-        <v>0.12176841298448821</v>
+        <v>0.1217684129844882</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.87823158701551174</v>
+        <v>0.8782315870155117</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -10214,7 +10167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10270,7 +10223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10326,7 +10279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10382,7 +10335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10438,7 +10391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10494,7 +10447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10550,7 +10503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10606,7 +10559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10662,7 +10615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10718,7 +10671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10774,7 +10727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10830,7 +10783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10886,7 +10839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10942,7 +10895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10998,7 +10951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11054,7 +11007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11071,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.64944209733317959</v>
+        <v>0.6494420973331796</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -11086,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0.35055790266682041</v>
+        <v>0.3505579026668204</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -11110,7 +11063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11166,7 +11119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11177,13 +11130,13 @@
         <v>96</v>
       </c>
       <c r="D79">
-        <v>2.4020518541500259E-2</v>
+        <v>0.02402051854150026</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.97597948145849978</v>
+        <v>0.9759794814584998</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -11222,7 +11175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11233,7 +11186,7 @@
         <v>97</v>
       </c>
       <c r="D80">
-        <v>0.80707305365700799</v>
+        <v>0.807073053657008</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -11254,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0.19292694634299201</v>
+        <v>0.192926946342992</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -11278,7 +11231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11334,7 +11287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11390,7 +11343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11407,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.68133112103755034</v>
+        <v>0.6813311210375503</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -11422,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0.31866887896244972</v>
+        <v>0.3186688789624497</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -11446,7 +11399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11502,7 +11455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11519,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.14262349951946821</v>
+        <v>0.1426234995194682</v>
       </c>
       <c r="G85">
-        <v>0.85737650048053182</v>
+        <v>0.8573765004805318</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -11558,7 +11511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11614,7 +11567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11631,10 +11584,10 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.59621745400496506</v>
+        <v>0.5962174540049651</v>
       </c>
       <c r="G87">
-        <v>0.39661666054451938</v>
+        <v>0.3966166605445194</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -11646,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>7.1658854505154863E-3</v>
+        <v>0.007165885450515486</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -11658,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="O87">
-        <v>0.99999999999999989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P87" t="s">
         <v>132</v>
@@ -11670,7 +11623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11726,7 +11679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -11743,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.50929310771014435</v>
+        <v>0.5092931077101444</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -11782,7 +11735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -11838,7 +11791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -11855,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.14846039638556879</v>
+        <v>0.1484603963855688</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -11870,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0.73791526683235698</v>
+        <v>0.737915266832357</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -11894,7 +11847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -11950,7 +11903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -11961,7 +11914,7 @@
         <v>110</v>
       </c>
       <c r="D93">
-        <v>8.5785952804152465E-2</v>
+        <v>0.08578595280415247</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -11979,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0.91421404719584753</v>
+        <v>0.9142140471958475</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -12012,20 +11965,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12078,7 +12025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12134,7 +12081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12151,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>678510.31</v>
+        <v>678510.3100000001</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -12166,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>736145.69</v>
+        <v>736145.6899999999</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -12190,7 +12137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12207,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6801038.2400000002</v>
+        <v>6801038.24</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -12234,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6801038.2400000002</v>
+        <v>6801038.24</v>
       </c>
       <c r="P4" t="s">
         <v>113</v>
@@ -12246,7 +12193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12266,7 +12213,7 @@
         <v>2916378.91</v>
       </c>
       <c r="G5">
-        <v>7445559.0899999999</v>
+        <v>7445559.09</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -12302,7 +12249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12358,7 +12305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12378,7 +12325,7 @@
         <v>11084158.84</v>
       </c>
       <c r="G7">
-        <v>5671290.8200000003</v>
+        <v>5671290.82</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -12414,7 +12361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12437,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18495018.100000001</v>
+        <v>18495018.1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -12458,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18495018.100000001</v>
+        <v>18495018.1</v>
       </c>
       <c r="P8" t="s">
         <v>117</v>
@@ -12470,7 +12417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12490,7 +12437,7 @@
         <v>2455227.41</v>
       </c>
       <c r="G9">
-        <v>6947908.5300000003</v>
+        <v>6947908.53</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12514,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9403135.9400000013</v>
+        <v>9403135.940000001</v>
       </c>
       <c r="P9" t="s">
         <v>114</v>
@@ -12526,7 +12473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12543,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>8449560.1999999993</v>
+        <v>8449560.199999999</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -12570,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8449560.1999999993</v>
+        <v>8449560.199999999</v>
       </c>
       <c r="P10" t="s">
         <v>118</v>
@@ -12582,7 +12529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12614,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>44290058.479999997</v>
+        <v>44290058.48</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -12626,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>44290058.479999997</v>
+        <v>44290058.48</v>
       </c>
       <c r="P11" t="s">
         <v>119</v>
@@ -12638,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12682,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5193671.1900000004</v>
+        <v>5193671.19</v>
       </c>
       <c r="P12" t="s">
         <v>120</v>
@@ -12694,7 +12641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12720,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19827319.780000001</v>
+        <v>19827319.78</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -12738,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19827319.780000001</v>
+        <v>19827319.78</v>
       </c>
       <c r="P13" t="s">
         <v>121</v>
@@ -12750,7 +12697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12806,7 +12753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12838,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4604288.6399999997</v>
+        <v>4604288.64</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -12850,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4604288.6399999997</v>
+        <v>4604288.64</v>
       </c>
       <c r="P15" t="s">
         <v>122</v>
@@ -12862,7 +12809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12882,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>6202732.7999999998</v>
+        <v>6202732.8</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -12906,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6202732.7999999998</v>
+        <v>6202732.8</v>
       </c>
       <c r="P16" t="s">
         <v>123</v>
@@ -12918,7 +12865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12941,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6935239.5199999996</v>
+        <v>6935239.52</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -12962,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6935239.5199999996</v>
+        <v>6935239.52</v>
       </c>
       <c r="P17" t="s">
         <v>124</v>
@@ -12974,7 +12921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -13030,7 +12977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -13062,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9487814.1199999992</v>
+        <v>9487814.119999999</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -13074,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9487814.1199999992</v>
+        <v>9487814.119999999</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -13086,7 +13033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -13142,7 +13089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -13198,7 +13145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -13215,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19990681.079999998</v>
+        <v>19990681.08</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -13242,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19990681.079999998</v>
+        <v>19990681.08</v>
       </c>
       <c r="P22" t="s">
         <v>127</v>
@@ -13254,7 +13201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13310,7 +13257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13327,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>6332473.4000000004</v>
+        <v>6332473.4</v>
       </c>
       <c r="G24">
         <v>2624534.96</v>
@@ -13354,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8957008.3599999994</v>
+        <v>8957008.359999999</v>
       </c>
       <c r="P24" t="s">
         <v>116</v>
@@ -13366,7 +13313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -13422,7 +13369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -13439,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>18466358.600000001</v>
+        <v>18466358.6</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -13466,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>18466358.600000001</v>
+        <v>18466358.6</v>
       </c>
       <c r="P26" t="s">
         <v>129</v>
@@ -13478,7 +13425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -13534,7 +13481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -13590,7 +13537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -13610,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>16010571.779999999</v>
+        <v>16010571.78</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -13634,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>16010571.779999999</v>
+        <v>16010571.78</v>
       </c>
       <c r="P29" t="s">
         <v>131</v>
@@ -13646,7 +13593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -13702,7 +13649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -13758,7 +13705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -13814,7 +13761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -13840,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>21489118.420000002</v>
+        <v>21489118.42</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -13858,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>21489118.420000002</v>
+        <v>21489118.42</v>
       </c>
       <c r="P33" t="s">
         <v>133</v>
@@ -13870,7 +13817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -13890,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>6715209.3799999999</v>
+        <v>6715209.38</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -13914,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>6715209.3799999999</v>
+        <v>6715209.38</v>
       </c>
       <c r="P34" t="s">
         <v>123</v>
@@ -13926,7 +13873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -13982,7 +13929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -14002,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>4652037.9000000004</v>
+        <v>4652037.9</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -14026,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>4652037.9000000004</v>
+        <v>4652037.9</v>
       </c>
       <c r="P36" t="s">
         <v>134</v>
@@ -14038,7 +13985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -14058,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>5603873.5199999996</v>
+        <v>5603873.52</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -14082,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>5603873.5199999996</v>
+        <v>5603873.52</v>
       </c>
       <c r="P37" t="s">
         <v>116</v>
@@ -14094,7 +14041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -14150,7 +14097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -14167,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>4652037.9000000004</v>
+        <v>4652037.9</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -14194,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>4652037.9000000004</v>
+        <v>4652037.9</v>
       </c>
       <c r="P39" t="s">
         <v>135</v>
@@ -14206,7 +14153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -14235,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>29373963.920000002</v>
+        <v>29373963.92</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -14250,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>29373963.920000002</v>
+        <v>29373963.92</v>
       </c>
       <c r="P40" t="s">
         <v>121</v>
@@ -14262,7 +14209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -14318,7 +14265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -14362,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>6180789.2400000002</v>
+        <v>6180789.24</v>
       </c>
       <c r="P42" t="s">
         <v>114</v>
@@ -14374,7 +14321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -14391,7 +14338,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>23062203.760000002</v>
+        <v>23062203.76</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -14418,7 +14365,7 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>23062203.760000002</v>
+        <v>23062203.76</v>
       </c>
       <c r="P43" t="s">
         <v>136</v>
@@ -14430,7 +14377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -14450,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>10293387.300000001</v>
+        <v>10293387.3</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -14474,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>10293387.300000001</v>
+        <v>10293387.3</v>
       </c>
       <c r="P44" t="s">
         <v>130</v>
@@ -14486,7 +14433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -14542,7 +14489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -14598,7 +14545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -14615,10 +14562,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>13107322.470000001</v>
+        <v>13107322.47</v>
       </c>
       <c r="G47">
-        <v>6624537.3099999996</v>
+        <v>6624537.31</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -14642,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>19731859.780000001</v>
+        <v>19731859.78</v>
       </c>
       <c r="P47" t="s">
         <v>118</v>
@@ -14654,7 +14601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -14710,7 +14657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -14766,7 +14713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -14798,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>10550412.470000001</v>
+        <v>10550412.47</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -14810,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>25716001.219999999</v>
+        <v>25716001.22</v>
       </c>
       <c r="P50" t="s">
         <v>128</v>
@@ -14822,7 +14769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -14851,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>12799832.359999999</v>
+        <v>12799832.36</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -14866,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>12799832.359999999</v>
+        <v>12799832.36</v>
       </c>
       <c r="P51" t="s">
         <v>137</v>
@@ -14878,7 +14825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -14934,7 +14881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -14951,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>5192697.3600000003</v>
+        <v>5192697.36</v>
       </c>
       <c r="G53">
         <v>301191.62</v>
@@ -14978,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>5493888.9800000004</v>
+        <v>5493888.98</v>
       </c>
       <c r="P53" t="s">
         <v>116</v>
@@ -14990,7 +14937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -15046,7 +14993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -15102,7 +15049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -15158,7 +15105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -15202,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>9843116.2400000002</v>
+        <v>9843116.24</v>
       </c>
       <c r="P57" t="s">
         <v>118</v>
@@ -15214,7 +15161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -15270,7 +15217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -15326,7 +15273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -15346,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>13046585.279999999</v>
+        <v>13046585.28</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -15370,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>13046585.279999999</v>
+        <v>13046585.28</v>
       </c>
       <c r="P60" t="s">
         <v>138</v>
@@ -15382,7 +15329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -15399,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>9806649.6600000001</v>
+        <v>9806649.66</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -15426,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>11166359.539999999</v>
+        <v>11166359.54</v>
       </c>
       <c r="P61" t="s">
         <v>115</v>
@@ -15438,7 +15385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -15455,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>21974878.239999998</v>
+        <v>21974878.24</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -15482,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>21974878.239999998</v>
+        <v>21974878.24</v>
       </c>
       <c r="P62" t="s">
         <v>111</v>
@@ -15494,7 +15441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -15550,7 +15497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -15570,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>12909042.039999999</v>
+        <v>12909042.04</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -15594,7 +15541,7 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>12909042.039999999</v>
+        <v>12909042.04</v>
       </c>
       <c r="P64" t="s">
         <v>139</v>
@@ -15606,7 +15553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -15662,7 +15609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -15718,7 +15665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -15747,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>7228015.3399999999</v>
+        <v>7228015.34</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -15762,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>7228015.3399999999</v>
+        <v>7228015.34</v>
       </c>
       <c r="P67" t="s">
         <v>121</v>
@@ -15774,7 +15721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -15830,7 +15777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -15886,7 +15833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -15942,7 +15889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15971,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>5366633.0599999996</v>
+        <v>5366633.06</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -15986,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>5366633.0599999996</v>
+        <v>5366633.06</v>
       </c>
       <c r="P71" t="s">
         <v>121</v>
@@ -15998,7 +15945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -16054,7 +16001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -16083,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>14376194.300000001</v>
+        <v>14376194.3</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -16098,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>14376194.300000001</v>
+        <v>14376194.3</v>
       </c>
       <c r="P73" t="s">
         <v>117</v>
@@ -16110,7 +16057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -16133,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>9637472.0999999996</v>
+        <v>9637472.1</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -16154,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>9637472.0999999996</v>
+        <v>9637472.1</v>
       </c>
       <c r="P74" t="s">
         <v>124</v>
@@ -16166,7 +16113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -16222,7 +16169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -16278,7 +16225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -16322,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>11048759.880000001</v>
+        <v>11048759.88</v>
       </c>
       <c r="P77" t="s">
         <v>140</v>
@@ -16334,7 +16281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -16390,7 +16337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -16434,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>17587872.899999999</v>
+        <v>17587872.9</v>
       </c>
       <c r="P79" t="s">
         <v>129</v>
@@ -16446,7 +16393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -16457,7 +16404,7 @@
         <v>97</v>
       </c>
       <c r="D80">
-        <v>11693466.710000001</v>
+        <v>11693466.71</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -16502,7 +16449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -16528,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>10045862.960000001</v>
+        <v>10045862.96</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -16546,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <v>10045862.960000001</v>
+        <v>10045862.96</v>
       </c>
       <c r="P81" t="s">
         <v>133</v>
@@ -16558,7 +16505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -16614,7 +16561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -16631,7 +16578,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>9259321.8200000003</v>
+        <v>9259321.82</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -16646,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>4330724.9800000004</v>
+        <v>4330724.98</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -16658,7 +16605,7 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>13590046.800000001</v>
+        <v>13590046.8</v>
       </c>
       <c r="P83" t="s">
         <v>141</v>
@@ -16670,7 +16617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -16726,7 +16673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -16746,7 +16693,7 @@
         <v>939328.61</v>
       </c>
       <c r="G85">
-        <v>5646743.1699999999</v>
+        <v>5646743.17</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -16770,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>6586071.7800000003</v>
+        <v>6586071.78</v>
       </c>
       <c r="P85" t="s">
         <v>118</v>
@@ -16782,7 +16729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -16838,7 +16785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -16894,7 +16841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -16950,7 +16897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17006,7 +16953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17026,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>6767536.0800000001</v>
+        <v>6767536.08</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -17050,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <v>6767536.0800000001</v>
+        <v>6767536.08</v>
       </c>
       <c r="P90" t="s">
         <v>123</v>
@@ -17062,7 +17009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17106,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <v>6023110.6200000001</v>
+        <v>6023110.62</v>
       </c>
       <c r="P91" t="s">
         <v>115</v>
@@ -17118,7 +17065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17174,7 +17121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17228,17 +17175,6 @@
       </c>
       <c r="R93">
         <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O94" s="4">
-        <f>SUM(O2:O93)</f>
-        <v>946096159.39999974</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O95" s="4">
-        <v>946096159.38999999</v>
       </c>
     </row>
   </sheetData>
@@ -17247,21 +17183,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17314,7 +17243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -17370,7 +17299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -17426,7 +17355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -17482,7 +17411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17502,7 +17431,7 @@
         <v>474759.39</v>
       </c>
       <c r="G5">
-        <v>1212067.8500000001</v>
+        <v>1212067.85</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -17538,7 +17467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -17549,7 +17478,7 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>134870.79999999999</v>
+        <v>134870.8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -17594,7 +17523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -17650,7 +17579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -17706,7 +17635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -17726,7 +17655,7 @@
         <v>399688.18</v>
       </c>
       <c r="G9">
-        <v>1131054.8799999999</v>
+        <v>1131054.88</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17762,7 +17691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -17818,7 +17747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -17850,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7210009.5199999996</v>
+        <v>7210009.52</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -17862,7 +17791,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7210009.5199999996</v>
+        <v>7210009.52</v>
       </c>
       <c r="P11" t="s">
         <v>119</v>
@@ -17874,7 +17803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -17918,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>776065.81</v>
+        <v>776065.8100000001</v>
       </c>
       <c r="P12" t="s">
         <v>120</v>
@@ -17930,7 +17859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -17986,7 +17915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18042,7 +17971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -18098,7 +18027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -18154,7 +18083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -18210,7 +18139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -18266,7 +18195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -18322,7 +18251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -18378,7 +18307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -18434,7 +18363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -18490,7 +18419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -18546,7 +18475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -18602,7 +18531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -18634,7 +18563,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2108632.8199999998</v>
+        <v>2108632.82</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -18646,7 +18575,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2108632.8199999998</v>
+        <v>2108632.82</v>
       </c>
       <c r="P25" t="s">
         <v>128</v>
@@ -18658,7 +18587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -18714,7 +18643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -18746,7 +18675,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>2205484.6800000002</v>
+        <v>2205484.68</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -18758,7 +18687,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>2205484.6800000002</v>
+        <v>2205484.68</v>
       </c>
       <c r="P27" t="s">
         <v>115</v>
@@ -18770,7 +18699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -18826,7 +18755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -18882,7 +18811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -18938,7 +18867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -18955,7 +18884,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>309991.96000000002</v>
+        <v>309991.96</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -18982,7 +18911,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>309991.96000000002</v>
+        <v>309991.96</v>
       </c>
       <c r="P31" t="s">
         <v>120</v>
@@ -18994,7 +18923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -19050,7 +18979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -19106,7 +19035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19126,7 +19055,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1093173.6200000001</v>
+        <v>1093173.62</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -19150,7 +19079,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>1093173.6200000001</v>
+        <v>1093173.62</v>
       </c>
       <c r="P34" t="s">
         <v>123</v>
@@ -19162,7 +19091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -19218,7 +19147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -19274,7 +19203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -19330,7 +19259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -19386,7 +19315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -19442,7 +19371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -19498,7 +19427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -19554,7 +19483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -19571,7 +19500,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>864992.69</v>
+        <v>864992.6899999999</v>
       </c>
       <c r="G42">
         <v>584821.77</v>
@@ -19610,7 +19539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -19666,7 +19595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -19722,7 +19651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -19778,7 +19707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -19834,7 +19763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -19890,7 +19819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -19946,7 +19875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -20002,7 +19931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -20058,7 +19987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -20114,7 +20043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -20170,7 +20099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -20226,7 +20155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -20282,7 +20211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -20338,7 +20267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -20382,7 +20311,7 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>1293842.8999999999</v>
+        <v>1293842.9</v>
       </c>
       <c r="P56" t="s">
         <v>114</v>
@@ -20394,7 +20323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -20450,7 +20379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -20506,7 +20435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -20523,10 +20452,10 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>270136.46000000002</v>
+        <v>270136.46</v>
       </c>
       <c r="G59">
-        <v>277546.34000000003</v>
+        <v>277546.34</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -20550,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>547682.80000000005</v>
+        <v>547682.8</v>
       </c>
       <c r="P59" t="s">
         <v>116</v>
@@ -20562,7 +20491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -20618,7 +20547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -20674,7 +20603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -20730,7 +20659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -20786,7 +20715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -20842,7 +20771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -20898,7 +20827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -20954,7 +20883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -20983,7 +20912,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1176653.6599999999</v>
+        <v>1176653.66</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -20998,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>1176653.6599999999</v>
+        <v>1176653.66</v>
       </c>
       <c r="P67" t="s">
         <v>121</v>
@@ -21010,7 +20939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -21066,7 +20995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -21122,7 +21051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -21178,7 +21107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -21207,7 +21136,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>873637.94</v>
+        <v>873637.9399999999</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -21222,7 +21151,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>873637.94</v>
+        <v>873637.9399999999</v>
       </c>
       <c r="P71" t="s">
         <v>121</v>
@@ -21234,7 +21163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -21290,7 +21219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -21319,7 +21248,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>2340310.7000000002</v>
+        <v>2340310.7</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -21334,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>2340310.7000000002</v>
+        <v>2340310.7</v>
       </c>
       <c r="P73" t="s">
         <v>117</v>
@@ -21346,7 +21275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -21402,7 +21331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -21458,7 +21387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -21514,7 +21443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -21531,7 +21460,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1072205.6000000001</v>
+        <v>1072205.6</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -21570,7 +21499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -21626,7 +21555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -21682,7 +21611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -21738,7 +21667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -21794,7 +21723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -21823,7 +21752,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>537107.19999999995</v>
+        <v>537107.2</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -21838,7 +21767,7 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <v>537107.19999999995</v>
+        <v>537107.2</v>
       </c>
       <c r="P82" t="s">
         <v>137</v>
@@ -21850,7 +21779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -21894,7 +21823,7 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>2212333.2000000002</v>
+        <v>2212333.2</v>
       </c>
       <c r="P83" t="s">
         <v>141</v>
@@ -21906,7 +21835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -21962,7 +21891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -22018,7 +21947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -22074,7 +22003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -22130,7 +22059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -22186,7 +22115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -22218,7 +22147,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>134681.23000000001</v>
+        <v>134681.23</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -22242,7 +22171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -22298,7 +22227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -22354,7 +22283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -22410,7 +22339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -22439,7 +22368,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>546684.18000000005</v>
+        <v>546684.1800000001</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -22454,7 +22383,7 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>597982.70000000007</v>
+        <v>597982.7000000001</v>
       </c>
       <c r="P93" t="s">
         <v>143</v>
@@ -22465,12 +22394,6 @@
       <c r="R93">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O94" s="2"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O95" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22478,14 +22401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>144</v>
       </c>
@@ -22553,7 +22476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -22624,7 +22547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -22695,7 +22618,7 @@
         <v>230293</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -22766,7 +22689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -22786,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>597982.70000000007</v>
+        <v>597982.7000000001</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -22834,10 +22757,10 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>597982.70000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>597982.7000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -22908,7 +22831,7 @@
         <v>1650964.12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -22934,10 +22857,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>776065.81</v>
+        <v>776065.8100000001</v>
       </c>
       <c r="J7">
-        <v>309991.96000000002</v>
+        <v>309991.96</v>
       </c>
       <c r="K7">
         <v>298004.2</v>
@@ -22979,7 +22902,7 @@
         <v>4335605.53</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -23050,7 +22973,7 @@
         <v>1304733.69</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -23121,7 +23044,7 @@
         <v>3444530.99</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -23192,7 +23115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -23263,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -23286,7 +23209,7 @@
         <v>894354.02</v>
       </c>
       <c r="H12">
-        <v>547682.80000000005</v>
+        <v>547682.8</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -23331,10 +23254,10 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>6540044.2800000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6540044.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -23405,7 +23328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -23431,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2212333.2000000002</v>
+        <v>2212333.2</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -23473,10 +23396,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>2212333.2000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2212333.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -23547,7 +23470,7 @@
         <v>1666649.68</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -23618,7 +23541,7 @@
         <v>1511050.24</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -23641,7 +23564,7 @@
         <v>1725298.82</v>
       </c>
       <c r="H17">
-        <v>2205484.6800000002</v>
+        <v>2205484.68</v>
       </c>
       <c r="I17">
         <v>1817779.46</v>
@@ -23686,10 +23609,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>6729069.3499999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6729069.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -23715,7 +23638,7 @@
         <v>1449814.46</v>
       </c>
       <c r="I18">
-        <v>1293842.8999999999</v>
+        <v>1293842.9</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -23757,10 +23680,10 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>8319484.6600000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>8319484.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -23774,7 +23697,7 @@
         <v>1009747.2</v>
       </c>
       <c r="E19">
-        <v>1093173.6200000001</v>
+        <v>1093173.62</v>
       </c>
       <c r="F19">
         <v>500414.6</v>
@@ -23831,7 +23754,7 @@
         <v>3705027.34</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -23902,7 +23825,7 @@
         <v>5869293.5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -23973,7 +23896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -24044,7 +23967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -24115,7 +24038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -24186,7 +24109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -24254,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>7622672.2499999991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7622672.249999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -24328,7 +24251,7 @@
         <v>1827002.5</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -24399,7 +24322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -24470,7 +24393,7 @@
         <v>547239.29</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -24541,7 +24464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -24612,7 +24535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -24683,7 +24606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -24697,10 +24620,10 @@
         <v>4781808.08</v>
       </c>
       <c r="E32">
-        <v>1176653.6599999999</v>
+        <v>1176653.66</v>
       </c>
       <c r="F32">
-        <v>873637.94</v>
+        <v>873637.9399999999</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -24754,7 +24677,7 @@
         <v>10059802.9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -24765,7 +24688,7 @@
         <v>3010816.9</v>
       </c>
       <c r="D33">
-        <v>5199564.7200000007</v>
+        <v>5199564.720000001</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -24825,7 +24748,7 @@
         <v>8210381.620000001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -24896,7 +24819,7 @@
         <v>2220538.08</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -24967,7 +24890,7 @@
         <v>1845646.78</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -25035,10 +24958,10 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>9302809.5699999984</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9302809.569999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -25109,7 +25032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -25180,7 +25103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -25251,7 +25174,7 @@
         <v>5133601.62</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -25322,7 +25245,7 @@
         <v>4809063.7</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -25336,7 +25259,7 @@
         <v>1426261</v>
       </c>
       <c r="E41">
-        <v>537107.19999999995</v>
+        <v>537107.2</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -25393,7 +25316,7 @@
         <v>4047061.84</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -25461,10 +25384,10 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>5844213.0600000015</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5844213.060000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -25535,7 +25458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -25606,7 +25529,7 @@
         <v>3226144.04</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -25674,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>642702.43999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+        <v>642702.4399999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -25748,7 +25671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -25756,7 +25679,7 @@
         <v>128</v>
       </c>
       <c r="C47">
-        <v>2108632.8199999998</v>
+        <v>2108632.82</v>
       </c>
       <c r="D47">
         <v>4186325.78</v>
@@ -25816,10 +25739,10 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>8653589.6999999993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+        <v>8653589.699999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -25890,7 +25813,7 @@
         <v>2101471.96</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -25961,7 +25884,7 @@
         <v>4375476</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -25969,7 +25892,7 @@
         <v>119</v>
       </c>
       <c r="C50">
-        <v>7210009.5199999996</v>
+        <v>7210009.52</v>
       </c>
       <c r="D50">
         <v>5141909.92</v>
@@ -26032,7 +25955,7 @@
         <v>14526369.34</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -26103,7 +26026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -26171,10 +26094,10 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>9628903.7599999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9628903.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -26245,7 +26168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -26316,7 +26239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -26393,14 +26316,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>144</v>
       </c>
@@ -26468,7 +26391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -26539,7 +26462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -26610,7 +26533,7 @@
         <v>1414656</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -26681,7 +26604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -26752,7 +26675,7 @@
         <v>3673322.3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -26772,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>11048759.880000001</v>
+        <v>11048759.88</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -26820,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>11048759.880000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>11048759.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -26849,7 +26772,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5193671.1900000004</v>
+        <v>5193671.19</v>
       </c>
       <c r="J7">
         <v>2056100.04</v>
@@ -26891,10 +26814,10 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>27660386.050000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>27660386.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -26920,7 +26843,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4652037.9000000004</v>
+        <v>4652037.9</v>
       </c>
       <c r="J8">
         <v>4079641.41</v>
@@ -26962,10 +26885,10 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>8731679.3100000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>8731679.310000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -26976,7 +26899,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6801038.2400000002</v>
+        <v>6801038.24</v>
       </c>
       <c r="E9">
         <v>10577567.01</v>
@@ -27036,7 +26959,7 @@
         <v>23051863.25</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -27107,7 +27030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -27178,7 +27101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -27192,13 +27115,13 @@
         <v>16755449.66</v>
       </c>
       <c r="E12">
-        <v>8957008.3599999994</v>
+        <v>8957008.359999999</v>
       </c>
       <c r="F12">
-        <v>5603873.5199999996</v>
+        <v>5603873.52</v>
       </c>
       <c r="G12">
-        <v>5493888.9800000004</v>
+        <v>5493888.98</v>
       </c>
       <c r="H12">
         <v>3364337.2</v>
@@ -27246,10 +27169,10 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>40174557.719999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40174557.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -27320,7 +27243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -27346,7 +27269,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13590046.800000001</v>
+        <v>13590046.8</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -27388,10 +27311,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>13590046.800000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>13590046.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -27459,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>9169441.2199999988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9169441.219999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -27485,7 +27408,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4604288.6399999997</v>
+        <v>4604288.64</v>
       </c>
       <c r="I16">
         <v>2991885.82</v>
@@ -27530,10 +27453,10 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>9282165.7599999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9282165.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -27559,10 +27482,10 @@
         <v>13547977.32</v>
       </c>
       <c r="I17">
-        <v>11166359.539999999</v>
+        <v>11166359.54</v>
       </c>
       <c r="J17">
-        <v>6023110.6200000001</v>
+        <v>6023110.62</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -27601,10 +27524,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>41335711.659999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>41335711.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -27621,13 +27544,13 @@
         <v>10361938</v>
       </c>
       <c r="F18">
-        <v>9403135.9400000013</v>
+        <v>9403135.940000001</v>
       </c>
       <c r="G18">
         <v>14486436</v>
       </c>
       <c r="H18">
-        <v>6180789.2400000002</v>
+        <v>6180789.24</v>
       </c>
       <c r="I18">
         <v>7947892</v>
@@ -27675,7 +27598,7 @@
         <v>48380191.18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -27686,16 +27609,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6202732.7999999998</v>
+        <v>6202732.8</v>
       </c>
       <c r="E19">
-        <v>6715209.3799999999</v>
+        <v>6715209.38</v>
       </c>
       <c r="F19">
         <v>3073975.4</v>
       </c>
       <c r="G19">
-        <v>6767536.0800000001</v>
+        <v>6767536.08</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -27746,7 +27669,7 @@
         <v>22759453.66</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -27757,10 +27680,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18466358.600000001</v>
+        <v>18466358.6</v>
       </c>
       <c r="E20">
-        <v>17587872.899999999</v>
+        <v>17587872.9</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -27817,7 +27740,7 @@
         <v>36054231.5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -27888,7 +27811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -27959,7 +27882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -28030,7 +27953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -28101,7 +28024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -28109,16 +28032,16 @@
         <v>118</v>
       </c>
       <c r="C25">
-        <v>8449560.1999999993</v>
+        <v>8449560.199999999</v>
       </c>
       <c r="D25">
-        <v>19731859.780000001</v>
+        <v>19731859.78</v>
       </c>
       <c r="E25">
-        <v>9843116.2400000002</v>
+        <v>9843116.24</v>
       </c>
       <c r="F25">
-        <v>6586071.7800000003</v>
+        <v>6586071.78</v>
       </c>
       <c r="G25">
         <v>2412444.75</v>
@@ -28172,7 +28095,7 @@
         <v>47023052.75</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -28243,7 +28166,7 @@
         <v>11991949.52</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -28314,7 +28237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -28385,7 +28308,7 @@
         <v>3662293.71</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -28456,7 +28379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -28527,7 +28450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -28598,7 +28521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -28606,16 +28529,16 @@
         <v>121</v>
       </c>
       <c r="C32">
-        <v>19827319.780000001</v>
+        <v>19827319.78</v>
       </c>
       <c r="D32">
-        <v>29373963.920000002</v>
+        <v>29373963.92</v>
       </c>
       <c r="E32">
-        <v>7228015.3399999999</v>
+        <v>7228015.34</v>
       </c>
       <c r="F32">
-        <v>5366633.0599999996</v>
+        <v>5366633.06</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -28666,10 +28589,10 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>61795932.100000009</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+        <v>61795932.10000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -28677,10 +28600,10 @@
         <v>117</v>
       </c>
       <c r="C33">
-        <v>18495018.100000001</v>
+        <v>18495018.1</v>
       </c>
       <c r="D33">
-        <v>31940183.280000001</v>
+        <v>31940183.28</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -28737,10 +28660,10 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>50435201.380000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+        <v>50435201.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -28754,7 +28677,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>9487814.1199999992</v>
+        <v>9487814.119999999</v>
       </c>
       <c r="F34">
         <v>4152632.68</v>
@@ -28808,10 +28731,10 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>13640446.800000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+        <v>13640446.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -28819,10 +28742,10 @@
         <v>135</v>
       </c>
       <c r="C35">
-        <v>4652037.9000000004</v>
+        <v>4652037.9</v>
       </c>
       <c r="D35">
-        <v>7067447.3200000003</v>
+        <v>7067447.32</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -28879,10 +28802,10 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>11719485.220000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+        <v>11719485.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -28905,7 +28828,7 @@
         <v>30542501.82</v>
       </c>
       <c r="H36">
-        <v>21974878.239999998</v>
+        <v>21974878.24</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -28950,10 +28873,10 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>57342785.429999992</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+        <v>57342785.42999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -29024,7 +28947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -29095,7 +29018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -29106,10 +29029,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>21489118.420000002</v>
+        <v>21489118.42</v>
       </c>
       <c r="E39">
-        <v>10045862.960000001</v>
+        <v>10045862.96</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -29163,10 +29086,10 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>31534981.379999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+        <v>31534981.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -29174,13 +29097,13 @@
         <v>124</v>
       </c>
       <c r="C40">
-        <v>6935239.5199999996</v>
+        <v>6935239.52</v>
       </c>
       <c r="D40">
         <v>12968679.6</v>
       </c>
       <c r="E40">
-        <v>9637472.0999999996</v>
+        <v>9637472.1</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -29234,10 +29157,10 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>29541391.219999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+        <v>29541391.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -29245,7 +29168,7 @@
         <v>137</v>
       </c>
       <c r="C41">
-        <v>12799832.359999999</v>
+        <v>12799832.36</v>
       </c>
       <c r="D41">
         <v>8763529</v>
@@ -29308,7 +29231,7 @@
         <v>24862734.16</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -29316,7 +29239,7 @@
         <v>131</v>
       </c>
       <c r="C42">
-        <v>16010571.779999999</v>
+        <v>16010571.78</v>
       </c>
       <c r="D42">
         <v>12830259.16</v>
@@ -29376,10 +29299,10 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>28840830.940000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+        <v>28840830.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -29450,7 +29373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -29461,7 +29384,7 @@
         <v>1734677.62</v>
       </c>
       <c r="D44">
-        <v>10293387.300000001</v>
+        <v>10293387.3</v>
       </c>
       <c r="E44">
         <v>7789677.04</v>
@@ -29518,10 +29441,10 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>19817741.960000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+        <v>19817741.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -29535,7 +29458,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>13046585.279999999</v>
+        <v>13046585.28</v>
       </c>
       <c r="F45">
         <v>3187158.28</v>
@@ -29589,10 +29512,10 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>16233743.560000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+        <v>16233743.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -29663,7 +29586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -29674,7 +29597,7 @@
         <v>12953030</v>
       </c>
       <c r="D47">
-        <v>25716001.219999999</v>
+        <v>25716001.22</v>
       </c>
       <c r="E47">
         <v>14488733.9</v>
@@ -29731,10 +29654,10 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>53157765.119999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+        <v>53157765.12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -29742,7 +29665,7 @@
         <v>139</v>
       </c>
       <c r="C48">
-        <v>12909042.039999999</v>
+        <v>12909042.04</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -29802,10 +29725,10 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>12909042.039999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+        <v>12909042.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -29813,7 +29736,7 @@
         <v>136</v>
       </c>
       <c r="C49">
-        <v>23062203.760000002</v>
+        <v>23062203.76</v>
       </c>
       <c r="D49">
         <v>3815720.24</v>
@@ -29876,7 +29799,7 @@
         <v>26877924</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -29884,7 +29807,7 @@
         <v>119</v>
       </c>
       <c r="C50">
-        <v>44290058.479999997</v>
+        <v>44290058.48</v>
       </c>
       <c r="D50">
         <v>31586018</v>
@@ -29944,10 +29867,10 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>89233411.579999983</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+        <v>89233411.57999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -30018,7 +29941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -30026,7 +29949,7 @@
         <v>127</v>
       </c>
       <c r="C52">
-        <v>19990681.079999998</v>
+        <v>19990681.08</v>
       </c>
       <c r="D52">
         <v>19146459.5</v>
@@ -30086,10 +30009,10 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>59148980.239999987</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+        <v>59148980.23999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -30160,7 +30083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -30231,7 +30154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -30308,14 +30231,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>144</v>
       </c>
@@ -30359,7 +30282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -30382,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>134870.79999999999</v>
+        <v>134870.8</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -30406,7 +30329,7 @@
         <v>2491288.59</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -30453,7 +30376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -30479,13 +30402,13 @@
         <v>2055769.7</v>
       </c>
       <c r="I4">
-        <v>4199186.8099999996</v>
+        <v>4199186.81</v>
       </c>
       <c r="J4">
         <v>11614036.01</v>
       </c>
       <c r="K4">
-        <v>13403337.710000001</v>
+        <v>13403337.71</v>
       </c>
       <c r="L4">
         <v>3855344.37</v>
@@ -30494,13 +30417,13 @@
         <v>7642009.29</v>
       </c>
       <c r="N4">
-        <v>10387073.460000001</v>
+        <v>10387073.46</v>
       </c>
       <c r="O4">
-        <v>53551755.309999987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53551755.30999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -30523,22 +30446,22 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1212067.8500000001</v>
+        <v>1212067.85</v>
       </c>
       <c r="I5">
-        <v>2210763.2000000002</v>
+        <v>2210763.2</v>
       </c>
       <c r="J5">
-        <v>7833209.6799999997</v>
+        <v>7833209.68</v>
       </c>
       <c r="K5">
-        <v>4247511.9700000007</v>
+        <v>4247511.970000001</v>
       </c>
       <c r="L5">
-        <v>5222897.5199999996</v>
+        <v>5222897.52</v>
       </c>
       <c r="M5">
-        <v>7221652.6799999997</v>
+        <v>7221652.68</v>
       </c>
       <c r="N5">
         <v>3069817.19</v>
@@ -30547,7 +30470,7 @@
         <v>31017920.09</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -30591,10 +30514,10 @@
         <v>1568890.82</v>
       </c>
       <c r="O6">
-        <v>11334788.439999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11334788.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -30638,10 +30561,10 @@
         <v>1635373.04</v>
       </c>
       <c r="O7">
-        <v>8361304.8400000008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8361304.840000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -30682,13 +30605,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>6150403.8799999999</v>
+        <v>6150403.88</v>
       </c>
       <c r="O8">
-        <v>15875159.619999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15875159.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -30714,7 +30637,7 @@
         <v>1346855.71</v>
       </c>
       <c r="I9">
-        <v>7210009.5199999996</v>
+        <v>7210009.52</v>
       </c>
       <c r="J9">
         <v>12678739.18</v>
@@ -30732,10 +30655,10 @@
         <v>3947682.05</v>
       </c>
       <c r="O9">
-        <v>29562296.550000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29562296.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -30782,7 +30705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -30829,7 +30752,7 @@
         <v>547239.29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -30882,14 +30805,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>144</v>
       </c>
@@ -30933,7 +30856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -30974,13 +30897,13 @@
         <v>1359709.88</v>
       </c>
       <c r="N2">
-        <v>13115427.939999999</v>
+        <v>13115427.94</v>
       </c>
       <c r="O2">
-        <v>15303629.859999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15303629.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -31027,7 +30950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -31050,31 +30973,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12628303.560000001</v>
+        <v>12628303.56</v>
       </c>
       <c r="I4">
-        <v>26135439.260000002</v>
+        <v>26135439.26</v>
       </c>
       <c r="J4">
-        <v>72363665.150000006</v>
+        <v>72363665.15000001</v>
       </c>
       <c r="K4">
-        <v>81090804.140000001</v>
+        <v>81090804.14</v>
       </c>
       <c r="L4">
         <v>23846568.27</v>
       </c>
       <c r="M4">
-        <v>46943765.179999992</v>
+        <v>46943765.17999999</v>
       </c>
       <c r="N4">
-        <v>65901921.700000003</v>
+        <v>65901921.7</v>
       </c>
       <c r="O4">
-        <v>331336883.30000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>331336883.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -31097,19 +31020,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7445559.0899999999</v>
+        <v>7445559.09</v>
       </c>
       <c r="I5">
         <v>13666377.73</v>
       </c>
       <c r="J5">
-        <v>41058953.159999996</v>
+        <v>41058953.16</v>
       </c>
       <c r="K5">
-        <v>25903148.879999999</v>
+        <v>25903148.88</v>
       </c>
       <c r="L5">
-        <v>32083513.359999999</v>
+        <v>32083513.36</v>
       </c>
       <c r="M5">
         <v>56887591.75</v>
@@ -31121,7 +31044,7 @@
         <v>196100658.47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -31147,10 +31070,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18495018.100000001</v>
+        <v>18495018.1</v>
       </c>
       <c r="J6">
-        <v>6935239.5199999996</v>
+        <v>6935239.52</v>
       </c>
       <c r="K6">
         <v>12968679.6</v>
@@ -31162,13 +31085,13 @@
         <v>21593788.16</v>
       </c>
       <c r="N6">
-        <v>9637472.0999999996</v>
+        <v>9637472.1</v>
       </c>
       <c r="O6">
-        <v>69630197.479999989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>69630197.47999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -31197,10 +31120,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>19827319.780000001</v>
+        <v>19827319.78</v>
       </c>
       <c r="K7">
-        <v>21489118.420000002</v>
+        <v>21489118.42</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -31209,13 +31132,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10045862.960000001</v>
+        <v>10045862.96</v>
       </c>
       <c r="O7">
-        <v>51362301.159999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51362301.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -31247,22 +31170,22 @@
         <v>17563988.98</v>
       </c>
       <c r="K8">
-        <v>29373963.920000002</v>
+        <v>29373963.92</v>
       </c>
       <c r="L8">
-        <v>12799832.359999999</v>
+        <v>12799832.36</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>37781051.030000001</v>
+        <v>37781051.03</v>
       </c>
       <c r="O8">
-        <v>97518836.290000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>97518836.29000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -31285,19 +31208,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8273541.7300000004</v>
+        <v>8273541.73</v>
       </c>
       <c r="I9">
-        <v>44290058.479999997</v>
+        <v>44290058.48</v>
       </c>
       <c r="J9">
-        <v>76409638.460000008</v>
+        <v>76409638.46000001</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>26899633.390000001</v>
+        <v>26899633.39</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -31309,7 +31232,7 @@
         <v>181181359.13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -31356,7 +31279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -31403,7 +31326,7 @@
         <v>3662293.71</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="187">
   <si>
     <t xml:space="preserve">Sl No </t>
   </si>
@@ -632,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -655,11 +655,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -683,6 +696,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,14 +1006,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T28"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="8"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1110,13 +1128,13 @@
       <c r="Q2">
         <v>1414656</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>5</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>12</v>
       </c>
     </row>
@@ -1172,13 +1190,13 @@
       <c r="Q3">
         <v>18495018.100000001</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1234,13 +1252,13 @@
       <c r="Q4">
         <v>9403135.9399999995</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
         <v>4</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1296,13 +1314,13 @@
       <c r="Q5">
         <v>44290058.479999997</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="3">
         <v>1</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1358,13 +1376,13 @@
       <c r="Q6">
         <v>19827319.780000001</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1420,13 +1438,13 @@
       <c r="Q7">
         <v>14940485.02</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="3">
         <v>4</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1482,13 +1500,13 @@
       <c r="Q8">
         <v>6935239.5199999996</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="3">
         <v>1</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1544,13 +1562,13 @@
       <c r="Q9">
         <v>19990681.079999998</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="3">
         <v>1</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1606,13 +1624,13 @@
       <c r="Q10">
         <v>8957008.3599999994</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>3</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1668,13 +1686,13 @@
       <c r="Q11">
         <v>12953030</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="3">
         <v>1</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1730,13 +1748,13 @@
       <c r="Q12">
         <v>18466358.600000001</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="3">
         <v>2</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1792,13 +1810,13 @@
       <c r="Q13">
         <v>30542501.82</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="3">
         <v>5</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1854,13 +1872,13 @@
       <c r="Q14">
         <v>4652037.9000000004</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="3">
         <v>1</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1916,13 +1934,13 @@
       <c r="Q15">
         <v>12968679.6</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="3">
         <v>2</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1978,13 +1996,13 @@
       <c r="Q16">
         <v>6180789.2400000002</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="3">
         <v>6</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2040,13 +2058,13 @@
       <c r="Q17">
         <v>19731859.780000001</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="3">
         <v>2</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2102,13 +2120,13 @@
       <c r="Q18">
         <v>25716001.219999999</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="3">
         <v>2</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2164,13 +2182,13 @@
       <c r="Q19">
         <v>12799832.359999999</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="3">
         <v>1</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2226,13 +2244,13 @@
       <c r="Q20">
         <v>13046585.279999999</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="3">
         <v>3</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2288,13 +2306,13 @@
       <c r="Q21">
         <v>21974878.239999998</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="3">
         <v>6</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2350,13 +2368,13 @@
       <c r="Q22">
         <v>12909042.039999999</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="3">
         <v>1</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2412,13 +2430,13 @@
       <c r="Q23">
         <v>5673258</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="3">
         <v>4</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="3">
         <v>6</v>
       </c>
     </row>
@@ -2474,13 +2492,13 @@
       <c r="Q24">
         <v>9637472.0999999996</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="3">
         <v>3</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="3">
         <v>6</v>
       </c>
     </row>
@@ -2536,13 +2554,13 @@
       <c r="Q25">
         <v>4152632.68</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="3">
         <v>4</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="3">
         <v>6</v>
       </c>
     </row>
@@ -2598,13 +2616,13 @@
       <c r="Q26">
         <v>2626294.66</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="3">
         <v>6</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="3">
         <v>6</v>
       </c>
     </row>
@@ -2660,13 +2678,13 @@
       <c r="Q27">
         <v>1685991.3</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="3">
         <v>8</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="3">
         <v>6</v>
       </c>
     </row>
@@ -2722,13 +2740,13 @@
       <c r="Q28">
         <v>6767536.0800000001</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="3">
         <v>5</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="3">
         <v>6</v>
       </c>
     </row>
@@ -2739,61 +2757,71 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2834,13 +2862,19 @@
         <v>0</v>
       </c>
       <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2">
+        <v>1522757.1400000001</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P2" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -2881,13 +2915,19 @@
         <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3">
+        <v>18624031</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -2928,13 +2968,19 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+        <v>9403135.9400000013</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -2975,13 +3021,19 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5">
+        <v>45085629.169999987</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -3022,13 +3074,19 @@
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6">
+        <v>20236821.789999999</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -3069,13 +3127,19 @@
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7">
+        <v>15669335.02</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -3116,13 +3180,19 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8">
+        <v>6995439.5199999996</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -3163,13 +3233,19 @@
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9">
+        <v>20077933.970000003</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>22</v>
       </c>
@@ -3210,13 +3286,19 @@
         <v>0</v>
       </c>
       <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10">
+        <v>9056870.9299999997</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>23</v>
       </c>
@@ -3257,13 +3339,19 @@
         <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11">
+        <v>13490157.609999999</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>24</v>
       </c>
@@ -3304,13 +3392,19 @@
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12">
+        <v>18855700.010000002</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>36</v>
       </c>
@@ -3351,13 +3445,19 @@
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13">
+        <v>31421851.810000002</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>37</v>
       </c>
@@ -3398,13 +3498,19 @@
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14">
+        <v>4781037.9000000004</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39</v>
       </c>
@@ -3445,13 +3551,19 @@
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15">
+        <v>13166479.6</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -3492,13 +3604,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16">
+        <v>6327095.5700000003</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45</v>
       </c>
@@ -3539,13 +3657,19 @@
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17">
+        <v>20400147.43</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>48</v>
       </c>
@@ -3586,13 +3710,19 @@
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18">
+        <v>25936355.59</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>49</v>
       </c>
@@ -3633,13 +3763,19 @@
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19">
+        <v>12971832.360000001</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>58</v>
       </c>
@@ -3680,13 +3816,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20">
+        <v>13304585.279999999</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>60</v>
       </c>
@@ -3727,13 +3869,19 @@
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21">
+        <v>22920878.240000002</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>62</v>
       </c>
@@ -3774,13 +3922,19 @@
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22">
+        <v>13198165.439999999</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>64</v>
       </c>
@@ -3821,13 +3975,19 @@
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23">
+        <v>6089089.7000000002</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>72</v>
       </c>
@@ -3868,13 +4028,19 @@
         <v>0</v>
       </c>
       <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24">
+        <v>9794637.4199999999</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>75</v>
       </c>
@@ -3915,13 +4081,19 @@
         <v>0</v>
       </c>
       <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25">
+        <v>4359839.74</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>88</v>
       </c>
@@ -3962,13 +4134,19 @@
         <v>0</v>
       </c>
       <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26">
+        <v>3042126.54</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>90</v>
       </c>
@@ -4009,13 +4187,19 @@
         <v>0</v>
       </c>
       <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27">
+        <v>2104053.69</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P27" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>91</v>
       </c>
@@ -4056,9 +4240,15 @@
         <v>0</v>
       </c>
       <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28">
+        <v>6795287.54</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4071,9 +4261,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -34786,10 +34979,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34798,7 +34991,7 @@
     <col min="3" max="13" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -34839,8 +35032,17 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -34881,13 +35083,19 @@
         <v>0</v>
       </c>
       <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2">
+        <v>247890.86</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P2" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -34928,13 +35136,19 @@
         <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3">
+        <v>3031819</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -34975,13 +35189,19 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+        <v>1530743.0599999998</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -35022,13 +35242,19 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5">
+        <v>7339521.0299999993</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -35069,13 +35295,19 @@
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6">
+        <v>3294366.3400000003</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -35116,13 +35348,19 @@
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7">
+        <v>2550821.98</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -35163,13 +35401,19 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8">
+        <v>1138792.48</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -35210,13 +35454,19 @@
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9">
+        <v>3268500.88</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>22</v>
       </c>
@@ -35257,13 +35507,19 @@
         <v>0</v>
       </c>
       <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10">
+        <v>1474374.34</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>23</v>
       </c>
@@ -35304,13 +35560,19 @@
         <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11">
+        <v>2196072.1999999997</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>24</v>
       </c>
@@ -35351,13 +35613,19 @@
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12">
+        <v>3069532.56</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>36</v>
       </c>
@@ -35398,13 +35666,19 @@
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13">
+        <v>5115185.1800000006</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>37</v>
       </c>
@@ -35445,13 +35719,19 @@
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14">
+        <v>716132.1</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39</v>
       </c>
@@ -35492,13 +35772,19 @@
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15">
+        <v>2143380.4</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -35539,13 +35825,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16">
+        <v>977642.78</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45</v>
       </c>
@@ -35586,13 +35878,19 @@
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17">
+        <v>3320954.23</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>48</v>
       </c>
@@ -35633,13 +35931,19 @@
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18">
+        <v>4222197.42</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>49</v>
       </c>
@@ -35680,13 +35984,19 @@
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19">
+        <v>2111693.64</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>58</v>
       </c>
@@ -35727,13 +36037,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20">
+        <v>165862.72</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>60</v>
       </c>
@@ -35774,13 +36090,19 @@
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21">
+        <v>3731306.7600000002</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>62</v>
       </c>
@@ -35821,13 +36143,19 @@
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22">
+        <v>2148538.56</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>64</v>
       </c>
@@ -35868,13 +36196,19 @@
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23">
+        <v>824523.53</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>72</v>
       </c>
@@ -35915,13 +36249,19 @@
         <v>0</v>
       </c>
       <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24">
+        <v>1594475.87</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>75</v>
       </c>
@@ -35962,13 +36302,19 @@
         <v>0</v>
       </c>
       <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25">
+        <v>709741.59</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>88</v>
       </c>
@@ -36009,13 +36355,19 @@
         <v>0</v>
       </c>
       <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26">
+        <v>495229.91</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>90</v>
       </c>
@@ -36056,13 +36408,19 @@
         <v>0</v>
       </c>
       <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27">
+        <v>342520.37</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P27" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>91</v>
       </c>
@@ -36103,9 +36461,15 @@
         <v>0</v>
       </c>
       <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28">
+        <v>1106209.5999999999</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="10">
         <v>6</v>
       </c>
     </row>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -18913,3701 +18913,3286 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>394997.96</v>
       </c>
       <c r="C2">
-        <v>394997.96</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2426416.04</v>
       </c>
       <c r="E2">
-        <v>2426416.04</v>
+        <v>2821414</v>
       </c>
       <c r="F2">
-        <v>2821414</v>
-      </c>
-      <c r="G2">
         <v>404</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>206</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <v>3632</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>99178.53</v>
       </c>
       <c r="C3">
-        <v>99178.53</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>609239.1100000001</v>
       </c>
       <c r="E3">
-        <v>609239.1100000001</v>
+        <v>708417.64000000013</v>
       </c>
       <c r="F3">
-        <v>708417.64000000013</v>
-      </c>
-      <c r="G3">
         <v>404</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>207</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <v>3682</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>10674.86</v>
       </c>
       <c r="C4">
-        <v>10674.86</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>65574.149999999994</v>
       </c>
       <c r="E4">
-        <v>65574.149999999994</v>
+        <v>76249.009999999995</v>
       </c>
       <c r="F4">
-        <v>76249.009999999995</v>
-      </c>
-      <c r="G4">
         <v>405</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>207</v>
       </c>
-      <c r="I4">
+      <c r="H4">
         <v>3682</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>120439.61</v>
       </c>
       <c r="C5">
-        <v>120439.61</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>739842.74000000011</v>
       </c>
       <c r="E5">
-        <v>739842.74000000011</v>
+        <v>860282.35000000009</v>
       </c>
       <c r="F5">
-        <v>860282.35000000009</v>
-      </c>
-      <c r="G5">
         <v>409</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>207</v>
       </c>
-      <c r="I5">
+      <c r="H5">
         <v>3682</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1107145</v>
       </c>
       <c r="C6">
-        <v>1107145</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6801038.2400000002</v>
       </c>
       <c r="E6">
-        <v>6801038.2400000002</v>
+        <v>7908183.2400000002</v>
       </c>
       <c r="F6">
-        <v>7908183.2400000002</v>
-      </c>
-      <c r="G6">
         <v>404</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>208</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <v>3700</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>474759.39</v>
       </c>
       <c r="C7">
-        <v>474759.39</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2916378.91</v>
       </c>
       <c r="E7">
-        <v>2916378.91</v>
+        <v>3391138.3</v>
       </c>
       <c r="F7">
-        <v>3391138.3</v>
-      </c>
-      <c r="G7">
         <v>404</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>208</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <v>3701</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1212067.8500000001</v>
       </c>
       <c r="C8">
-        <v>1212067.8500000001</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7445559.0899999999</v>
       </c>
       <c r="E8">
-        <v>7445559.0899999999</v>
+        <v>8657626.9399999995</v>
       </c>
       <c r="F8">
-        <v>8657626.9399999995</v>
-      </c>
-      <c r="G8">
         <v>405</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>208</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <v>3701</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>134870.79999999999</v>
       </c>
       <c r="C9">
-        <v>134870.79999999999</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>828492.04</v>
       </c>
       <c r="E9">
-        <v>828492.04</v>
+        <v>963362.84000000008</v>
       </c>
       <c r="F9">
-        <v>963362.84000000008</v>
-      </c>
-      <c r="G9">
         <v>402</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>209</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <v>3707</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>363410.06</v>
       </c>
       <c r="C10">
-        <v>363410.06</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2232376.1</v>
       </c>
       <c r="E10">
-        <v>2232376.1</v>
+        <v>2595786.16</v>
       </c>
       <c r="F10">
-        <v>2595786.16</v>
-      </c>
-      <c r="G10">
         <v>404</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>209</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <v>3707</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1227017.96</v>
       </c>
       <c r="C11">
-        <v>1227017.96</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>7537396.04</v>
       </c>
       <c r="E11">
-        <v>7537396.04</v>
+        <v>8764414</v>
       </c>
       <c r="F11">
-        <v>8764414</v>
-      </c>
-      <c r="G11">
         <v>409</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>209</v>
       </c>
-      <c r="I11">
+      <c r="H11">
         <v>3707</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1804397.95</v>
       </c>
       <c r="C12">
-        <v>1804397.95</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>11084158.84</v>
       </c>
       <c r="E12">
-        <v>11084158.84</v>
+        <v>12888556.789999999</v>
       </c>
       <c r="F12">
-        <v>12888556.789999999</v>
-      </c>
-      <c r="G12">
         <v>404</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>210</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <v>3729</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>923233.39</v>
       </c>
       <c r="C13">
-        <v>923233.39</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5671290.8200000003</v>
       </c>
       <c r="E13">
-        <v>5671290.8200000003</v>
+        <v>6594524.21</v>
       </c>
       <c r="F13">
-        <v>6594524.21</v>
-      </c>
-      <c r="G13">
         <v>405</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
         <v>210</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <v>3729</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>4651.5</v>
       </c>
       <c r="C14">
-        <v>4651.5</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>28573.5</v>
       </c>
       <c r="E14">
-        <v>28573.5</v>
+        <v>33225</v>
       </c>
       <c r="F14">
-        <v>33225</v>
-      </c>
-      <c r="G14">
         <v>404</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>211</v>
       </c>
-      <c r="I14">
+      <c r="H14">
         <v>3732</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2982</v>
       </c>
       <c r="C15">
-        <v>2982</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>18318</v>
       </c>
       <c r="E15">
-        <v>18318</v>
+        <v>21300</v>
       </c>
       <c r="F15">
-        <v>21300</v>
-      </c>
-      <c r="G15">
         <v>406</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>211</v>
       </c>
-      <c r="I15">
+      <c r="H15">
         <v>3732</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>13368.6</v>
       </c>
       <c r="C16">
-        <v>13368.6</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>82121.399999999994</v>
       </c>
       <c r="E16">
-        <v>82121.399999999994</v>
+        <v>95490</v>
       </c>
       <c r="F16">
-        <v>95490</v>
-      </c>
-      <c r="G16">
         <v>408</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>211</v>
       </c>
-      <c r="I16">
+      <c r="H16">
         <v>3732</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2989816.9</v>
       </c>
       <c r="C17">
-        <v>2989816.9</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>18366018.100000001</v>
       </c>
       <c r="E17">
-        <v>18366018.100000001</v>
+        <v>21355835</v>
       </c>
       <c r="F17">
-        <v>21355835</v>
-      </c>
-      <c r="G17">
         <v>409</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>211</v>
       </c>
-      <c r="I17">
+      <c r="H17">
         <v>3732</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>399688.18</v>
       </c>
       <c r="C18">
-        <v>399688.18</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2455227.41</v>
       </c>
       <c r="E18">
-        <v>2455227.41</v>
+        <v>2854915.59</v>
       </c>
       <c r="F18">
-        <v>2854915.59</v>
-      </c>
-      <c r="G18">
         <v>404</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>212</v>
       </c>
-      <c r="I18">
+      <c r="H18">
         <v>3740</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1131054.8799999999</v>
       </c>
       <c r="C19">
-        <v>1131054.8799999999</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>6947908.5300000003</v>
       </c>
       <c r="E19">
-        <v>6947908.5300000003</v>
+        <v>8078963.4100000001</v>
       </c>
       <c r="F19">
-        <v>8078963.4100000001</v>
-      </c>
-      <c r="G19">
         <v>405</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>212</v>
       </c>
-      <c r="I19">
+      <c r="H19">
         <v>3740</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1375509.8</v>
       </c>
       <c r="C20">
-        <v>1375509.8</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>8449560.1999999993</v>
       </c>
       <c r="E20">
-        <v>8449560.1999999993</v>
+        <v>9825070</v>
       </c>
       <c r="F20">
-        <v>9825070</v>
-      </c>
-      <c r="G20">
         <v>404</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
         <v>213</v>
       </c>
-      <c r="I20">
+      <c r="H20">
         <v>3754</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>7210009.5199999996</v>
       </c>
       <c r="C21">
-        <v>7210009.5199999996</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>44290058.479999997</v>
       </c>
       <c r="E21">
-        <v>44290058.479999997</v>
+        <v>51500068</v>
       </c>
       <c r="F21">
-        <v>51500068</v>
-      </c>
-      <c r="G21">
         <v>409</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
         <v>213</v>
       </c>
-      <c r="I21">
+      <c r="H21">
         <v>3755</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>619590.88</v>
       </c>
       <c r="C22">
-        <v>619590.88</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4146492.81</v>
       </c>
       <c r="E22">
-        <v>4146492.81</v>
+        <v>4766083.6900000004</v>
       </c>
       <c r="F22">
-        <v>4766083.6900000004</v>
-      </c>
-      <c r="G22">
         <v>404</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>213</v>
       </c>
-      <c r="I22">
+      <c r="H22">
         <v>3757</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>21</v>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>156474.93</v>
       </c>
       <c r="C23">
-        <v>156474.93</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1047178.38</v>
       </c>
       <c r="E23">
-        <v>1047178.38</v>
+        <v>1203653.31</v>
       </c>
       <c r="F23">
-        <v>1203653.31</v>
-      </c>
-      <c r="G23">
         <v>405</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
         <v>213</v>
       </c>
-      <c r="I23">
+      <c r="H23">
         <v>3757</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>22</v>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>16919.099999999999</v>
       </c>
       <c r="C24">
-        <v>16919.099999999999</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>103931.61</v>
       </c>
       <c r="E24">
-        <v>103931.61</v>
+        <v>120850.71</v>
       </c>
       <c r="F24">
-        <v>120850.71</v>
-      </c>
-      <c r="G24">
         <v>404</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
         <v>214</v>
       </c>
-      <c r="I24">
+      <c r="H24">
         <v>3761</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>23</v>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>36478.06</v>
       </c>
       <c r="C25">
-        <v>36478.06</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>224079.5</v>
       </c>
       <c r="E25">
-        <v>224079.5</v>
+        <v>260557.56</v>
       </c>
       <c r="F25">
-        <v>260557.56</v>
-      </c>
-      <c r="G25">
         <v>406</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
         <v>214</v>
       </c>
-      <c r="I25">
+      <c r="H25">
         <v>3761</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>24</v>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>3174306.06</v>
       </c>
       <c r="C26">
-        <v>3174306.06</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>19499308.68</v>
       </c>
       <c r="E26">
-        <v>19499308.68</v>
+        <v>22673614.739999998</v>
       </c>
       <c r="F26">
-        <v>22673614.739999998</v>
-      </c>
-      <c r="G26">
         <v>408</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
         <v>214</v>
       </c>
-      <c r="I26">
+      <c r="H26">
         <v>3761</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>25</v>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2348428.81</v>
       </c>
       <c r="C27">
-        <v>2348428.81</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>14426062.689999999</v>
       </c>
       <c r="E27">
-        <v>14426062.689999999</v>
+        <v>16774491.5</v>
       </c>
       <c r="F27">
-        <v>16774491.5</v>
-      </c>
-      <c r="G27">
         <v>404</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
         <v>214</v>
       </c>
-      <c r="I27">
+      <c r="H27">
         <v>3767</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>26</v>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>83743.17</v>
       </c>
       <c r="C28">
-        <v>83743.17</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>514422.33</v>
       </c>
       <c r="E28">
-        <v>514422.33</v>
+        <v>598165.5</v>
       </c>
       <c r="F28">
-        <v>598165.5</v>
-      </c>
-      <c r="G28">
         <v>405</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
         <v>214</v>
       </c>
-      <c r="I28">
+      <c r="H28">
         <v>3767</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>27</v>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>749535.36</v>
       </c>
       <c r="C29">
-        <v>749535.36</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>4604288.6399999997</v>
       </c>
       <c r="E29">
-        <v>4604288.6399999997</v>
+        <v>5353824</v>
       </c>
       <c r="F29">
-        <v>5353824</v>
-      </c>
-      <c r="G29">
         <v>409</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
         <v>215</v>
       </c>
-      <c r="I29">
+      <c r="H29">
         <v>3773</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>28</v>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1009747.2</v>
       </c>
       <c r="C30">
-        <v>1009747.2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>6202732.7999999998</v>
       </c>
       <c r="E30">
-        <v>6202732.7999999998</v>
+        <v>7212480</v>
       </c>
       <c r="F30">
-        <v>7212480</v>
-      </c>
-      <c r="G30">
         <v>405</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="I30">
+      <c r="H30">
         <v>3772</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>29</v>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1128992.48</v>
       </c>
       <c r="C31">
-        <v>1128992.48</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>6935239.5199999996</v>
       </c>
       <c r="E31">
-        <v>6935239.5199999996</v>
+        <v>8064232</v>
       </c>
       <c r="F31">
-        <v>8064232</v>
-      </c>
-      <c r="G31">
         <v>406</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
         <v>216</v>
       </c>
-      <c r="I31">
+      <c r="H31">
         <v>3781</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>30</v>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>2859254.02</v>
       </c>
       <c r="C32">
-        <v>2859254.02</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>17563988.98</v>
       </c>
       <c r="E32">
-        <v>17563988.98</v>
+        <v>20423243</v>
       </c>
       <c r="F32">
-        <v>20423243</v>
-      </c>
-      <c r="G32">
         <v>408</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32" t="s">
         <v>216</v>
       </c>
-      <c r="I32">
+      <c r="H32">
         <v>3783</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>31</v>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1544527.88</v>
       </c>
       <c r="C33">
-        <v>1544527.88</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>9487814.1199999992</v>
       </c>
       <c r="E33">
-        <v>9487814.1199999992</v>
+        <v>11032342</v>
       </c>
       <c r="F33">
-        <v>11032342</v>
-      </c>
-      <c r="G33">
         <v>409</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s">
         <v>216</v>
       </c>
-      <c r="I33">
+      <c r="H33">
         <v>3784</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>32</v>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>670690.67000000004</v>
       </c>
       <c r="C34">
-        <v>670690.67000000004</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>4488468.33</v>
       </c>
       <c r="E34">
-        <v>4488468.33</v>
+        <v>5159159</v>
       </c>
       <c r="F34">
-        <v>5159159</v>
-      </c>
-      <c r="G34">
         <v>409</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
         <v>217</v>
       </c>
-      <c r="I34">
+      <c r="H34">
         <v>3792</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>33</v>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>5141909.92</v>
       </c>
       <c r="C35">
-        <v>5141909.92</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>31586018</v>
       </c>
       <c r="E35">
-        <v>31586018</v>
+        <v>36727927.920000002</v>
       </c>
       <c r="F35">
-        <v>36727927.920000002</v>
-      </c>
-      <c r="G35">
         <v>409</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s">
         <v>218</v>
       </c>
-      <c r="I35">
+      <c r="H35">
         <v>3794</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>34</v>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1183.31</v>
       </c>
       <c r="C36">
-        <v>1183.31</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>7268.89</v>
       </c>
       <c r="E36">
-        <v>7268.89</v>
+        <v>8452.2000000000007</v>
       </c>
       <c r="F36">
-        <v>8452.2000000000007</v>
-      </c>
-      <c r="G36">
         <v>402</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s">
         <v>218</v>
       </c>
-      <c r="I36">
+      <c r="H36">
         <v>3793</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>35</v>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>3240497.81</v>
       </c>
       <c r="C37">
-        <v>3240497.81</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>19905915.140000001</v>
       </c>
       <c r="E37">
-        <v>19905915.140000001</v>
+        <v>23146412.949999999</v>
       </c>
       <c r="F37">
-        <v>23146412.949999999</v>
-      </c>
-      <c r="G37">
         <v>404</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s">
         <v>218</v>
       </c>
-      <c r="I37">
+      <c r="H37">
         <v>3793</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>36</v>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>12614.38</v>
       </c>
       <c r="C38">
-        <v>12614.38</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>77488.320000000007</v>
       </c>
       <c r="E38">
-        <v>77488.320000000007</v>
+        <v>90102.700000000012</v>
       </c>
       <c r="F38">
-        <v>90102.700000000012</v>
-      </c>
-      <c r="G38">
         <v>405</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s">
         <v>218</v>
       </c>
-      <c r="I38">
+      <c r="H38">
         <v>3793</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>37</v>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>2358257</v>
       </c>
       <c r="C39">
-        <v>2358257</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>14486436</v>
       </c>
       <c r="E39">
-        <v>14486436</v>
+        <v>16844693</v>
       </c>
       <c r="F39">
-        <v>16844693</v>
-      </c>
-      <c r="G39">
         <v>405</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s">
         <v>217</v>
       </c>
-      <c r="I39">
+      <c r="H39">
         <v>3791</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>38</v>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1040132.45</v>
       </c>
       <c r="C40">
-        <v>1040132.45</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>6389385.0800000001</v>
       </c>
       <c r="E40">
-        <v>6389385.0800000001</v>
+        <v>7429517.5300000003</v>
       </c>
       <c r="F40">
-        <v>7429517.5300000003</v>
-      </c>
-      <c r="G40">
         <v>404</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G40" t="s">
         <v>218</v>
       </c>
-      <c r="I40">
+      <c r="H40">
         <v>3795</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>39</v>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>417985.19</v>
       </c>
       <c r="C41">
-        <v>417985.19</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>2567623.2799999998</v>
       </c>
       <c r="E41">
-        <v>2567623.2799999998</v>
+        <v>2985608.47</v>
       </c>
       <c r="F41">
-        <v>2985608.47</v>
-      </c>
-      <c r="G41">
         <v>405</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s">
         <v>218</v>
       </c>
-      <c r="I41">
+      <c r="H41">
         <v>3795</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>40</v>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>638.30999999999995</v>
       </c>
       <c r="C42">
-        <v>638.30999999999995</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>3921.03</v>
       </c>
       <c r="E42">
-        <v>3921.03</v>
+        <v>4559.34</v>
       </c>
       <c r="F42">
-        <v>4559.34</v>
-      </c>
-      <c r="G42">
         <v>402</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s">
         <v>218</v>
       </c>
-      <c r="I42">
+      <c r="H42">
         <v>3796</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>41</v>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>18878.16</v>
       </c>
       <c r="C43">
-        <v>18878.16</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>115965.85</v>
       </c>
       <c r="E43">
-        <v>115965.85</v>
+        <v>134844.01</v>
       </c>
       <c r="F43">
-        <v>134844.01</v>
-      </c>
-      <c r="G43">
         <v>404</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s">
         <v>218</v>
       </c>
-      <c r="I43">
+      <c r="H43">
         <v>3796</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>42</v>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>16053.87</v>
       </c>
       <c r="C44">
-        <v>16053.87</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>98616.63</v>
       </c>
       <c r="E44">
-        <v>98616.63</v>
+        <v>114670.5</v>
       </c>
       <c r="F44">
-        <v>114670.5</v>
-      </c>
-      <c r="G44">
         <v>405</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44" t="s">
         <v>218</v>
       </c>
-      <c r="I44">
+      <c r="H44">
         <v>3796</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>43</v>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>2073062.48</v>
       </c>
       <c r="C45">
-        <v>2073062.48</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>12734526.48</v>
       </c>
       <c r="E45">
-        <v>12734526.48</v>
+        <v>14807588.960000001</v>
       </c>
       <c r="F45">
-        <v>14807588.960000001</v>
-      </c>
-      <c r="G45">
         <v>409</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45" t="s">
         <v>218</v>
       </c>
-      <c r="I45">
+      <c r="H45">
         <v>3796</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>44</v>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>18361.52</v>
       </c>
       <c r="C46">
-        <v>18361.52</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>112792.21</v>
       </c>
       <c r="E46">
-        <v>112792.21</v>
+        <v>131153.73000000001</v>
       </c>
       <c r="F46">
-        <v>131153.73000000001</v>
-      </c>
-      <c r="G46">
         <v>402</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s">
         <v>218</v>
       </c>
-      <c r="I46">
+      <c r="H46">
         <v>3797</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>45</v>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>2987789.88</v>
       </c>
       <c r="C47">
-        <v>2987789.88</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>18353566.390000001</v>
       </c>
       <c r="E47">
-        <v>18353566.390000001</v>
+        <v>21341356.27</v>
       </c>
       <c r="F47">
-        <v>21341356.27</v>
-      </c>
-      <c r="G47">
         <v>404</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s">
         <v>218</v>
       </c>
-      <c r="I47">
+      <c r="H47">
         <v>3797</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>46</v>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>2205484.6800000002</v>
       </c>
       <c r="C48">
-        <v>2205484.6800000002</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>13547977.32</v>
       </c>
       <c r="E48">
-        <v>13547977.32</v>
+        <v>15753462</v>
       </c>
       <c r="F48">
-        <v>15753462</v>
-      </c>
-      <c r="G48">
         <v>409</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s">
         <v>219</v>
       </c>
-      <c r="I48">
+      <c r="H48">
         <v>3805</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>47</v>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>282389.38</v>
       </c>
       <c r="C49">
-        <v>282389.38</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1734677.62</v>
       </c>
       <c r="E49">
-        <v>1734677.62</v>
+        <v>2017067</v>
       </c>
       <c r="F49">
-        <v>2017067</v>
-      </c>
-      <c r="G49">
         <v>405</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s">
         <v>220</v>
       </c>
-      <c r="I49">
+      <c r="H49">
         <v>3812</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>48</v>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>2767259.32</v>
       </c>
       <c r="C50">
-        <v>2767259.32</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>16998878.68</v>
       </c>
       <c r="E50">
-        <v>16998878.68</v>
+        <v>19766138</v>
       </c>
       <c r="F50">
-        <v>19766138</v>
-      </c>
-      <c r="G50">
         <v>405</v>
       </c>
-      <c r="H50" t="s">
+      <c r="G50" t="s">
         <v>221</v>
       </c>
-      <c r="I50">
+      <c r="H50">
         <v>3813</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>49</v>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1580555.99</v>
       </c>
       <c r="C51">
-        <v>1580555.99</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>10577567.01</v>
       </c>
       <c r="E51">
-        <v>10577567.01</v>
+        <v>12158123</v>
       </c>
       <c r="F51">
-        <v>12158123</v>
-      </c>
-      <c r="G51">
         <v>404</v>
       </c>
-      <c r="H51" t="s">
+      <c r="G51" t="s">
         <v>221</v>
       </c>
-      <c r="I51">
+      <c r="H51">
         <v>3816</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>50</v>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>309991.96000000002</v>
       </c>
       <c r="C52">
-        <v>309991.96000000002</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>2056100.04</v>
       </c>
       <c r="E52">
-        <v>2056100.04</v>
+        <v>2366092</v>
       </c>
       <c r="F52">
-        <v>2366092</v>
-      </c>
-      <c r="G52">
         <v>404</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
         <v>222</v>
       </c>
-      <c r="I52">
+      <c r="H52">
         <v>3824</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>51</v>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>962126</v>
       </c>
       <c r="C53">
-        <v>962126</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>6438840</v>
       </c>
       <c r="E53">
-        <v>6438840</v>
+        <v>7400966</v>
       </c>
       <c r="F53">
-        <v>7400966</v>
-      </c>
-      <c r="G53">
         <v>405</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G53" t="s">
         <v>223</v>
       </c>
-      <c r="I53">
+      <c r="H53">
         <v>3825</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>52</v>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>3498228.58</v>
       </c>
       <c r="C54">
-        <v>3498228.58</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>21489118.420000002</v>
       </c>
       <c r="E54">
-        <v>21489118.420000002</v>
+        <v>24987347</v>
       </c>
       <c r="F54">
-        <v>24987347</v>
-      </c>
-      <c r="G54">
         <v>407</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54" t="s">
         <v>224</v>
       </c>
-      <c r="I54">
+      <c r="H54">
         <v>3826</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>53</v>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1093173.6200000001</v>
       </c>
       <c r="C55">
-        <v>1093173.6200000001</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>6715209.3799999999</v>
       </c>
       <c r="E55">
-        <v>6715209.3799999999</v>
+        <v>7808383</v>
       </c>
       <c r="F55">
-        <v>7808383</v>
-      </c>
-      <c r="G55">
         <v>405</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s">
         <v>225</v>
       </c>
-      <c r="I55">
+      <c r="H55">
         <v>3828</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>54</v>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>3116865.5</v>
       </c>
       <c r="C56">
-        <v>3116865.5</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>19146459.5</v>
       </c>
       <c r="E56">
-        <v>19146459.5</v>
+        <v>22263325</v>
       </c>
       <c r="F56">
-        <v>22263325</v>
-      </c>
-      <c r="G56">
         <v>404</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s">
         <v>226</v>
       </c>
-      <c r="I56">
+      <c r="H56">
         <v>3834</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>55</v>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>695132.1</v>
       </c>
       <c r="C57">
-        <v>695132.1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4652037.9000000004</v>
       </c>
       <c r="E57">
-        <v>4652037.9000000004</v>
+        <v>5347170</v>
       </c>
       <c r="F57">
-        <v>5347170</v>
-      </c>
-      <c r="G57">
         <v>405</v>
       </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s">
         <v>226</v>
       </c>
-      <c r="I57">
+      <c r="H57">
         <v>3831</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>56</v>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>912258.48</v>
       </c>
       <c r="C58">
-        <v>912258.48</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>5603873.5199999996</v>
       </c>
       <c r="E58">
-        <v>5603873.5199999996</v>
+        <v>6516132</v>
       </c>
       <c r="F58">
-        <v>6516132</v>
-      </c>
-      <c r="G58">
         <v>405</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s">
         <v>226</v>
       </c>
-      <c r="I58">
+      <c r="H58">
         <v>3835</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>57</v>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>13642.2</v>
       </c>
       <c r="C59">
-        <v>13642.2</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>83802.05</v>
       </c>
       <c r="E59">
-        <v>83802.05</v>
+        <v>97444.25</v>
       </c>
       <c r="F59">
-        <v>97444.25</v>
-      </c>
-      <c r="G59">
         <v>402</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s">
         <v>226</v>
       </c>
-      <c r="I59">
+      <c r="H59">
         <v>3838</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>58</v>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>4958392.9800000004</v>
       </c>
       <c r="C60">
-        <v>4958392.9800000004</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>30458699.760000002</v>
       </c>
       <c r="E60">
-        <v>30458699.760000002</v>
+        <v>35417092.740000002</v>
       </c>
       <c r="F60">
-        <v>35417092.740000002</v>
-      </c>
-      <c r="G60">
         <v>404</v>
       </c>
-      <c r="H60" t="s">
+      <c r="G60" t="s">
         <v>226</v>
       </c>
-      <c r="I60">
+      <c r="H60">
         <v>3838</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>59</v>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>2110666.1800000002</v>
       </c>
       <c r="C61">
-        <v>2110666.1800000002</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>12965520.82</v>
       </c>
       <c r="E61">
-        <v>12965520.82</v>
+        <v>15076187</v>
       </c>
       <c r="F61">
-        <v>15076187</v>
-      </c>
-      <c r="G61">
         <v>404</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G61" t="s">
         <v>226</v>
       </c>
-      <c r="I61">
+      <c r="H61">
         <v>3832</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>60</v>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>4781808.08</v>
       </c>
       <c r="C62">
-        <v>4781808.08</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>29373963.920000002</v>
       </c>
       <c r="E62">
-        <v>29373963.920000002</v>
+        <v>34155772</v>
       </c>
       <c r="F62">
-        <v>34155772</v>
-      </c>
-      <c r="G62">
         <v>406</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s">
         <v>226</v>
       </c>
-      <c r="I62">
+      <c r="H62">
         <v>3836</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>61</v>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>2111180.4</v>
       </c>
       <c r="C63">
-        <v>2111180.4</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>12968679.6</v>
       </c>
       <c r="E63">
-        <v>12968679.6</v>
+        <v>15079860</v>
       </c>
       <c r="F63">
-        <v>15079860</v>
-      </c>
-      <c r="G63">
         <v>406</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s">
         <v>226</v>
       </c>
-      <c r="I63">
+      <c r="H63">
         <v>3833</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>62</v>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>651367.74</v>
       </c>
       <c r="C64">
-        <v>651367.74</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>4001258.99</v>
       </c>
       <c r="E64">
-        <v>4001258.99</v>
+        <v>4652626.7300000004</v>
       </c>
       <c r="F64">
-        <v>4652626.7300000004</v>
-      </c>
-      <c r="G64">
         <v>404</v>
       </c>
-      <c r="H64" t="s">
+      <c r="G64" t="s">
         <v>226</v>
       </c>
-      <c r="I64">
+      <c r="H64">
         <v>3839</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>63</v>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>416916.82</v>
       </c>
       <c r="C65">
-        <v>416916.82</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>2561060.4500000002</v>
       </c>
       <c r="E65">
-        <v>2561060.4500000002</v>
+        <v>2977977.27</v>
       </c>
       <c r="F65">
-        <v>2977977.27</v>
-      </c>
-      <c r="G65">
         <v>405</v>
       </c>
-      <c r="H65" t="s">
+      <c r="G65" t="s">
         <v>226</v>
       </c>
-      <c r="I65">
+      <c r="H65">
         <v>3839</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>64</v>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>3754312.24</v>
       </c>
       <c r="C66">
-        <v>3754312.24</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>23062203.760000002</v>
       </c>
       <c r="E66">
-        <v>23062203.760000002</v>
+        <v>26816516</v>
       </c>
       <c r="F66">
-        <v>26816516</v>
-      </c>
-      <c r="G66">
         <v>404</v>
       </c>
-      <c r="H66" t="s">
+      <c r="G66" t="s">
         <v>227</v>
       </c>
-      <c r="I66">
+      <c r="H66">
         <v>3847</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>65</v>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1675667.7</v>
       </c>
       <c r="C67">
-        <v>1675667.7</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>10293387.300000001</v>
       </c>
       <c r="E67">
-        <v>10293387.300000001</v>
+        <v>11969055</v>
       </c>
       <c r="F67">
-        <v>11969055</v>
-      </c>
-      <c r="G67">
         <v>405</v>
       </c>
-      <c r="H67" t="s">
+      <c r="G67" t="s">
         <v>228</v>
       </c>
-      <c r="I67">
+      <c r="H67">
         <v>3849</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>66</v>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>298004.2</v>
       </c>
       <c r="C68">
-        <v>298004.2</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1994335.8</v>
       </c>
       <c r="E68">
-        <v>1994335.8</v>
+        <v>2292340</v>
       </c>
       <c r="F68">
-        <v>2292340</v>
-      </c>
-      <c r="G68">
         <v>404</v>
       </c>
-      <c r="H68" t="s">
+      <c r="G68" t="s">
         <v>229</v>
       </c>
-      <c r="I68">
+      <c r="H68">
         <v>3858</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>67</v>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>487051.18</v>
       </c>
       <c r="C69">
-        <v>487051.18</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>2991885.82</v>
       </c>
       <c r="E69">
-        <v>2991885.82</v>
+        <v>3478937</v>
       </c>
       <c r="F69">
-        <v>3478937</v>
-      </c>
-      <c r="G69">
         <v>409</v>
       </c>
-      <c r="H69" t="s">
+      <c r="G69" t="s">
         <v>230</v>
       </c>
-      <c r="I69">
+      <c r="H69">
         <v>3859</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>68</v>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>7310.76</v>
       </c>
       <c r="C70">
-        <v>7310.76</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>44908.93</v>
       </c>
       <c r="E70">
-        <v>44908.93</v>
+        <v>52219.69</v>
       </c>
       <c r="F70">
-        <v>52219.69</v>
-      </c>
-      <c r="G70">
         <v>402</v>
       </c>
-      <c r="H70" t="s">
+      <c r="G70" t="s">
         <v>231</v>
       </c>
-      <c r="I70">
+      <c r="H70">
         <v>3867</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>69</v>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>2212144.9700000002</v>
       </c>
       <c r="C71">
-        <v>2212144.9700000002</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>13588890.550000001</v>
       </c>
       <c r="E71">
-        <v>13588890.550000001</v>
+        <v>15801035.52</v>
       </c>
       <c r="F71">
-        <v>15801035.52</v>
-      </c>
-      <c r="G71">
         <v>404</v>
       </c>
-      <c r="H71" t="s">
+      <c r="G71" t="s">
         <v>231</v>
       </c>
-      <c r="I71">
+      <c r="H71">
         <v>3867</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>70</v>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>992707.49</v>
       </c>
       <c r="C72">
-        <v>992707.49</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>6098060.2999999998</v>
       </c>
       <c r="E72">
-        <v>6098060.2999999998</v>
+        <v>7090767.79</v>
       </c>
       <c r="F72">
-        <v>7090767.79</v>
-      </c>
-      <c r="G72">
         <v>405</v>
       </c>
-      <c r="H72" t="s">
+      <c r="G72" t="s">
         <v>231</v>
       </c>
-      <c r="I72">
+      <c r="H72">
         <v>3867</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>71</v>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1423590</v>
       </c>
       <c r="C73">
-        <v>1423590</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>8744910</v>
       </c>
       <c r="E73">
-        <v>8744910</v>
+        <v>10168500</v>
       </c>
       <c r="F73">
-        <v>10168500</v>
-      </c>
-      <c r="G73">
         <v>404</v>
       </c>
-      <c r="H73" t="s">
+      <c r="G73" t="s">
         <v>232</v>
       </c>
-      <c r="I73">
+      <c r="H73">
         <v>3872</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>72</v>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>2174449.9</v>
       </c>
       <c r="C74">
-        <v>2174449.9</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>13357335.1</v>
       </c>
       <c r="E74">
-        <v>13357335.1</v>
+        <v>15531785</v>
       </c>
       <c r="F74">
-        <v>15531785</v>
-      </c>
-      <c r="G74">
         <v>409</v>
       </c>
-      <c r="H74" t="s">
+      <c r="G74" t="s">
         <v>232</v>
       </c>
-      <c r="I74">
+      <c r="H74">
         <v>3873</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>73</v>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>261.86</v>
       </c>
       <c r="C75">
-        <v>261.86</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1608.59</v>
       </c>
       <c r="E75">
-        <v>1608.59</v>
+        <v>1870.45</v>
       </c>
       <c r="F75">
-        <v>1870.45</v>
-      </c>
-      <c r="G75">
         <v>402</v>
       </c>
-      <c r="H75" t="s">
+      <c r="G75" t="s">
         <v>232</v>
       </c>
-      <c r="I75">
+      <c r="H75">
         <v>3872</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>74</v>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>7744.69</v>
       </c>
       <c r="C76">
-        <v>7744.69</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>47574.51</v>
       </c>
       <c r="E76">
-        <v>47574.51</v>
+        <v>55319.199999999997</v>
       </c>
       <c r="F76">
-        <v>55319.199999999997</v>
-      </c>
-      <c r="G76">
         <v>404</v>
       </c>
-      <c r="H76" t="s">
+      <c r="G76" t="s">
         <v>232</v>
       </c>
-      <c r="I76">
+      <c r="H76">
         <v>3872</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>75</v>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>2439531.13</v>
       </c>
       <c r="C77">
-        <v>2439531.13</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>14985691.24</v>
       </c>
       <c r="E77">
-        <v>14985691.24</v>
+        <v>17425222.370000001</v>
       </c>
       <c r="F77">
-        <v>17425222.370000001</v>
-      </c>
-      <c r="G77">
         <v>405</v>
       </c>
-      <c r="H77" t="s">
+      <c r="G77" t="s">
         <v>232</v>
       </c>
-      <c r="I77">
+      <c r="H77">
         <v>3872</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>76</v>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1738788.1</v>
       </c>
       <c r="C78">
-        <v>1738788.1</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>10681126.890000001</v>
       </c>
       <c r="E78">
-        <v>10681126.890000001</v>
+        <v>12419914.99</v>
       </c>
       <c r="F78">
-        <v>12419914.99</v>
-      </c>
-      <c r="G78">
         <v>409</v>
       </c>
-      <c r="H78" t="s">
+      <c r="G78" t="s">
         <v>232</v>
       </c>
-      <c r="I78">
+      <c r="H78">
         <v>3872</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>77</v>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>12552.4</v>
       </c>
       <c r="C79">
-        <v>12552.4</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>77107.600000000006</v>
       </c>
       <c r="E79">
-        <v>77107.600000000006</v>
+        <v>89660</v>
       </c>
       <c r="F79">
-        <v>89660</v>
-      </c>
-      <c r="G79">
         <v>403</v>
       </c>
-      <c r="H79" t="s">
+      <c r="G79" t="s">
         <v>232</v>
       </c>
-      <c r="I79">
+      <c r="H79">
         <v>3871</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>78</v>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>14506.8</v>
       </c>
       <c r="C80">
-        <v>14506.8</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>89113.2</v>
       </c>
       <c r="E80">
-        <v>89113.2</v>
+        <v>103620</v>
       </c>
       <c r="F80">
-        <v>103620</v>
-      </c>
-      <c r="G80">
         <v>407</v>
       </c>
-      <c r="H80" t="s">
+      <c r="G80" t="s">
         <v>232</v>
       </c>
-      <c r="I80">
+      <c r="H80">
         <v>3871</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>79</v>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>2056634.44</v>
       </c>
       <c r="C81">
-        <v>2056634.44</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>12633611.560000001</v>
       </c>
       <c r="E81">
-        <v>12633611.560000001</v>
+        <v>14690246</v>
       </c>
       <c r="F81">
-        <v>14690246</v>
-      </c>
-      <c r="G81">
         <v>408</v>
       </c>
-      <c r="H81" t="s">
+      <c r="G81" t="s">
         <v>232</v>
       </c>
-      <c r="I81">
+      <c r="H81">
         <v>3871</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>80</v>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>437340.15</v>
       </c>
       <c r="C82">
-        <v>437340.15</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2926814.85</v>
       </c>
       <c r="E82">
-        <v>2926814.85</v>
+        <v>3364155</v>
       </c>
       <c r="F82">
-        <v>3364155</v>
-      </c>
-      <c r="G82">
         <v>405</v>
       </c>
-      <c r="H82" t="s">
+      <c r="G82" t="s">
         <v>233</v>
       </c>
-      <c r="I82">
+      <c r="H82">
         <v>3885</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>81</v>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>845322.83</v>
       </c>
       <c r="C83">
-        <v>845322.83</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>5192697.3600000003</v>
       </c>
       <c r="E83">
-        <v>5192697.3600000003</v>
+        <v>6038020.1900000004</v>
       </c>
       <c r="F83">
-        <v>6038020.1900000004</v>
-      </c>
-      <c r="G83">
         <v>404</v>
       </c>
-      <c r="H83" t="s">
+      <c r="G83" t="s">
         <v>233</v>
       </c>
-      <c r="I83">
+      <c r="H83">
         <v>3886</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>82</v>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>49031.19</v>
       </c>
       <c r="C84">
-        <v>49031.19</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>301191.62</v>
       </c>
       <c r="E84">
-        <v>301191.62</v>
+        <v>350222.81</v>
       </c>
       <c r="F84">
-        <v>350222.81</v>
-      </c>
-      <c r="G84">
         <v>405</v>
       </c>
-      <c r="H84" t="s">
+      <c r="G84" t="s">
         <v>233</v>
       </c>
-      <c r="I84">
+      <c r="H84">
         <v>3886</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>83</v>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>500414.6</v>
       </c>
       <c r="C85">
-        <v>500414.6</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>3073975.4</v>
       </c>
       <c r="E85">
-        <v>3073975.4</v>
+        <v>3574390</v>
       </c>
       <c r="F85">
-        <v>3574390</v>
-      </c>
-      <c r="G85">
         <v>405</v>
       </c>
-      <c r="H85" t="s">
+      <c r="G85" t="s">
         <v>233</v>
       </c>
-      <c r="I85">
+      <c r="H85">
         <v>3887</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>84</v>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>2088646.84</v>
       </c>
       <c r="C86">
-        <v>2088646.84</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>12830259.16</v>
       </c>
       <c r="E86">
-        <v>12830259.16</v>
+        <v>14918906</v>
       </c>
       <c r="F86">
-        <v>14918906</v>
-      </c>
-      <c r="G86">
         <v>406</v>
       </c>
-      <c r="H86" t="s">
+      <c r="G86" t="s">
         <v>234</v>
       </c>
-      <c r="I86">
+      <c r="H86">
         <v>3911</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>85</v>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>533385.87</v>
       </c>
       <c r="C87">
-        <v>533385.87</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>3276513.16</v>
       </c>
       <c r="E87">
-        <v>3276513.16</v>
+        <v>3809899.03</v>
       </c>
       <c r="F87">
-        <v>3809899.03</v>
-      </c>
-      <c r="G87">
         <v>404</v>
       </c>
-      <c r="H87" t="s">
+      <c r="G87" t="s">
         <v>234</v>
       </c>
-      <c r="I87">
+      <c r="H87">
         <v>3912</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>86</v>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>760457.03</v>
       </c>
       <c r="C88">
-        <v>760457.03</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>4671378.84</v>
       </c>
       <c r="E88">
-        <v>4671378.84</v>
+        <v>5431835.8700000001</v>
       </c>
       <c r="F88">
-        <v>5431835.8700000001</v>
-      </c>
-      <c r="G88">
         <v>405</v>
       </c>
-      <c r="H88" t="s">
+      <c r="G88" t="s">
         <v>234</v>
       </c>
-      <c r="I88">
+      <c r="H88">
         <v>3912</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>87</v>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>819426.03</v>
       </c>
       <c r="C89">
-        <v>819426.03</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>5033617.07</v>
       </c>
       <c r="E89">
-        <v>5033617.07</v>
+        <v>5853043.1000000006</v>
       </c>
       <c r="F89">
-        <v>5853043.1000000006</v>
-      </c>
-      <c r="G89">
         <v>404</v>
       </c>
-      <c r="H89" t="s">
+      <c r="G89" t="s">
         <v>235</v>
       </c>
-      <c r="I89">
+      <c r="H89">
         <v>3926</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>88</v>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>782941.73</v>
       </c>
       <c r="C90">
-        <v>782941.73</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>4809499.17</v>
       </c>
       <c r="E90">
-        <v>4809499.17</v>
+        <v>5592440.9000000004</v>
       </c>
       <c r="F90">
-        <v>5592440.9000000004</v>
-      </c>
-      <c r="G90">
         <v>405</v>
       </c>
-      <c r="H90" t="s">
+      <c r="G90" t="s">
         <v>235</v>
       </c>
-      <c r="I90">
+      <c r="H90">
         <v>3926</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>89</v>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1268086.96</v>
       </c>
       <c r="C91">
-        <v>1268086.96</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>7789677.04</v>
       </c>
       <c r="E91">
-        <v>7789677.04</v>
+        <v>9057764</v>
       </c>
       <c r="F91">
-        <v>9057764</v>
-      </c>
-      <c r="G91">
         <v>405</v>
       </c>
-      <c r="H91" t="s">
+      <c r="G91" t="s">
         <v>235</v>
       </c>
-      <c r="I91">
+      <c r="H91">
         <v>3921</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>90</v>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>270136.46000000002</v>
       </c>
       <c r="C92">
-        <v>270136.46000000002</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1659409.69</v>
       </c>
       <c r="E92">
-        <v>1659409.69</v>
+        <v>1929546.15</v>
       </c>
       <c r="F92">
-        <v>1929546.15</v>
-      </c>
-      <c r="G92">
         <v>404</v>
       </c>
-      <c r="H92" t="s">
+      <c r="G92" t="s">
         <v>235</v>
       </c>
-      <c r="I92">
+      <c r="H92">
         <v>3922</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>91</v>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>277546.34000000003</v>
       </c>
       <c r="C93">
-        <v>277546.34000000003</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1704927.51</v>
       </c>
       <c r="E93">
-        <v>1704927.51</v>
+        <v>1982473.85</v>
       </c>
       <c r="F93">
-        <v>1982473.85</v>
-      </c>
-      <c r="G93">
         <v>405</v>
       </c>
-      <c r="H93" t="s">
+      <c r="G93" t="s">
         <v>235</v>
       </c>
-      <c r="I93">
+      <c r="H93">
         <v>3922</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>92</v>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>2123862</v>
       </c>
       <c r="C94">
-        <v>2123862</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>13046585.279999999</v>
       </c>
       <c r="E94">
-        <v>13046585.279999999</v>
+        <v>15170447.279999999</v>
       </c>
       <c r="F94">
-        <v>15170447.279999999</v>
-      </c>
-      <c r="G94">
         <v>405</v>
       </c>
-      <c r="H94" t="s">
+      <c r="G94" t="s">
         <v>235</v>
       </c>
-      <c r="I94">
+      <c r="H94">
         <v>3925</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>93</v>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>221348.12</v>
       </c>
       <c r="C95">
-        <v>221348.12</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1359709.88</v>
       </c>
       <c r="E95">
-        <v>1359709.88</v>
+        <v>1581058</v>
       </c>
       <c r="F95">
-        <v>1581058</v>
-      </c>
-      <c r="G95">
         <v>402</v>
       </c>
-      <c r="H95" t="s">
+      <c r="G95" t="s">
         <v>235</v>
       </c>
-      <c r="I95">
+      <c r="H95">
         <v>3927</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>94</v>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1596431.34</v>
       </c>
       <c r="C96">
-        <v>1596431.34</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>9806649.6600000001</v>
       </c>
       <c r="E96">
-        <v>9806649.6600000001</v>
+        <v>11403081</v>
       </c>
       <c r="F96">
-        <v>11403081</v>
-      </c>
-      <c r="G96">
         <v>404</v>
       </c>
-      <c r="H96" t="s">
+      <c r="G96" t="s">
         <v>235</v>
       </c>
-      <c r="I96">
+      <c r="H96">
         <v>3927</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>95</v>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>14676.2</v>
       </c>
       <c r="C97">
-        <v>14676.2</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>90153.8</v>
       </c>
       <c r="E97">
-        <v>90153.8</v>
+        <v>104830</v>
       </c>
       <c r="F97">
-        <v>104830</v>
-      </c>
-      <c r="G97">
         <v>402</v>
       </c>
-      <c r="H97" t="s">
+      <c r="G97" t="s">
         <v>235</v>
       </c>
-      <c r="I97">
+      <c r="H97">
         <v>3923</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>96</v>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>3562630.56</v>
       </c>
       <c r="C98">
-        <v>3562630.56</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>21884724.440000001</v>
       </c>
       <c r="E98">
-        <v>21884724.440000001</v>
+        <v>25447355</v>
       </c>
       <c r="F98">
-        <v>25447355</v>
-      </c>
-      <c r="G98">
         <v>404</v>
       </c>
-      <c r="H98" t="s">
+      <c r="G98" t="s">
         <v>235</v>
       </c>
-      <c r="I98">
+      <c r="H98">
         <v>3923</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>97</v>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1426521</v>
       </c>
       <c r="C99">
-        <v>1426521</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>8763629</v>
       </c>
       <c r="E99">
-        <v>8763629</v>
+        <v>10190150</v>
       </c>
       <c r="F99">
-        <v>10190150</v>
-      </c>
-      <c r="G99">
         <v>406</v>
       </c>
-      <c r="H99" t="s">
+      <c r="G99" t="s">
         <v>235</v>
       </c>
-      <c r="I99">
+      <c r="H99">
         <v>3920</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>98</v>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>2101471.96</v>
       </c>
       <c r="C100">
-        <v>2101471.96</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>12909042.039999999</v>
       </c>
       <c r="E100">
-        <v>12909042.039999999</v>
+        <v>15010514</v>
       </c>
       <c r="F100">
-        <v>15010514</v>
-      </c>
-      <c r="G100">
         <v>405</v>
       </c>
-      <c r="H100" t="s">
+      <c r="G100" t="s">
         <v>235</v>
       </c>
-      <c r="I100">
+      <c r="H100">
         <v>3924</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>99</v>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>920500</v>
       </c>
       <c r="C101">
-        <v>920500</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>5654500</v>
       </c>
       <c r="E101">
-        <v>5654500</v>
+        <v>6575000</v>
       </c>
       <c r="F101">
-        <v>6575000</v>
-      </c>
-      <c r="G101">
         <v>405</v>
       </c>
-      <c r="H101" t="s">
+      <c r="G101" t="s">
         <v>235</v>
       </c>
-      <c r="I101">
+      <c r="H101">
         <v>3928</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>100</v>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>756830</v>
       </c>
       <c r="C102">
-        <v>756830</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>5673258</v>
       </c>
       <c r="E102">
-        <v>5673258</v>
+        <v>6430088</v>
       </c>
       <c r="F102">
-        <v>6430088</v>
-      </c>
-      <c r="G102">
         <v>404</v>
       </c>
-      <c r="H102" t="s">
+      <c r="G102" t="s">
         <v>236</v>
       </c>
-      <c r="I102">
+      <c r="H102">
         <v>3930</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>101</v>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1176653.6599999999</v>
       </c>
       <c r="C103">
-        <v>1176653.6599999999</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>7228015.3399999999</v>
       </c>
       <c r="E103">
-        <v>7228015.3399999999</v>
+        <v>8404669</v>
       </c>
       <c r="F103">
-        <v>8404669</v>
-      </c>
-      <c r="G103">
         <v>408</v>
       </c>
-      <c r="H103" t="s">
+      <c r="G103" t="s">
         <v>237</v>
       </c>
-      <c r="I103">
+      <c r="H103">
         <v>3939</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>102</v>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>230014.68</v>
       </c>
       <c r="C104">
-        <v>230014.68</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1412947.32</v>
       </c>
       <c r="E104">
-        <v>1412947.32</v>
+        <v>1642962</v>
       </c>
       <c r="F104">
-        <v>1642962</v>
-      </c>
-      <c r="G104">
         <v>404</v>
       </c>
-      <c r="H104" t="s">
+      <c r="G104" t="s">
         <v>238</v>
       </c>
-      <c r="I104">
+      <c r="H104">
         <v>3940</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>103</v>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>358469.67</v>
       </c>
       <c r="C105">
-        <v>358469.67</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>2398989.33</v>
       </c>
       <c r="E105">
-        <v>2398989.33</v>
+        <v>2757459</v>
       </c>
       <c r="F105">
-        <v>2757459</v>
-      </c>
-      <c r="G105">
         <v>404</v>
       </c>
-      <c r="H105" t="s">
+      <c r="G105" t="s">
         <v>239</v>
       </c>
-      <c r="I105">
+      <c r="H105">
         <v>3943</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>104</v>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>609601.59</v>
       </c>
       <c r="C106">
-        <v>609601.59</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>4079641.41</v>
       </c>
       <c r="E106">
-        <v>4079641.41</v>
+        <v>4689243</v>
       </c>
       <c r="F106">
-        <v>4689243</v>
-      </c>
-      <c r="G106">
         <v>409</v>
       </c>
-      <c r="H106" t="s">
+      <c r="G106" t="s">
         <v>239</v>
       </c>
-      <c r="I106">
+      <c r="H106">
         <v>3975</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>105</v>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>873637.94</v>
       </c>
       <c r="C107">
-        <v>873637.94</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>5366633.0599999996</v>
       </c>
       <c r="E107">
-        <v>5366633.0599999996</v>
+        <v>6240271</v>
       </c>
       <c r="F107">
-        <v>6240271</v>
-      </c>
-      <c r="G107">
         <v>408</v>
       </c>
-      <c r="H107" t="s">
+      <c r="G107" t="s">
         <v>239</v>
       </c>
-      <c r="I107">
+      <c r="H107">
         <v>3976</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>106</v>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>1834151.34</v>
       </c>
       <c r="C108">
-        <v>1834151.34</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>11266929.66</v>
       </c>
       <c r="E108">
-        <v>11266929.66</v>
+        <v>13101081</v>
       </c>
       <c r="F108">
-        <v>13101081</v>
-      </c>
-      <c r="G108">
         <v>404</v>
       </c>
-      <c r="H108" t="s">
+      <c r="G108" t="s">
         <v>239</v>
       </c>
-      <c r="I108">
+      <c r="H108">
         <v>3979</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>107</v>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>2340310.7000000002</v>
       </c>
       <c r="C109">
-        <v>2340310.7000000002</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>14376194.300000001</v>
       </c>
       <c r="E109">
-        <v>14376194.300000001</v>
+        <v>16716505</v>
       </c>
       <c r="F109">
-        <v>16716505</v>
-      </c>
-      <c r="G109">
         <v>408</v>
       </c>
-      <c r="H109" t="s">
+      <c r="G109" t="s">
         <v>239</v>
       </c>
-      <c r="I109">
+      <c r="H109">
         <v>3980</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>108</v>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1568890.82</v>
       </c>
       <c r="C110">
-        <v>1568890.82</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>9637472.0999999996</v>
       </c>
       <c r="E110">
-        <v>9637472.0999999996</v>
+        <v>11206362.92</v>
       </c>
       <c r="F110">
-        <v>11206362.92</v>
-      </c>
-      <c r="G110">
         <v>406</v>
       </c>
-      <c r="H110" t="s">
+      <c r="G110" t="s">
         <v>239</v>
       </c>
-      <c r="I110">
+      <c r="H110">
         <v>3983</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>109</v>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>518839.72</v>
       </c>
       <c r="C111">
-        <v>518839.72</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>3187158.28</v>
       </c>
       <c r="E111">
-        <v>3187158.28</v>
+        <v>3705998</v>
       </c>
       <c r="F111">
-        <v>3705998</v>
-      </c>
-      <c r="G111">
         <v>405</v>
       </c>
-      <c r="H111" t="s">
+      <c r="G111" t="s">
         <v>239</v>
       </c>
-      <c r="I111">
+      <c r="H111">
         <v>3982</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>110</v>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>2167640</v>
       </c>
       <c r="C112">
-        <v>2167640</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>13315506</v>
       </c>
       <c r="E112">
-        <v>13315506</v>
+        <v>15483146</v>
       </c>
       <c r="F112">
-        <v>15483146</v>
-      </c>
-      <c r="G112">
         <v>406</v>
       </c>
-      <c r="H112" t="s">
+      <c r="G112" t="s">
         <v>239</v>
       </c>
-      <c r="I112">
+      <c r="H112">
         <v>3984</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>111</v>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>676010.20000000007</v>
       </c>
       <c r="C113">
-        <v>676010.20000000007</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>4152632.68</v>
       </c>
       <c r="E113">
-        <v>4152632.68</v>
+        <v>4828642.88</v>
       </c>
       <c r="F113">
-        <v>4828642.88</v>
-      </c>
-      <c r="G113">
         <v>409</v>
       </c>
-      <c r="H113" t="s">
+      <c r="G113" t="s">
         <v>239</v>
       </c>
-      <c r="I113">
+      <c r="H113">
         <v>3985</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>112</v>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>51298.52</v>
       </c>
       <c r="C114">
-        <v>51298.52</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>315119.45</v>
       </c>
       <c r="E114">
-        <v>315119.45</v>
+        <v>366417.97</v>
       </c>
       <c r="F114">
-        <v>366417.97</v>
-      </c>
-      <c r="G114">
         <v>402</v>
       </c>
-      <c r="H114" t="s">
+      <c r="G114" t="s">
         <v>239</v>
       </c>
-      <c r="I114">
+      <c r="H114">
         <v>3986</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>113</v>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>2884.54</v>
       </c>
       <c r="C115">
-        <v>2884.54</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>17719.310000000001</v>
       </c>
       <c r="E115">
-        <v>17719.310000000001</v>
+        <v>20603.849999999999</v>
       </c>
       <c r="F115">
-        <v>20603.849999999999</v>
-      </c>
-      <c r="G115">
         <v>404</v>
       </c>
-      <c r="H115" t="s">
+      <c r="G115" t="s">
         <v>239</v>
       </c>
-      <c r="I115">
+      <c r="H115">
         <v>3986</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>114</v>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>543799.64</v>
       </c>
       <c r="C116">
-        <v>543799.64</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>3340483.54</v>
       </c>
       <c r="E116">
-        <v>3340483.54</v>
+        <v>3884283.18</v>
       </c>
       <c r="F116">
-        <v>3884283.18</v>
-      </c>
-      <c r="G116">
         <v>409</v>
       </c>
-      <c r="H116" t="s">
+      <c r="G116" t="s">
         <v>239</v>
       </c>
-      <c r="I116">
+      <c r="H116">
         <v>3986</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>115</v>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>519371.58</v>
       </c>
       <c r="C117">
-        <v>519371.58</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>3475794</v>
       </c>
       <c r="E117">
-        <v>3475794</v>
+        <v>3995165.58</v>
       </c>
       <c r="F117">
-        <v>3995165.58</v>
-      </c>
-      <c r="G117">
         <v>404</v>
       </c>
-      <c r="H117" t="s">
+      <c r="G117" t="s">
         <v>239</v>
       </c>
-      <c r="I117">
+      <c r="H117">
         <v>3990</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>116</v>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1048318.64</v>
       </c>
       <c r="C118">
-        <v>1048318.64</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>7022996.3200000003</v>
       </c>
       <c r="E118">
-        <v>7022996.3200000003</v>
+        <v>8071314.96</v>
       </c>
       <c r="F118">
-        <v>8071314.96</v>
-      </c>
-      <c r="G118">
         <v>404</v>
       </c>
-      <c r="H118" t="s">
+      <c r="G118" t="s">
         <v>239</v>
       </c>
-      <c r="I118">
+      <c r="H118">
         <v>4037</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>117</v>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>602645.49</v>
       </c>
       <c r="C119">
-        <v>602645.49</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>4025763.56</v>
       </c>
       <c r="E119">
-        <v>4025763.56</v>
+        <v>4628409.05</v>
       </c>
       <c r="F119">
-        <v>4628409.05</v>
-      </c>
-      <c r="G119">
         <v>409</v>
       </c>
-      <c r="H119" t="s">
+      <c r="G119" t="s">
         <v>239</v>
       </c>
-      <c r="I119">
+      <c r="H119">
         <v>4037</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>118</v>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>621163.76</v>
       </c>
       <c r="C120">
-        <v>621163.76</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>3815720.24</v>
       </c>
       <c r="E120">
-        <v>3815720.24</v>
+        <v>4436884</v>
       </c>
       <c r="F120">
-        <v>4436884</v>
-      </c>
-      <c r="G120">
         <v>404</v>
       </c>
-      <c r="H120" t="s">
+      <c r="G120" t="s">
         <v>239</v>
       </c>
-      <c r="I120">
+      <c r="H120">
         <v>4030</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>119</v>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>68774.16</v>
       </c>
       <c r="C121">
-        <v>68774.16</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>422469.83</v>
       </c>
       <c r="E121">
-        <v>422469.83</v>
+        <v>491243.99</v>
       </c>
       <c r="F121">
-        <v>491243.99</v>
-      </c>
-      <c r="G121">
         <v>402</v>
       </c>
-      <c r="H121" t="s">
+      <c r="G121" t="s">
         <v>239</v>
       </c>
-      <c r="I121">
+      <c r="H121">
         <v>4036</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>120</v>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>2794367.94</v>
       </c>
       <c r="C122">
-        <v>2794367.94</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>17165403.07</v>
       </c>
       <c r="E122">
-        <v>17165403.07</v>
+        <v>19959771.010000002</v>
       </c>
       <c r="F122">
-        <v>19959771.010000002</v>
-      </c>
-      <c r="G122">
         <v>404</v>
       </c>
-      <c r="H122" t="s">
+      <c r="G122" t="s">
         <v>239</v>
       </c>
-      <c r="I122">
+      <c r="H122">
         <v>4036</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>121</v>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1903587.6</v>
       </c>
       <c r="C123">
-        <v>1903587.6</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>11693466.710000001</v>
       </c>
       <c r="E123">
-        <v>11693466.710000001</v>
+        <v>13597054.310000001</v>
       </c>
       <c r="F123">
-        <v>13597054.310000001</v>
-      </c>
-      <c r="G123">
         <v>402</v>
       </c>
-      <c r="H123" t="s">
+      <c r="G123" t="s">
         <v>239</v>
       </c>
-      <c r="I123">
+      <c r="H123">
         <v>3991</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>122</v>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>455043.5</v>
       </c>
       <c r="C124">
-        <v>455043.5</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>2795267.19</v>
       </c>
       <c r="E124">
-        <v>2795267.19</v>
+        <v>3250310.69</v>
       </c>
       <c r="F124">
-        <v>3250310.69</v>
-      </c>
-      <c r="G124">
         <v>409</v>
       </c>
-      <c r="H124" t="s">
+      <c r="G124" t="s">
         <v>239</v>
       </c>
-      <c r="I124">
+      <c r="H124">
         <v>3991</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>123</v>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>1635373.04</v>
       </c>
       <c r="C125">
-        <v>1635373.04</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>10045862.960000001</v>
       </c>
       <c r="E125">
-        <v>10045862.960000001</v>
+        <v>11681236</v>
       </c>
       <c r="F125">
-        <v>11681236</v>
-      </c>
-      <c r="G125">
         <v>407</v>
       </c>
-      <c r="H125" t="s">
+      <c r="G125" t="s">
         <v>239</v>
       </c>
-      <c r="I125">
+      <c r="H125">
         <v>4034</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>124</v>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>537107.19999999995</v>
       </c>
       <c r="C126">
-        <v>537107.19999999995</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>3299372.8</v>
       </c>
       <c r="E126">
-        <v>3299372.8</v>
+        <v>3836480</v>
       </c>
       <c r="F126">
-        <v>3836480</v>
-      </c>
-      <c r="G126">
         <v>408</v>
       </c>
-      <c r="H126" t="s">
+      <c r="G126" t="s">
         <v>239</v>
       </c>
-      <c r="I126">
+      <c r="H126">
         <v>4038</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>125</v>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1507331.46</v>
       </c>
       <c r="C127">
-        <v>1507331.46</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>9259321.8200000003</v>
       </c>
       <c r="E127">
-        <v>9259321.8200000003</v>
+        <v>10766653.279999999</v>
       </c>
       <c r="F127">
-        <v>10766653.279999999</v>
-      </c>
-      <c r="G127">
         <v>404</v>
       </c>
-      <c r="H127" t="s">
+      <c r="G127" t="s">
         <v>239</v>
       </c>
-      <c r="I127">
+      <c r="H127">
         <v>3995</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>126</v>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>705001.74</v>
       </c>
       <c r="C128">
-        <v>705001.74</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>4330724.9800000004</v>
       </c>
       <c r="E128">
-        <v>4330724.9800000004</v>
+        <v>5035726.7200000007</v>
       </c>
       <c r="F128">
-        <v>5035726.7200000007</v>
-      </c>
-      <c r="G128">
         <v>409</v>
       </c>
-      <c r="H128" t="s">
+      <c r="G128" t="s">
         <v>239</v>
       </c>
-      <c r="I128">
+      <c r="H128">
         <v>3995</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>127</v>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>547239.29</v>
       </c>
       <c r="C129">
-        <v>547239.29</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>3662293.71</v>
       </c>
       <c r="E129">
-        <v>3662293.71</v>
+        <v>4209533</v>
       </c>
       <c r="F129">
-        <v>4209533</v>
-      </c>
-      <c r="G129">
         <v>411</v>
       </c>
-      <c r="H129" t="s">
+      <c r="G129" t="s">
         <v>239</v>
       </c>
-      <c r="I129">
+      <c r="H129">
         <v>4031</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>128</v>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>152913.96</v>
       </c>
       <c r="C130">
-        <v>152913.96</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>939328.61</v>
       </c>
       <c r="E130">
-        <v>939328.61</v>
+        <v>1092242.57</v>
       </c>
       <c r="F130">
-        <v>1092242.57</v>
-      </c>
-      <c r="G130">
         <v>404</v>
       </c>
-      <c r="H130" t="s">
+      <c r="G130" t="s">
         <v>239</v>
       </c>
-      <c r="I130">
+      <c r="H130">
         <v>4021</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>129</v>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>919237.26</v>
       </c>
       <c r="C131">
-        <v>919237.26</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>5646743.1699999999</v>
       </c>
       <c r="E131">
-        <v>5646743.1699999999</v>
+        <v>6565980.4299999997</v>
       </c>
       <c r="F131">
-        <v>6565980.4299999997</v>
-      </c>
-      <c r="G131">
         <v>405</v>
       </c>
-      <c r="H131" t="s">
+      <c r="G131" t="s">
         <v>239</v>
       </c>
-      <c r="I131">
+      <c r="H131">
         <v>4021</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>130</v>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>360480.25</v>
       </c>
       <c r="C132">
-        <v>360480.25</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>2412444.75</v>
       </c>
       <c r="E132">
-        <v>2412444.75</v>
+        <v>2772925</v>
       </c>
       <c r="F132">
-        <v>2772925</v>
-      </c>
-      <c r="G132">
         <v>405</v>
       </c>
-      <c r="H132" t="s">
+      <c r="G132" t="s">
         <v>239</v>
       </c>
-      <c r="I132">
+      <c r="H132">
         <v>4010</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
-        <v>131</v>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>254904.63</v>
       </c>
       <c r="C133">
-        <v>254904.63</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1565842.72</v>
       </c>
       <c r="E133">
-        <v>1565842.72</v>
+        <v>1820747.35</v>
       </c>
       <c r="F133">
-        <v>1820747.35</v>
-      </c>
-      <c r="G133">
         <v>404</v>
       </c>
-      <c r="H133" t="s">
+      <c r="G133" t="s">
         <v>239</v>
       </c>
-      <c r="I133">
+      <c r="H133">
         <v>4039</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>132</v>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>169568.04</v>
       </c>
       <c r="C134">
-        <v>169568.04</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>1041632.22</v>
       </c>
       <c r="E134">
-        <v>1041632.22</v>
+        <v>1211200.26</v>
       </c>
       <c r="F134">
-        <v>1211200.26</v>
-      </c>
-      <c r="G134">
         <v>405</v>
       </c>
-      <c r="H134" t="s">
+      <c r="G134" t="s">
         <v>239</v>
       </c>
-      <c r="I134">
+      <c r="H134">
         <v>4039</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
-        <v>133</v>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>3063.68</v>
       </c>
       <c r="C135">
-        <v>3063.68</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>18819.73</v>
       </c>
       <c r="E135">
-        <v>18819.73</v>
+        <v>21883.41</v>
       </c>
       <c r="F135">
-        <v>21883.41</v>
-      </c>
-      <c r="G135">
         <v>409</v>
       </c>
-      <c r="H135" t="s">
+      <c r="G135" t="s">
         <v>239</v>
       </c>
-      <c r="I135">
+      <c r="H135">
         <v>4039</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
-        <v>134</v>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>738001.16</v>
       </c>
       <c r="C136">
-        <v>738001.16</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>4938930.84</v>
       </c>
       <c r="E136">
-        <v>4938930.84</v>
+        <v>5676932</v>
       </c>
       <c r="F136">
-        <v>5676932</v>
-      </c>
-      <c r="G136">
         <v>409</v>
       </c>
-      <c r="H136" t="s">
+      <c r="G136" t="s">
         <v>239</v>
       </c>
-      <c r="I136">
+      <c r="H136">
         <v>4035</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
-        <v>135</v>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>139782.47</v>
       </c>
       <c r="C137">
-        <v>139782.47</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>858663.75</v>
       </c>
       <c r="E137">
-        <v>858663.75</v>
+        <v>998446.22</v>
       </c>
       <c r="F137">
-        <v>998446.22</v>
-      </c>
-      <c r="G137">
         <v>404</v>
       </c>
-      <c r="H137" t="s">
+      <c r="G137" t="s">
         <v>239</v>
       </c>
-      <c r="I137">
+      <c r="H137">
         <v>4033</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
-        <v>136</v>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>134681.23000000001</v>
       </c>
       <c r="C138">
-        <v>134681.23000000001</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>827327.55</v>
       </c>
       <c r="E138">
-        <v>827327.55</v>
+        <v>962008.78</v>
       </c>
       <c r="F138">
-        <v>962008.78</v>
-      </c>
-      <c r="G138">
         <v>409</v>
       </c>
-      <c r="H138" t="s">
+      <c r="G138" t="s">
         <v>239</v>
       </c>
-      <c r="I138">
+      <c r="H138">
         <v>4033</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
-        <v>137</v>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>1101691.92</v>
       </c>
       <c r="C139">
-        <v>1101691.92</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>6767346.0800000001</v>
       </c>
       <c r="E139">
-        <v>6767346.0800000001</v>
+        <v>7869038</v>
       </c>
       <c r="F139">
-        <v>7869038</v>
-      </c>
-      <c r="G139">
         <v>405</v>
       </c>
-      <c r="H139" t="s">
+      <c r="G139" t="s">
         <v>239</v>
       </c>
-      <c r="I139">
+      <c r="H139">
         <v>4029</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
-        <v>138</v>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>111409.39</v>
       </c>
       <c r="C140">
-        <v>111409.39</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>684371.95</v>
       </c>
       <c r="E140">
-        <v>684371.95</v>
+        <v>795781.34</v>
       </c>
       <c r="F140">
-        <v>795781.34</v>
-      </c>
-      <c r="G140">
         <v>402</v>
       </c>
-      <c r="H140" t="s">
+      <c r="G140" t="s">
         <v>239</v>
       </c>
-      <c r="I140">
+      <c r="H140">
         <v>4032</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
-        <v>139</v>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>145566.37</v>
       </c>
       <c r="C141">
-        <v>145566.37</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>894193.39</v>
       </c>
       <c r="E141">
-        <v>894193.39</v>
+        <v>1039759.76</v>
       </c>
       <c r="F141">
-        <v>1039759.76</v>
-      </c>
-      <c r="G141">
         <v>404</v>
       </c>
-      <c r="H141" t="s">
+      <c r="G141" t="s">
         <v>239</v>
       </c>
-      <c r="I141">
+      <c r="H141">
         <v>4032</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>140</v>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>723530.63</v>
       </c>
       <c r="C142">
-        <v>723530.63</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>4444545.28</v>
       </c>
       <c r="E142">
-        <v>4444545.28</v>
+        <v>5168075.91</v>
       </c>
       <c r="F142">
-        <v>5168075.91</v>
-      </c>
-      <c r="G142">
         <v>409</v>
       </c>
-      <c r="H142" t="s">
+      <c r="G142" t="s">
         <v>239</v>
       </c>
-      <c r="I142">
+      <c r="H142">
         <v>4032</v>
       </c>
     </row>
@@ -52674,7 +52259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="mobilization_original_input" sheetId="11" r:id="rId11"/>
     <sheet name="civil_expenditure_list" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="140">
   <si>
     <t xml:space="preserve">Sl No </t>
   </si>
@@ -92,40 +92,55 @@
     <t>Voucher No</t>
   </si>
   <si>
-    <t>126/Kish-02 1st Bill</t>
+    <t>126/KISH-02 1st Bill</t>
   </si>
   <si>
-    <t>149/Kish-07 1st Bill</t>
+    <t>149/KISH-07 1st Bill</t>
   </si>
   <si>
-    <t>152/Kish-02 .. Bill</t>
+    <t>152/KISH-02 .. Bill</t>
   </si>
   <si>
-    <t>176/Kish-13 1st Bill</t>
+    <t xml:space="preserve">Netr(GATE) </t>
   </si>
   <si>
-    <t>197/Kish-14 1st Bill</t>
+    <t>176/KISH-13 1st Bill</t>
   </si>
   <si>
-    <t>198/Kish-5 1st Bill</t>
+    <t>197/KISH-14 1st Bill</t>
   </si>
   <si>
-    <t>201/Kish-6 1st Bill</t>
+    <t>198/KISH-5 1st Bill</t>
   </si>
   <si>
-    <t>234/Kish-13 2nd Bill</t>
+    <t>201/KISH-6 1st Bill</t>
   </si>
   <si>
-    <t>241/Kish-07 2nd Bill</t>
+    <t>227/KISH/HFMLIP/02</t>
   </si>
   <si>
-    <t>242/Kish-03 1st Bill</t>
+    <t>228/KISH-04 1st Bill</t>
+  </si>
+  <si>
+    <t>234/KISH-13 2nd Bill</t>
+  </si>
+  <si>
+    <t>241/KISH-07 2nd Bill</t>
+  </si>
+  <si>
+    <t>242/KISH-03 1st Bill</t>
   </si>
   <si>
     <t xml:space="preserve">KISH-02 </t>
   </si>
   <si>
     <t>KISH-07</t>
+  </si>
+  <si>
+    <t>KISH-02</t>
+  </si>
+  <si>
+    <t>GATE-01</t>
   </si>
   <si>
     <t>KISH-13</t>
@@ -140,7 +155,13 @@
     <t>KISH-06</t>
   </si>
   <si>
+    <t>KISH-04</t>
+  </si>
+  <si>
     <t>KISH-03</t>
+  </si>
+  <si>
+    <t>GATE-02</t>
   </si>
   <si>
     <t>PackageNo</t>
@@ -207,12 +228,6 @@
   </si>
   <si>
     <t>KISH-01</t>
-  </si>
-  <si>
-    <t>KISH-02</t>
-  </si>
-  <si>
-    <t>KISH-04</t>
   </si>
   <si>
     <t>KISH-09</t>
@@ -341,16 +356,46 @@
     <t>SUNM-06</t>
   </si>
   <si>
-    <t>GT-01</t>
+    <t>GATE-03</t>
   </si>
   <si>
-    <t>GT-02</t>
+    <t>126/Kish-02 1st Bill</t>
   </si>
   <si>
-    <t>GT-03</t>
+    <t>149/Kish-07 1st Bill</t>
   </si>
   <si>
-    <t>152/Kish-02  Bill</t>
+    <t>152/Kish-02 .. Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netr(Gate) </t>
+  </si>
+  <si>
+    <t>176/Kish-13 1st Bill</t>
+  </si>
+  <si>
+    <t>197/Kish-14 1st Bill</t>
+  </si>
+  <si>
+    <t>198/Kish-5 1st Bill</t>
+  </si>
+  <si>
+    <t>201/Kish-6 1st Bill</t>
+  </si>
+  <si>
+    <t>227/Kish/HFMLIP/02</t>
+  </si>
+  <si>
+    <t>228/Kish-04 1st Bill</t>
+  </si>
+  <si>
+    <t>234/Kish-13 2nd Bill</t>
+  </si>
+  <si>
+    <t>241/Kish-07 2nd Bill</t>
+  </si>
+  <si>
+    <t>242/Kish-03 1st Bill</t>
   </si>
   <si>
     <t>id</t>
@@ -377,6 +422,9 @@
     <t>2017-03-30</t>
   </si>
   <si>
+    <t>2017-06-13</t>
+  </si>
+  <si>
     <t>2017-04-18</t>
   </si>
   <si>
@@ -387,6 +435,12 @@
   </si>
   <si>
     <t>2017-05-28</t>
+  </si>
+  <si>
+    <t>2016-09-26</t>
+  </si>
+  <si>
+    <t>2017-06-18</t>
   </si>
   <si>
     <t>2017-06-19</t>
@@ -454,11 +508,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,15 +824,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -850,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9871121</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9871121</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -886,10 +945,10 @@
         <v>8785298</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -898,12 +957,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -948,13 +1007,13 @@
         <v>1138308</v>
       </c>
       <c r="Q3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -963,12 +1022,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -980,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14978253</v>
+        <v>9868708.6000000015</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -995,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5109544.3999999994</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1010,13 +1069,13 @@
         <v>14978253</v>
       </c>
       <c r="P4">
-        <v>888885.20880000002</v>
+        <v>1787580.2087999999</v>
       </c>
       <c r="Q4">
-        <v>13108924.531199999</v>
+        <v>13108925.361199999</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -1028,12 +1087,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1045,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14259856</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1069,36 +1128,36 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="O5">
-        <v>14259856</v>
+        <v>3000000</v>
       </c>
       <c r="P5">
-        <v>1801319.6532000001</v>
+        <v>360000</v>
       </c>
       <c r="Q5">
-        <v>12021358.456800001</v>
+        <v>2640000</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1110,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2111691.5699999998</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1125,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4144654</v>
+        <v>12148164.43</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1137,33 +1196,33 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4144654</v>
+        <v>14259856</v>
       </c>
       <c r="P6">
-        <v>497358</v>
+        <v>1801319.9332000001</v>
       </c>
       <c r="Q6">
-        <v>3647296</v>
+        <v>12021358.1768</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1190,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9280540</v>
+        <v>4144654</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1202,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9280540</v>
+        <v>4144654</v>
       </c>
       <c r="P7">
-        <v>1113665</v>
+        <v>497358</v>
       </c>
       <c r="Q7">
-        <v>8166875</v>
+        <v>3647296</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1220,15 +1279,15 @@
         <v>5</v>
       </c>
       <c r="U7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1240,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4132973.5</v>
+        <v>6397963.3899999997</v>
       </c>
       <c r="G8">
-        <v>6195366.8830000004</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1255,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2882576.61</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1267,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10328340.382999999</v>
+        <v>9280540</v>
       </c>
       <c r="P8">
-        <v>1239401</v>
+        <v>1113665</v>
       </c>
       <c r="Q8">
-        <v>9088939</v>
+        <v>8166875</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1285,15 +1344,15 @@
         <v>5</v>
       </c>
       <c r="U8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1305,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4132973.5</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6195366.8830000004</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1320,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2555298.56</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1332,33 +1391,33 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2555298.56</v>
+        <v>10328340.382999999</v>
       </c>
       <c r="P9">
-        <v>332188.81</v>
+        <v>1239401</v>
       </c>
       <c r="Q9">
-        <v>2223109.7400000002</v>
+        <v>9088939</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1385,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>967951</v>
+        <v>4262665.3499999996</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1397,16 +1456,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>967951</v>
+        <v>4262665.3499999996</v>
       </c>
       <c r="P10">
-        <v>116154</v>
+        <v>468893.18</v>
       </c>
       <c r="Q10">
-        <v>851797</v>
+        <v>3793772.16</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S10">
         <v>2</v>
@@ -1415,15 +1474,15 @@
         <v>6</v>
       </c>
       <c r="U10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1435,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2963861</v>
+        <v>12499297</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1450,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2323597</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1462,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5287458</v>
+        <v>12499297</v>
       </c>
       <c r="P11">
-        <v>556858.13199999998</v>
+        <v>1624908.62</v>
       </c>
       <c r="Q11">
-        <v>4083625.9679999999</v>
+        <v>10874388.380000001</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1480,7 +1539,267 @@
         <v>6</v>
       </c>
       <c r="U11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2555298.56</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2555298.56</v>
+      </c>
+      <c r="P12">
+        <v>332188.79999999999</v>
+      </c>
+      <c r="Q12">
+        <v>2223109.7599999998</v>
+      </c>
+      <c r="R12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>967951</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>967951</v>
+      </c>
+      <c r="P13">
+        <v>116154</v>
+      </c>
+      <c r="Q13">
+        <v>851797</v>
+      </c>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2963861</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>4026070.88</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>6989931.8800000008</v>
+      </c>
+      <c r="P14">
+        <v>556858.13199999998</v>
+      </c>
+      <c r="Q14">
+        <v>4083625.9679999999</v>
+      </c>
+      <c r="R14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="U14">
         <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2969931</v>
+      </c>
+      <c r="O15">
+        <v>2969931</v>
+      </c>
+      <c r="P15">
+        <v>356392</v>
+      </c>
+      <c r="Q15">
+        <v>2613539</v>
+      </c>
+      <c r="R15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1490,13 +1809,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1569,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8785298</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8785298</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1599,10 +1918,10 @@
         <v>8785298</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -1611,12 +1930,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1631,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1655,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -1670,12 +1989,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1687,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13134764.83</v>
+        <v>8662906.620000001</v>
       </c>
       <c r="G4">
         <v>43637.88</v>
@@ -1702,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2460.3000000000002</v>
+        <v>4474319.3499999996</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1714,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13180863.01</v>
+        <v>13180863.85</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1729,12 +2048,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1746,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12184786.050000001</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1761,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>221288.95999999999</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1770,30 +2089,30 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2640000</v>
       </c>
       <c r="O5">
-        <v>12406075.01</v>
+        <v>2640000</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1805,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1943627.95</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1820,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3647296</v>
+        <v>10462446.779999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1832,27 +2151,27 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3647296</v>
+        <v>12406074.73</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1879,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8166875</v>
+        <v>3647296</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1891,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8166875</v>
+        <v>3647296</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1903,15 +2222,15 @@
         <v>5</v>
       </c>
       <c r="S7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1923,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3637016.47</v>
+        <v>5630207.6500000004</v>
       </c>
       <c r="G8">
-        <v>5451922.5300000003</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1938,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2536667.35</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1950,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9088939</v>
+        <v>8166875</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1962,15 +2281,15 @@
         <v>5</v>
       </c>
       <c r="S8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1982,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3637016.47</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5451922.5300000003</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1997,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2223109.7400000002</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2009,27 +2328,27 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2223109.7400000002</v>
+        <v>9088939</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -2056,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>851797</v>
+        <v>3793772.16</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2068,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>851797</v>
+        <v>3793772.16</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2080,15 +2399,15 @@
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -2100,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2417500.75</v>
+        <v>10874388.380000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2115,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2235462.2400000002</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2127,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4652962.99</v>
+        <v>10874388.380000001</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -2139,7 +2458,243 @@
         <v>6</v>
       </c>
       <c r="S11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2223109.7599999998</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2223109.7599999998</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>851797</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>851797</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1859975.72</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2792987.28</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4652963</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
         <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2613539</v>
+      </c>
+      <c r="O15">
+        <v>2613539</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2149,13 +2704,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2225,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2270,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -2282,15 +2839,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2335,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -2347,15 +2904,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2400,7 +2957,7 @@
         <v>71938.468800000002</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -2412,15 +2969,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2456,36 +3013,36 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>437177.89</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>52461.346799999999</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>384716.54320000001</v>
+        <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2521,36 +3078,36 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>437177.89</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>52461.346799999999</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>384716.54320000001</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2595,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -2604,18 +3161,18 @@
         <v>5</v>
       </c>
       <c r="U7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2660,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -2669,18 +3226,18 @@
         <v>5</v>
       </c>
       <c r="U8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2725,27 +3282,27 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2790,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S10">
         <v>2</v>
@@ -2799,18 +3356,18 @@
         <v>6</v>
       </c>
       <c r="U10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2846,16 +3403,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>646973.9</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>77636.868000000002</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>569337.03200000001</v>
+        <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -2864,7 +3421,267 @@
         <v>6</v>
       </c>
       <c r="U11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>646973.9</v>
+      </c>
+      <c r="P14">
+        <v>77636.868000000002</v>
+      </c>
+      <c r="Q14">
+        <v>569337.03200000001</v>
+      </c>
+      <c r="R14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="U14">
         <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2874,23 +3691,28 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -2899,16 +3721,16 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2918,23 +3740,23 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>8785298</v>
       </c>
       <c r="F2">
         <v>9871121</v>
       </c>
       <c r="G2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="I2">
         <v>9672</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2944,49 +3766,49 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>8442449</v>
+      <c r="E3" s="2">
+        <v>8347590</v>
       </c>
       <c r="F3">
-        <v>9580757</v>
+        <v>9485898</v>
       </c>
       <c r="G3">
         <v>681</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I3">
         <v>9695</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>892408.89</v>
+        <v>1181305.1100000001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>13134764.83</v>
+      <c r="E4" s="2">
+        <v>8662906.620000001</v>
       </c>
       <c r="F4">
-        <v>14027173.720000001</v>
+        <v>9844211.7300000004</v>
       </c>
       <c r="G4">
         <v>680</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I4">
         <v>9698</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2996,7 +3818,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>43637.88</v>
       </c>
       <c r="F5">
@@ -3006,297 +3828,434 @@
         <v>681</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I5">
         <v>9698</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>335.49</v>
+        <v>610134.27</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>2460.3000000000002</v>
+      <c r="E6" s="2">
+        <v>4474319.3499999996</v>
       </c>
       <c r="F6">
-        <v>2795.79</v>
+        <v>5084453.6199999992</v>
       </c>
       <c r="G6">
         <v>685</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I6">
         <v>9698</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1823605.23</v>
+        <v>360000</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>12184786.050000001</v>
+      <c r="E7" s="2">
+        <v>2640000</v>
       </c>
       <c r="F7">
-        <v>14008391.279999999</v>
+        <v>3000000</v>
       </c>
       <c r="G7">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="I7">
-        <v>9722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>30175.77</v>
+        <v>289036.67</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>221288.95999999999</v>
+      <c r="E8" s="2">
+        <v>1943627.95</v>
       </c>
       <c r="F8">
-        <v>251464.73</v>
+        <v>2232664.62</v>
       </c>
       <c r="G8">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I8">
         <v>9722</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>497358</v>
+        <v>1564744.61</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>3647296</v>
+      <c r="E9" s="2">
+        <v>10462446.779999999</v>
       </c>
       <c r="F9">
-        <v>4144654</v>
+        <v>12027191.390000001</v>
       </c>
       <c r="G9">
         <v>685</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I9">
-        <v>9744</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1113665</v>
+        <v>497358</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>8166875</v>
+      <c r="E10" s="2">
+        <v>3647296</v>
       </c>
       <c r="F10">
-        <v>9280540</v>
+        <v>4144654</v>
       </c>
       <c r="G10">
         <v>685</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="I10">
-        <v>9745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>495956.88</v>
+        <v>767755.74</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>3637016.47</v>
+      <c r="E11" s="2">
+        <v>5630207.6500000004</v>
       </c>
       <c r="F11">
-        <v>4132973.35</v>
+        <v>6397963.3900000006</v>
       </c>
       <c r="G11">
         <v>680</v>
       </c>
       <c r="H11" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="I11">
-        <v>9748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>743444.12</v>
+        <v>345909.26</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>5451922.5300000003</v>
+      <c r="E12" s="2">
+        <v>2536667.35</v>
       </c>
       <c r="F12">
-        <v>6195366.6500000004</v>
+        <v>2882576.61</v>
       </c>
       <c r="G12">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="I12">
-        <v>9748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>332188.81</v>
+        <v>495956.88</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>2223109.7400000002</v>
+      <c r="E13" s="2">
+        <v>3637016.47</v>
       </c>
       <c r="F13">
-        <v>2555298.5499999998</v>
+        <v>4132973.35</v>
       </c>
       <c r="G13">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="I13">
-        <v>9781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>116154</v>
+        <v>743444.12</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>851797</v>
+      <c r="E14" s="2">
+        <v>5451922.5300000003</v>
       </c>
       <c r="F14">
-        <v>967951</v>
+        <v>6195366.6500000004</v>
       </c>
       <c r="G14">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="I14">
-        <v>9788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>329659.21999999997</v>
+        <v>468893.18</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>2417500.75</v>
+      <c r="E15" s="2">
+        <v>3793772.16</v>
       </c>
       <c r="F15">
-        <v>2747159.97</v>
+        <v>4262665.34</v>
       </c>
       <c r="G15">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="I15">
-        <v>9789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>304835.78000000003</v>
+        <v>1624908.62</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>2235462.2400000002</v>
+      <c r="E16" s="2">
+        <v>10874388.380000001</v>
       </c>
       <c r="F16">
-        <v>2540298.02</v>
+        <v>12499297</v>
       </c>
       <c r="G16">
+        <v>680</v>
+      </c>
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16">
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>332188.79999999999</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2223109.7599999998</v>
+      </c>
+      <c r="F17">
+        <v>2555298.56</v>
+      </c>
+      <c r="G17">
         <v>685</v>
       </c>
-      <c r="H16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16">
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>116154</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>851797</v>
+      </c>
+      <c r="F18">
+        <v>967951</v>
+      </c>
+      <c r="G18">
+        <v>681</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18">
+        <v>9788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>253633.08</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1859975.72</v>
+      </c>
+      <c r="F19">
+        <v>2113608.7999999998</v>
+      </c>
+      <c r="G19">
+        <v>680</v>
+      </c>
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19">
         <v>9789</v>
       </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>380861.93</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2792987.28</v>
+      </c>
+      <c r="F20">
+        <v>3173849.21</v>
+      </c>
+      <c r="G20">
+        <v>685</v>
+      </c>
+      <c r="H20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20">
+        <v>9789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>356392</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2613539</v>
+      </c>
+      <c r="F21">
+        <v>2969931</v>
+      </c>
+      <c r="G21">
+        <v>660</v>
+      </c>
+      <c r="H21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21">
+        <v>9790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3305,13 +4264,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +4326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3384,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3414,10 +4373,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -3426,12 +4385,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -3473,10 +4432,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -3485,12 +4444,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -3502,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.65886913513879097</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3517,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.34113086486120908</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3532,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -3544,12 +4503,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -3561,54 +4520,54 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -3620,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.14808645823632441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3635,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.85191354176367562</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3650,24 +4609,24 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -3709,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -3718,15 +4677,15 @@
         <v>5</v>
       </c>
       <c r="S7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -3738,10 +4697,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.40015852951580633</v>
+        <v>0.68939559443739262</v>
       </c>
       <c r="G8">
-        <v>0.59984147048419367</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3753,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.31060440556260738</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3768,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3777,15 +4736,15 @@
         <v>5</v>
       </c>
       <c r="S8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -3797,10 +4756,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.40015852951580633</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.59984147048419367</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3812,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3827,24 +4786,24 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -3886,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3895,15 +4854,15 @@
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -3915,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.56054554003076718</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3930,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.43945445996923288</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3945,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3954,7 +4913,243 @@
         <v>6</v>
       </c>
       <c r="S11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.42401858142285642</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.57598141857714358</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
         <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3964,13 +5159,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4026,7 +5221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4043,13 +5238,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8785298</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8785298</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4073,10 +5268,10 @@
         <v>8785298</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -4085,12 +5280,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -4105,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4129,13 +5324,13 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -4144,12 +5339,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -4161,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13108924.529999999</v>
+        <v>8637066.3200000003</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4176,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4471859.05</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -4188,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13108924.529999999</v>
+        <v>13108925.369999999</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -4203,12 +5398,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -4220,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12021358.460000001</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4244,30 +5439,30 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2640000</v>
       </c>
       <c r="O5">
-        <v>12021358.460000001</v>
+        <v>2640000</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -4279,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1780200.36</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4294,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3647296</v>
+        <v>10241157.82</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4306,27 +5501,27 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3647296</v>
+        <v>12021358.18</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -4353,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8166875</v>
+        <v>3647296</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4365,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8166875</v>
+        <v>3647296</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -4377,15 +5572,15 @@
         <v>5</v>
       </c>
       <c r="S7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -4397,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3637016.47</v>
+        <v>5630207.6500000004</v>
       </c>
       <c r="G8">
-        <v>5451922.5300000003</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4412,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2536667.35</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4424,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9088939</v>
+        <v>8166875</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -4436,15 +5631,15 @@
         <v>5</v>
       </c>
       <c r="S8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -4456,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3637016.47</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5451922.5300000003</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4471,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2223109.7400000002</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4483,27 +5678,27 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2223109.7400000002</v>
+        <v>9088939</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -4530,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>851797</v>
+        <v>3793772.16</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4542,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>851797</v>
+        <v>3793772.16</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -4554,15 +5749,15 @@
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -4574,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2289058.3199999998</v>
+        <v>10874388.380000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4589,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1794567.64</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4601,10 +5796,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4083625.96</v>
+        <v>10874388.380000001</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -4613,7 +5808,243 @@
         <v>6</v>
       </c>
       <c r="S11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2223109.7599999998</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2223109.7599999998</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>851797</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>851797</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1731533.29</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2352092.6800000002</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4083625.97</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
         <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2613539</v>
+      </c>
+      <c r="O15">
+        <v>2613539</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4623,13 +6054,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4685,7 +6116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4702,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1085823</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1085823</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4732,10 +6163,10 @@
         <v>1085823</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -4744,12 +6175,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -4791,10 +6222,10 @@
         <v>1138308</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -4803,12 +6234,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -4820,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>888885.21</v>
+        <v>1177781.43</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4835,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>609798.78</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -4847,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>888885.21</v>
+        <v>1787580.21</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -4862,12 +6293,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -4879,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1801319.65</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4903,30 +6334,30 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="O5">
-        <v>1801319.65</v>
+        <v>360000</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -4938,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>266751.09000000003</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4953,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>497358</v>
+        <v>1534568.84</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4965,27 +6396,27 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>497358</v>
+        <v>1801319.93</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -5012,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1113665</v>
+        <v>497358</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -5024,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1113665</v>
+        <v>497358</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5036,15 +6467,15 @@
         <v>5</v>
       </c>
       <c r="S7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -5056,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>495956.88</v>
+        <v>767755.74</v>
       </c>
       <c r="G8">
-        <v>743444.12</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5071,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>345909.26</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -5083,10 +6514,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1239401</v>
+        <v>1113665</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -5095,15 +6526,15 @@
         <v>5</v>
       </c>
       <c r="S8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -5115,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>495956.88</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>743444.12</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -5130,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>332188.81</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5142,27 +6573,27 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>332188.81</v>
+        <v>1239401</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -5189,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>116154</v>
+        <v>468893.18</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5201,10 +6632,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>116154</v>
+        <v>468893.18</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -5213,15 +6644,15 @@
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -5233,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>312144.34000000003</v>
+        <v>1624908.62</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5248,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>244713.79</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5260,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>556858.13</v>
+        <v>1624908.62</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -5272,7 +6703,243 @@
         <v>6</v>
       </c>
       <c r="S11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>332188.79999999999</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>332188.79999999999</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>116154</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>116154</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>236118.2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>320739.94</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>556858.14</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
         <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>356392</v>
+      </c>
+      <c r="O15">
+        <v>356392</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5286,82 +6953,82 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5427,18 +7094,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1085823</v>
       </c>
       <c r="D3">
-        <v>1974708.21</v>
+        <v>2256473.39</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5495,18 +7162,18 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1974708.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3342296.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>556858.13</v>
+        <v>556858.14</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5566,18 +7233,18 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>556858.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <v>556858.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1624908.62</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -5637,15 +7304,15 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1624908.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>1113665</v>
@@ -5711,12 +7378,12 @@
         <v>1113665</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>1239401</v>
@@ -5782,15 +7449,15 @@
         <v>1239401</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1138308</v>
       </c>
       <c r="D8">
         <v>116154</v>
@@ -5808,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1138308</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5853,12 +7520,12 @@
         <v>1254462</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5924,12 +7591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5995,12 +7662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6066,12 +7733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6137,18 +7804,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>1801319.65</v>
+        <v>1801319.93</v>
       </c>
       <c r="D13">
-        <v>332188.81</v>
+        <v>332188.79999999999</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6205,15 +7872,15 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>2133508.46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2133508.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>497358</v>
@@ -6279,12 +7946,12 @@
         <v>497358</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6350,12 +8017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -6421,12 +8088,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6492,12 +8159,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6563,12 +8230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -6634,12 +8301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6705,12 +8372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -6776,12 +8443,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6847,12 +8514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6918,12 +8585,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6989,12 +8656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -7060,12 +8727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7131,12 +8798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7202,12 +8869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -7273,12 +8940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -7344,12 +9011,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -7415,12 +9082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -7486,12 +9153,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -7557,12 +9224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -7628,12 +9295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -7699,12 +9366,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -7770,12 +9437,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -7841,12 +9508,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -7912,12 +9579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -7983,12 +9650,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -8054,12 +9721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -8125,12 +9792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -8196,12 +9863,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -8267,12 +9934,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -8338,12 +10005,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -8409,12 +10076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -8480,12 +10147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -8551,12 +10218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -8622,12 +10289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -8693,12 +10360,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -8764,12 +10431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -8835,12 +10502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -8906,12 +10573,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -8977,15 +10644,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -9045,18 +10712,18 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>356392</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -9116,15 +10783,15 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+        <v>356392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -9201,82 +10868,82 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9342,18 +11009,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>8785298</v>
       </c>
       <c r="D3">
-        <v>21894222.530000001</v>
+        <v>16902697.530000001</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9410,18 +11077,18 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>21894222.530000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+        <v>25687995.530000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>4083625.96</v>
+        <v>4083625.97</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9481,18 +11148,18 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4083625.96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4083625.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>10874388.380000001</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9552,15 +11219,15 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>10874388.380000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>8166875</v>
@@ -9626,12 +11293,12 @@
         <v>8166875</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>9088939</v>
@@ -9697,15 +11364,15 @@
         <v>9088939</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8347590</v>
       </c>
       <c r="D8">
         <v>851797</v>
@@ -9723,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8442449</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -9765,15 +11432,15 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>9294246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9199387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -9839,12 +11506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -9910,12 +11577,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -9981,12 +11648,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10052,18 +11719,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>12021358.460000001</v>
+        <v>12021358.18</v>
       </c>
       <c r="D13">
-        <v>2223109.7400000002</v>
+        <v>2223109.7599999998</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -10120,15 +11787,15 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>14244468.199999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>14244467.939999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>3647296</v>
@@ -10194,12 +11861,12 @@
         <v>3647296</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -10265,12 +11932,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -10336,12 +12003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -10407,12 +12074,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10478,12 +12145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10549,12 +12216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -10620,12 +12287,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -10691,12 +12358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -10762,12 +12429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -10833,12 +12500,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -10904,12 +12571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -10975,12 +12642,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -11046,12 +12713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11117,12 +12784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11188,12 +12855,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11259,12 +12926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -11330,12 +12997,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -11401,12 +13068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -11472,12 +13139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -11543,12 +13210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -11614,12 +13281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -11685,12 +13352,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -11756,12 +13423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -11827,12 +13494,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -11898,12 +13565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -11969,12 +13636,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -12040,12 +13707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -12111,12 +13778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -12182,12 +13849,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -12253,12 +13920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -12324,12 +13991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -12395,12 +14062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -12466,12 +14133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -12537,12 +14204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -12608,12 +14275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -12679,12 +14346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -12750,12 +14417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -12821,12 +14488,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -12892,15 +14559,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2640000</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -12960,18 +14627,18 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2640000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2613539</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -13031,15 +14698,15 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2613539</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -13112,13 +14779,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13174,7 +14841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13221,10 +14888,10 @@
         <v>1085823</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -13233,12 +14900,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -13280,10 +14947,10 @@
         <v>1138308</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -13292,12 +14959,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -13336,10 +15003,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>888885.21</v>
+        <v>1787580.21</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -13351,12 +15018,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -13368,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22285.58</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -13383,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>30175.77</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -13395,27 +15062,27 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1801319.65</v>
+        <v>360000</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -13427,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>22285.58</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -13442,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>30175.77</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -13454,27 +15121,27 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>497358</v>
+        <v>1801319.93</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -13513,10 +15180,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1113665</v>
+        <v>497358</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -13525,15 +15192,15 @@
         <v>5</v>
       </c>
       <c r="S7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -13572,10 +15239,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1239401</v>
+        <v>1113665</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -13584,15 +15251,15 @@
         <v>5</v>
       </c>
       <c r="S8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -13631,27 +15298,27 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>332188.81</v>
+        <v>1239401</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -13690,10 +15357,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>116154</v>
+        <v>468893.18</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -13702,15 +15369,15 @@
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -13722,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17514.88</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -13737,7 +15404,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>60121.99</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -13749,10 +15416,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>556858.13</v>
+        <v>1624908.62</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -13761,7 +15428,243 @@
         <v>6</v>
       </c>
       <c r="S11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>332188.79999999999</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>116154</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>17514.88</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>60121.99</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>556858.14</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
         <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>356392</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -13771,13 +15674,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13833,7 +15736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13880,10 +15783,10 @@
         <v>8785298</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -13892,12 +15795,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -13936,13 +15839,13 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -13951,12 +15854,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -13995,10 +15898,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13108924.529999999</v>
+        <v>13108925.369999999</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -14010,12 +15913,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -14027,7 +15930,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>163427.59</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -14042,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>221288.95999999999</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -14054,27 +15957,27 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12021358.460000001</v>
+        <v>2640000</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -14086,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>163427.59</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -14101,7 +16004,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>221288.95999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -14113,27 +16016,27 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3647296</v>
+        <v>12021358.18</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -14172,10 +16075,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8166875</v>
+        <v>3647296</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -14184,15 +16087,15 @@
         <v>5</v>
       </c>
       <c r="S7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -14231,10 +16134,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9088939</v>
+        <v>8166875</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -14243,15 +16146,15 @@
         <v>5</v>
       </c>
       <c r="S8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -14290,27 +16193,27 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2223109.7400000002</v>
+        <v>9088939</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -14349,10 +16252,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>851797</v>
+        <v>3793772.16</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -14361,15 +16264,15 @@
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -14381,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>128442.43</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -14396,7 +16299,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>440894.6</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -14408,10 +16311,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4083625.96</v>
+        <v>10874388.380000001</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -14420,7 +16323,243 @@
         <v>6</v>
       </c>
       <c r="S11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2223109.7599999998</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>851797</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>128442.43</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>440894.6</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4083625.97</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
         <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2613539</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -14430,13 +16569,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14492,7 +16631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14509,13 +16648,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1085823</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1085823</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -14539,10 +16678,10 @@
         <v>1085823</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -14551,12 +16690,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -14598,10 +16737,10 @@
         <v>1138308</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -14610,12 +16749,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -14627,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>892408.89</v>
+        <v>1181305.1100000001</v>
       </c>
       <c r="G4">
         <v>5950.62</v>
@@ -14642,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>335.49</v>
+        <v>610134.27</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -14654,10 +16793,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>898695</v>
+        <v>1797390</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -14669,12 +16808,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -14686,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1823605.23</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -14701,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>30175.77</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -14710,30 +16849,30 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="O5">
-        <v>1853781</v>
+        <v>360000</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -14745,7 +16884,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>289036.67</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -14760,7 +16899,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>497358</v>
+        <v>1564744.61</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -14772,27 +16911,27 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>497358</v>
+        <v>1853781.28</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -14819,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1113665</v>
+        <v>497358</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -14831,10 +16970,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1113665</v>
+        <v>497358</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -14843,15 +16982,15 @@
         <v>5</v>
       </c>
       <c r="S7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -14863,10 +17002,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>495956.88</v>
+        <v>767755.74</v>
       </c>
       <c r="G8">
-        <v>743444.12</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14878,7 +17017,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>345909.26</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -14890,10 +17029,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1239401</v>
+        <v>1113665</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -14902,15 +17041,15 @@
         <v>5</v>
       </c>
       <c r="S8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -14922,10 +17061,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>495956.88</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>743444.12</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -14937,7 +17076,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>332188.81</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -14949,27 +17088,27 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>332188.81</v>
+        <v>1239401</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -14996,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>116154</v>
+        <v>468893.18</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -15008,10 +17147,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>116154</v>
+        <v>468893.18</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -15020,15 +17159,15 @@
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -15040,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>329659.21999999997</v>
+        <v>1624908.62</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -15055,7 +17194,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>304835.78000000003</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -15067,10 +17206,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>634495</v>
+        <v>1624908.62</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -15079,7 +17218,243 @@
         <v>6</v>
       </c>
       <c r="S11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>332188.79999999999</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>332188.79999999999</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>116154</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>116154</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>253633.08</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>380861.93</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>634495.01</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
         <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>356392</v>
+      </c>
+      <c r="O15">
+        <v>356392</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/output.xlsx
+++ b/Civilworks cost/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="gob_combined" sheetId="9" r:id="rId9"/>
     <sheet name="rpa_combined" sheetId="10" r:id="rId10"/>
     <sheet name="mobilization_original_input" sheetId="11" r:id="rId11"/>
-    <sheet name="civil_expenditure_list" sheetId="12" r:id="rId12"/>
+    <sheet name="civil_expenditure_list (2)" sheetId="13" r:id="rId12"/>
+    <sheet name="civil_expenditure_list" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="141">
   <si>
     <t xml:space="preserve">Sl No </t>
   </si>
@@ -451,6 +452,9 @@
   <si>
     <t>2017-06-21</t>
   </si>
+  <si>
+    <t xml:space="preserve">                                                    </t>
+  </si>
 </sst>
 </file>
 
@@ -508,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -516,10 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2706,9 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3691,571 +3689,1026 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1085823</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8785298</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9871121</v>
+      </c>
+      <c r="F2" s="2">
+        <v>680</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1138308</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8347590</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9485898</v>
+      </c>
+      <c r="F3" s="2">
+        <v>681</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1181305.1100000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8662906.620000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9844211.7300000004</v>
+      </c>
+      <c r="F4" s="2">
+        <v>680</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>5950.62</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43637.88</v>
+      </c>
+      <c r="E5" s="2">
+        <v>49588.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>681</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>610134.27</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4474319.3499999996</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5084453.6199999992</v>
+      </c>
+      <c r="F6" s="2">
+        <v>685</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>360000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2640000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>660</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>289036.67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1943627.95</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2232664.62</v>
+      </c>
+      <c r="F8" s="2">
+        <v>680</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1564744.61</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10462446.779999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12027191.390000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>685</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>497358</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3647296</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4144654</v>
+      </c>
+      <c r="F10" s="2">
+        <v>685</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>767755.74</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5630207.6500000004</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6397963.3900000006</v>
+      </c>
+      <c r="F11" s="2">
+        <v>680</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>345909.26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2536667.35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2882576.61</v>
+      </c>
+      <c r="F12" s="2">
+        <v>685</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>495956.88</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3637016.47</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4132973.35</v>
+      </c>
+      <c r="F13" s="2">
+        <v>680</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>743444.12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5451922.5300000003</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6195366.6500000004</v>
+      </c>
+      <c r="F14" s="2">
+        <v>681</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="2">
+        <v>9748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>468893.18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3793772.16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4262665.34</v>
+      </c>
+      <c r="F15" s="2">
+        <v>685</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1624908.62</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10874388.380000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>12499297</v>
+      </c>
+      <c r="F16" s="2">
+        <v>680</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>332188.79999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2223109.7599999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2555298.56</v>
+      </c>
+      <c r="F17" s="2">
+        <v>685</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="2">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>116154</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>851797</v>
+      </c>
+      <c r="E18" s="2">
+        <v>967951</v>
+      </c>
+      <c r="F18" s="2">
+        <v>681</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="2">
+        <v>9788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>253633.08</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1859975.72</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2113608.7999999998</v>
+      </c>
+      <c r="F19" s="2">
+        <v>680</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="2">
+        <v>9789</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>380861.93</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2792987.28</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3173849.21</v>
+      </c>
+      <c r="F20" s="2">
+        <v>685</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9789</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>356392</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2613539</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2969931</v>
+      </c>
+      <c r="F21" s="2">
+        <v>660</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="2">
+        <v>9790</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
         <v>1085823</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8785298</v>
       </c>
       <c r="E2" s="2">
-        <v>8785298</v>
-      </c>
-      <c r="F2">
         <v>9871121</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="2">
         <v>680</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="2">
         <v>9672</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
         <v>1138308</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8347590</v>
       </c>
       <c r="E3" s="2">
-        <v>8347590</v>
-      </c>
-      <c r="F3">
         <v>9485898</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="2">
         <v>681</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="2">
         <v>9695</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>1181305.1100000001</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8662906.620000001</v>
       </c>
       <c r="E4" s="2">
-        <v>8662906.620000001</v>
-      </c>
-      <c r="F4">
         <v>9844211.7300000004</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="2">
         <v>680</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I4">
+      <c r="H4" s="2">
         <v>9698</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>5950.62</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43637.88</v>
       </c>
       <c r="E5" s="2">
-        <v>43637.88</v>
-      </c>
-      <c r="F5">
         <v>49588.5</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="2">
         <v>681</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="2">
         <v>9698</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>610134.27</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4474319.3499999996</v>
       </c>
       <c r="E6" s="2">
-        <v>4474319.3499999996</v>
-      </c>
-      <c r="F6">
         <v>5084453.6199999992</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="2">
         <v>685</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="2">
         <v>9698</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>360000</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2640000</v>
       </c>
       <c r="E7" s="2">
-        <v>2640000</v>
-      </c>
-      <c r="F7">
         <v>3000000</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="2">
         <v>660</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="2">
         <v>9768</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>289036.67</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1943627.95</v>
       </c>
       <c r="E8" s="2">
-        <v>1943627.95</v>
-      </c>
-      <c r="F8">
         <v>2232664.62</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="2">
         <v>680</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="2">
         <v>9722</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>1564744.61</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10462446.779999999</v>
       </c>
       <c r="E9" s="2">
-        <v>10462446.779999999</v>
-      </c>
-      <c r="F9">
         <v>12027191.390000001</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="2">
         <v>685</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="2">
         <v>9722</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>497358</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3647296</v>
       </c>
       <c r="E10" s="2">
-        <v>3647296</v>
-      </c>
-      <c r="F10">
         <v>4144654</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="2">
         <v>685</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="2">
         <v>9744</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>767755.74</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5630207.6500000004</v>
       </c>
       <c r="E11" s="2">
-        <v>5630207.6500000004</v>
-      </c>
-      <c r="F11">
         <v>6397963.3900000006</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="2">
         <v>680</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="2">
         <v>9745</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>345909.26</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2536667.35</v>
       </c>
       <c r="E12" s="2">
-        <v>2536667.35</v>
-      </c>
-      <c r="F12">
         <v>2882576.61</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="2">
         <v>685</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="2">
         <v>9745</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>495956.88</v>
       </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3637016.47</v>
       </c>
       <c r="E13" s="2">
-        <v>3637016.47</v>
-      </c>
-      <c r="F13">
         <v>4132973.35</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="2">
         <v>680</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="2">
         <v>9748</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>743444.12</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5451922.5300000003</v>
       </c>
       <c r="E14" s="2">
-        <v>5451922.5300000003</v>
-      </c>
-      <c r="F14">
         <v>6195366.6500000004</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="2">
         <v>681</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I14">
+      <c r="H14" s="2">
         <v>9748</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>468893.18</v>
       </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3793772.16</v>
       </c>
       <c r="E15" s="2">
-        <v>3793772.16</v>
-      </c>
-      <c r="F15">
         <v>4262665.34</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="2">
         <v>685</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I15">
+      <c r="H15" s="2">
         <v>9571</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>1624908.62</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10874388.380000001</v>
       </c>
       <c r="E16" s="2">
-        <v>10874388.380000001</v>
-      </c>
-      <c r="F16">
         <v>12499297</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="2">
         <v>680</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I16">
+      <c r="H16" s="2">
         <v>9775</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>332188.79999999999</v>
       </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2223109.7599999998</v>
       </c>
       <c r="E17" s="2">
-        <v>2223109.7599999998</v>
-      </c>
-      <c r="F17">
         <v>2555298.56</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="2">
         <v>685</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I17">
+      <c r="H17" s="2">
         <v>9781</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>116154</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>851797</v>
       </c>
       <c r="E18" s="2">
-        <v>851797</v>
-      </c>
-      <c r="F18">
         <v>967951</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="2">
         <v>681</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I18">
+      <c r="H18" s="2">
         <v>9788</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>253633.08</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1859975.72</v>
       </c>
       <c r="E19" s="2">
-        <v>1859975.72</v>
-      </c>
-      <c r="F19">
         <v>2113608.7999999998</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="2">
         <v>680</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I19">
+      <c r="H19" s="2">
         <v>9789</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>380861.93</v>
       </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2792987.28</v>
       </c>
       <c r="E20" s="2">
-        <v>2792987.28</v>
-      </c>
-      <c r="F20">
         <v>3173849.21</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="2">
         <v>685</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I20">
+      <c r="H20" s="2">
         <v>9789</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>356392</v>
       </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2613539</v>
       </c>
       <c r="E21" s="2">
-        <v>2613539</v>
-      </c>
-      <c r="F21">
         <v>2969931</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="2">
         <v>660</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I21">
+      <c r="H21" s="2">
         <v>9790</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="4"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
